--- a/country_info.xlsx
+++ b/country_info.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonmar/gmail_acct/python-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{994A71DE-4CA7-B64E-9D5F-981BE51767F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97722A6E-97EC-494D-B137-DBB2A06F26B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="-20560" windowWidth="25440" windowHeight="15360"/>
+    <workbookView xWindow="3160" yWindow="0" windowWidth="25440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_info" sheetId="1" r:id="rId1"/>
@@ -4187,7 +4187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5041,11 +5041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12018,253 +12018,253 @@
     <sortCondition ref="A2:A257"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://countrycode.org/afghanistan"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://countrycode.org/albania"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://countrycode.org/algeria"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://countrycode.org/americansamoa"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://countrycode.org/andorra"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://countrycode.org/angola"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://countrycode.org/anguilla"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://countrycode.org/antarctica"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://countrycode.org/antiguaandbarbuda"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://countrycode.org/argentina"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://countrycode.org/armenia"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://countrycode.org/aruba"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://countrycode.org/australia"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://countrycode.org/austria"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://countrycode.org/azerbaijan"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://countrycode.org/bahamas"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://countrycode.org/bahrain"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://countrycode.org/bangladesh"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://countrycode.org/barbados"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://countrycode.org/belarus"/>
-    <hyperlink ref="A23" r:id="rId21" display="https://countrycode.org/belgium"/>
-    <hyperlink ref="A24" r:id="rId22" display="https://countrycode.org/belize"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://countrycode.org/benin"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://countrycode.org/bermuda"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://countrycode.org/bhutan"/>
-    <hyperlink ref="A28" r:id="rId26" display="https://countrycode.org/bolivia"/>
-    <hyperlink ref="A29" r:id="rId27" display="https://countrycode.org/bosnia"/>
-    <hyperlink ref="A30" r:id="rId28" display="https://countrycode.org/botswana"/>
-    <hyperlink ref="A31" r:id="rId29" display="https://countrycode.org/brazil"/>
-    <hyperlink ref="A32" r:id="rId30" display="https://countrycode.org/britishindianoceanterritory"/>
-    <hyperlink ref="A33" r:id="rId31" display="https://countrycode.org/britishvirginislands"/>
-    <hyperlink ref="A34" r:id="rId32" display="https://countrycode.org/brunei"/>
-    <hyperlink ref="A35" r:id="rId33" display="https://countrycode.org/bulgaria"/>
-    <hyperlink ref="A36" r:id="rId34" display="https://countrycode.org/burkinafaso"/>
-    <hyperlink ref="A37" r:id="rId35" display="https://countrycode.org/burundi"/>
-    <hyperlink ref="A38" r:id="rId36" display="https://countrycode.org/cambodia"/>
-    <hyperlink ref="A39" r:id="rId37" display="https://countrycode.org/cameroon"/>
-    <hyperlink ref="A41" r:id="rId38" display="https://countrycode.org/canada"/>
-    <hyperlink ref="A42" r:id="rId39" display="https://countrycode.org/capeverde"/>
-    <hyperlink ref="A43" r:id="rId40" display="https://countrycode.org/caymanislands"/>
-    <hyperlink ref="A44" r:id="rId41" display="https://countrycode.org/centralafricanrepublic"/>
-    <hyperlink ref="A45" r:id="rId42" display="https://countrycode.org/chad"/>
-    <hyperlink ref="A46" r:id="rId43" display="https://countrycode.org/chile"/>
-    <hyperlink ref="A47" r:id="rId44" display="https://countrycode.org/china"/>
-    <hyperlink ref="A48" r:id="rId45" display="https://countrycode.org/christmasisland"/>
-    <hyperlink ref="A49" r:id="rId46" display="https://countrycode.org/cocoskeelingislands"/>
-    <hyperlink ref="A50" r:id="rId47" display="https://countrycode.org/colombia"/>
-    <hyperlink ref="A51" r:id="rId48" display="https://countrycode.org/comoros"/>
-    <hyperlink ref="A52" r:id="rId49" display="https://countrycode.org/cookislands"/>
-    <hyperlink ref="A53" r:id="rId50" display="https://countrycode.org/costarica"/>
-    <hyperlink ref="A54" r:id="rId51" display="https://countrycode.org/croatia"/>
-    <hyperlink ref="A55" r:id="rId52" display="https://countrycode.org/cuba"/>
-    <hyperlink ref="A56" r:id="rId53" display="https://countrycode.org/curacao"/>
-    <hyperlink ref="A57" r:id="rId54" display="https://countrycode.org/cyprus"/>
-    <hyperlink ref="A58" r:id="rId55" display="https://countrycode.org/czechrepublic"/>
-    <hyperlink ref="A59" r:id="rId56" display="https://countrycode.org/congodemocraticrepublic"/>
-    <hyperlink ref="A60" r:id="rId57" display="https://countrycode.org/denmark"/>
-    <hyperlink ref="A61" r:id="rId58" display="https://countrycode.org/djibouti"/>
-    <hyperlink ref="A62" r:id="rId59" display="https://countrycode.org/dominica"/>
-    <hyperlink ref="A63" r:id="rId60" display="https://countrycode.org/dominicanrepublic"/>
-    <hyperlink ref="A64" r:id="rId61" display="https://countrycode.org/easttimor"/>
-    <hyperlink ref="A65" r:id="rId62" display="https://countrycode.org/ecuador"/>
-    <hyperlink ref="A66" r:id="rId63" display="https://countrycode.org/egypt"/>
-    <hyperlink ref="A67" r:id="rId64" display="https://countrycode.org/elsalvador"/>
-    <hyperlink ref="A68" r:id="rId65" display="https://countrycode.org/equatorialguinea"/>
-    <hyperlink ref="A69" r:id="rId66" display="https://countrycode.org/eritrea"/>
-    <hyperlink ref="A70" r:id="rId67" display="https://countrycode.org/estonia"/>
-    <hyperlink ref="A71" r:id="rId68" display="https://countrycode.org/ethiopia"/>
-    <hyperlink ref="A72" r:id="rId69" display="https://countrycode.org/falklands"/>
-    <hyperlink ref="A73" r:id="rId70" display="https://countrycode.org/faroeislands"/>
-    <hyperlink ref="A74" r:id="rId71" display="https://countrycode.org/fiji"/>
-    <hyperlink ref="A75" r:id="rId72" display="https://countrycode.org/finland"/>
-    <hyperlink ref="A76" r:id="rId73" display="https://countrycode.org/france"/>
-    <hyperlink ref="A77" r:id="rId74" display="https://countrycode.org/frenchpolynesia"/>
-    <hyperlink ref="A78" r:id="rId75" display="https://countrycode.org/gabon"/>
-    <hyperlink ref="A79" r:id="rId76" display="https://countrycode.org/gambia"/>
-    <hyperlink ref="A80" r:id="rId77" display="https://countrycode.org/georgia"/>
-    <hyperlink ref="A81" r:id="rId78" display="https://countrycode.org/germany"/>
-    <hyperlink ref="A82" r:id="rId79" display="https://countrycode.org/ghana"/>
-    <hyperlink ref="A83" r:id="rId80" display="https://countrycode.org/gibraltar"/>
-    <hyperlink ref="A84" r:id="rId81" display="https://countrycode.org/greece"/>
-    <hyperlink ref="A85" r:id="rId82" display="https://countrycode.org/greenland"/>
-    <hyperlink ref="A86" r:id="rId83" display="https://countrycode.org/grenada"/>
-    <hyperlink ref="A87" r:id="rId84" display="https://countrycode.org/guam"/>
-    <hyperlink ref="A88" r:id="rId85" display="https://countrycode.org/guatemala"/>
-    <hyperlink ref="A89" r:id="rId86" display="https://countrycode.org/guernsey"/>
-    <hyperlink ref="A90" r:id="rId87" display="https://countrycode.org/guinea"/>
-    <hyperlink ref="A91" r:id="rId88" display="https://countrycode.org/guineabissau"/>
-    <hyperlink ref="A92" r:id="rId89" display="https://countrycode.org/guyana"/>
-    <hyperlink ref="A93" r:id="rId90" display="https://countrycode.org/haiti"/>
-    <hyperlink ref="A94" r:id="rId91" display="https://countrycode.org/honduras"/>
-    <hyperlink ref="A95" r:id="rId92" display="https://countrycode.org/hongkong"/>
-    <hyperlink ref="A96" r:id="rId93" display="https://countrycode.org/hungary"/>
-    <hyperlink ref="A97" r:id="rId94" display="https://countrycode.org/iceland"/>
-    <hyperlink ref="A99" r:id="rId95" display="https://countrycode.org/india"/>
-    <hyperlink ref="A100" r:id="rId96" display="https://countrycode.org/indonesia"/>
-    <hyperlink ref="A101" r:id="rId97" display="https://countrycode.org/iran"/>
-    <hyperlink ref="A102" r:id="rId98" display="https://countrycode.org/iraq"/>
-    <hyperlink ref="A104" r:id="rId99" display="https://countrycode.org/ireland"/>
-    <hyperlink ref="A105" r:id="rId100" display="https://countrycode.org/isleofman"/>
-    <hyperlink ref="A106" r:id="rId101" display="https://countrycode.org/israel"/>
-    <hyperlink ref="A108" r:id="rId102" display="https://countrycode.org/italy"/>
-    <hyperlink ref="A109" r:id="rId103" display="https://countrycode.org/ivorycoast"/>
-    <hyperlink ref="A110" r:id="rId104" display="https://countrycode.org/jamaica"/>
-    <hyperlink ref="A112" r:id="rId105" display="https://countrycode.org/japan"/>
-    <hyperlink ref="A113" r:id="rId106" display="https://countrycode.org/jersey"/>
-    <hyperlink ref="A114" r:id="rId107" display="https://countrycode.org/jordan"/>
-    <hyperlink ref="A115" r:id="rId108" display="https://countrycode.org/kazakhstan"/>
-    <hyperlink ref="A116" r:id="rId109" display="https://countrycode.org/kenya"/>
-    <hyperlink ref="A117" r:id="rId110" display="https://countrycode.org/kiribati"/>
-    <hyperlink ref="A118" r:id="rId111" display="https://countrycode.org/kosovo"/>
-    <hyperlink ref="A119" r:id="rId112" display="https://countrycode.org/kuwait"/>
-    <hyperlink ref="A120" r:id="rId113" display="https://countrycode.org/kyrgyzstan"/>
-    <hyperlink ref="A121" r:id="rId114" display="https://countrycode.org/laos"/>
-    <hyperlink ref="A122" r:id="rId115" display="https://countrycode.org/latvia"/>
-    <hyperlink ref="A123" r:id="rId116" display="https://countrycode.org/lebanon"/>
-    <hyperlink ref="A124" r:id="rId117" display="https://countrycode.org/lesotho"/>
-    <hyperlink ref="A125" r:id="rId118" display="https://countrycode.org/liberia"/>
-    <hyperlink ref="A126" r:id="rId119" display="https://countrycode.org/libya"/>
-    <hyperlink ref="A127" r:id="rId120" display="https://countrycode.org/liechtenstein"/>
-    <hyperlink ref="A128" r:id="rId121" display="https://countrycode.org/lithuania"/>
-    <hyperlink ref="A130" r:id="rId122" display="https://countrycode.org/luxembourg"/>
-    <hyperlink ref="A131" r:id="rId123" display="https://countrycode.org/macau"/>
-    <hyperlink ref="A132" r:id="rId124" display="https://countrycode.org/macedonia"/>
-    <hyperlink ref="A133" r:id="rId125" display="https://countrycode.org/madagascar"/>
-    <hyperlink ref="A134" r:id="rId126" display="https://countrycode.org/malawi"/>
-    <hyperlink ref="A135" r:id="rId127" display="https://countrycode.org/malaysia"/>
-    <hyperlink ref="A136" r:id="rId128" display="https://countrycode.org/maldives"/>
-    <hyperlink ref="A137" r:id="rId129" display="https://countrycode.org/mali"/>
-    <hyperlink ref="A139" r:id="rId130" display="https://countrycode.org/malta"/>
-    <hyperlink ref="A140" r:id="rId131" display="https://countrycode.org/marshallislands"/>
-    <hyperlink ref="A141" r:id="rId132" display="https://countrycode.org/mauritania"/>
-    <hyperlink ref="A142" r:id="rId133" display="https://countrycode.org/mauritius"/>
-    <hyperlink ref="A143" r:id="rId134" display="https://countrycode.org/mayotte"/>
-    <hyperlink ref="A144" r:id="rId135" display="https://countrycode.org/mexico"/>
-    <hyperlink ref="A145" r:id="rId136" display="https://countrycode.org/micronesia"/>
-    <hyperlink ref="A146" r:id="rId137" display="https://countrycode.org/moldova"/>
-    <hyperlink ref="A147" r:id="rId138" display="https://countrycode.org/monaco"/>
-    <hyperlink ref="A148" r:id="rId139" display="https://countrycode.org/mongolia"/>
-    <hyperlink ref="A149" r:id="rId140" display="https://countrycode.org/montenegro"/>
-    <hyperlink ref="A150" r:id="rId141" display="https://countrycode.org/montserrat"/>
-    <hyperlink ref="A151" r:id="rId142" display="https://countrycode.org/morocco"/>
-    <hyperlink ref="A152" r:id="rId143" display="https://countrycode.org/mozambique"/>
-    <hyperlink ref="A153" r:id="rId144" display="https://countrycode.org/burma"/>
-    <hyperlink ref="A154" r:id="rId145" display="https://countrycode.org/namibia"/>
-    <hyperlink ref="A155" r:id="rId146" display="https://countrycode.org/nauru"/>
-    <hyperlink ref="A156" r:id="rId147" display="https://countrycode.org/nepal"/>
-    <hyperlink ref="A157" r:id="rId148" display="https://countrycode.org/netherlands"/>
-    <hyperlink ref="A158" r:id="rId149" display="https://countrycode.org/netherlandsantilles"/>
-    <hyperlink ref="A159" r:id="rId150" display="https://countrycode.org/newcaledonia"/>
-    <hyperlink ref="A160" r:id="rId151" display="https://countrycode.org/newzealand"/>
-    <hyperlink ref="A161" r:id="rId152" display="https://countrycode.org/nicaragua"/>
-    <hyperlink ref="A162" r:id="rId153" display="https://countrycode.org/niger"/>
-    <hyperlink ref="A163" r:id="rId154" display="https://countrycode.org/nigeria"/>
-    <hyperlink ref="A164" r:id="rId155" display="https://countrycode.org/niue"/>
-    <hyperlink ref="A165" r:id="rId156" display="https://countrycode.org/northkorea"/>
-    <hyperlink ref="A166" r:id="rId157" display="https://countrycode.org/northernmarianaislands"/>
-    <hyperlink ref="A167" r:id="rId158" display="https://countrycode.org/norway"/>
-    <hyperlink ref="A168" r:id="rId159" display="https://countrycode.org/oman"/>
-    <hyperlink ref="A169" r:id="rId160" display="https://countrycode.org/pakistan"/>
-    <hyperlink ref="A170" r:id="rId161" display="https://countrycode.org/palau"/>
-    <hyperlink ref="A171" r:id="rId162" display="https://countrycode.org/palestine"/>
-    <hyperlink ref="A172" r:id="rId163" display="https://countrycode.org/panama"/>
-    <hyperlink ref="A173" r:id="rId164" display="https://countrycode.org/papuanewguinea"/>
-    <hyperlink ref="A174" r:id="rId165" display="https://countrycode.org/paraguay"/>
-    <hyperlink ref="A175" r:id="rId166" display="https://countrycode.org/peru"/>
-    <hyperlink ref="A176" r:id="rId167" display="https://countrycode.org/philippines"/>
-    <hyperlink ref="A177" r:id="rId168" display="https://countrycode.org/pitcairnislands"/>
-    <hyperlink ref="A178" r:id="rId169" display="https://countrycode.org/poland"/>
-    <hyperlink ref="A179" r:id="rId170" display="https://countrycode.org/portugal"/>
-    <hyperlink ref="A180" r:id="rId171" display="https://countrycode.org/puertorico"/>
-    <hyperlink ref="A181" r:id="rId172" display="https://countrycode.org/qatar"/>
-    <hyperlink ref="A182" r:id="rId173" display="https://countrycode.org/congo"/>
-    <hyperlink ref="A183" r:id="rId174" display="https://countrycode.org/reunion"/>
-    <hyperlink ref="A184" r:id="rId175" display="https://countrycode.org/romania"/>
-    <hyperlink ref="A185" r:id="rId176" display="https://countrycode.org/russia"/>
-    <hyperlink ref="A186" r:id="rId177" display="https://countrycode.org/rwanda"/>
-    <hyperlink ref="A187" r:id="rId178" display="https://countrycode.org/saintbarthelemy"/>
-    <hyperlink ref="A188" r:id="rId179" display="https://countrycode.org/sthelena"/>
-    <hyperlink ref="A189" r:id="rId180" display="https://countrycode.org/stkitts"/>
-    <hyperlink ref="A190" r:id="rId181" display="https://countrycode.org/stlucia"/>
-    <hyperlink ref="A191" r:id="rId182" display="https://countrycode.org/stmartin"/>
-    <hyperlink ref="A192" r:id="rId183" display="https://countrycode.org/stpierre"/>
-    <hyperlink ref="A193" r:id="rId184" display="https://countrycode.org/stvincent"/>
-    <hyperlink ref="A194" r:id="rId185" display="https://countrycode.org/samoa"/>
-    <hyperlink ref="A195" r:id="rId186" display="https://countrycode.org/sanmarino"/>
-    <hyperlink ref="A196" r:id="rId187" display="https://countrycode.org/saotomeandprincipe"/>
-    <hyperlink ref="A197" r:id="rId188" display="https://countrycode.org/saudiarabia"/>
-    <hyperlink ref="A198" r:id="rId189" display="https://countrycode.org/senegal"/>
-    <hyperlink ref="A199" r:id="rId190" display="https://countrycode.org/serbia"/>
-    <hyperlink ref="A201" r:id="rId191" display="https://countrycode.org/seychelles"/>
-    <hyperlink ref="A202" r:id="rId192" display="https://countrycode.org/sierraleone"/>
-    <hyperlink ref="A204" r:id="rId193" display="https://countrycode.org/singapore"/>
-    <hyperlink ref="A205" r:id="rId194" display="https://countrycode.org/sintmaarten"/>
-    <hyperlink ref="A206" r:id="rId195" display="https://countrycode.org/slovakia"/>
-    <hyperlink ref="A207" r:id="rId196" display="https://countrycode.org/slovenia"/>
-    <hyperlink ref="A208" r:id="rId197" display="https://countrycode.org/solomonislands"/>
-    <hyperlink ref="A209" r:id="rId198" display="https://countrycode.org/somalia"/>
-    <hyperlink ref="A210" r:id="rId199" display="https://countrycode.org/southafrica"/>
-    <hyperlink ref="A211" r:id="rId200" display="https://countrycode.org/southkorea"/>
-    <hyperlink ref="A212" r:id="rId201" display="https://countrycode.org/southsudan"/>
-    <hyperlink ref="A214" r:id="rId202" display="https://countrycode.org/spain"/>
-    <hyperlink ref="A215" r:id="rId203" display="https://countrycode.org/srilanka"/>
-    <hyperlink ref="A216" r:id="rId204" display="https://countrycode.org/sudan"/>
-    <hyperlink ref="A217" r:id="rId205" display="https://countrycode.org/suriname"/>
-    <hyperlink ref="A218" r:id="rId206" display="https://countrycode.org/svalbard"/>
-    <hyperlink ref="A219" r:id="rId207" display="https://countrycode.org/swaziland"/>
-    <hyperlink ref="A220" r:id="rId208" display="https://countrycode.org/sweden"/>
-    <hyperlink ref="A223" r:id="rId209" display="https://countrycode.org/switzerland"/>
-    <hyperlink ref="A224" r:id="rId210" display="https://countrycode.org/syria"/>
-    <hyperlink ref="A225" r:id="rId211" display="https://countrycode.org/taiwan"/>
-    <hyperlink ref="A226" r:id="rId212" display="https://countrycode.org/tajikistan"/>
-    <hyperlink ref="A227" r:id="rId213" display="https://countrycode.org/tanzania"/>
-    <hyperlink ref="A229" r:id="rId214" display="https://countrycode.org/thailand"/>
-    <hyperlink ref="A230" r:id="rId215" display="https://countrycode.org/togo"/>
-    <hyperlink ref="A231" r:id="rId216" display="https://countrycode.org/tokelau"/>
-    <hyperlink ref="A232" r:id="rId217" display="https://countrycode.org/tonga"/>
-    <hyperlink ref="A233" r:id="rId218" display="https://countrycode.org/trinidadandtobago"/>
-    <hyperlink ref="A234" r:id="rId219" display="https://countrycode.org/tunisia"/>
-    <hyperlink ref="A235" r:id="rId220" display="https://countrycode.org/turkey"/>
-    <hyperlink ref="A236" r:id="rId221" display="https://countrycode.org/turkmenistan"/>
-    <hyperlink ref="A237" r:id="rId222" display="https://countrycode.org/turksandcaicos"/>
-    <hyperlink ref="A238" r:id="rId223" display="https://countrycode.org/tuvalu"/>
-    <hyperlink ref="A239" r:id="rId224" display="https://countrycode.org/virginislands"/>
-    <hyperlink ref="A240" r:id="rId225" display="https://countrycode.org/uganda"/>
-    <hyperlink ref="A241" r:id="rId226" display="https://countrycode.org/ukraine"/>
-    <hyperlink ref="A242" r:id="rId227" display="https://countrycode.org/uae"/>
-    <hyperlink ref="A243" r:id="rId228" display="https://countrycode.org/uk"/>
-    <hyperlink ref="A245" r:id="rId229" display="https://countrycode.org/usa"/>
-    <hyperlink ref="A246" r:id="rId230" display="https://countrycode.org/uruguay"/>
-    <hyperlink ref="A247" r:id="rId231" display="https://countrycode.org/uzbekistan"/>
-    <hyperlink ref="A248" r:id="rId232" display="https://countrycode.org/vanuatu"/>
-    <hyperlink ref="A249" r:id="rId233" display="https://countrycode.org/vatican"/>
-    <hyperlink ref="A250" r:id="rId234" display="https://countrycode.org/venezuela"/>
-    <hyperlink ref="A251" r:id="rId235" display="https://countrycode.org/vietnam"/>
-    <hyperlink ref="A252" r:id="rId236" display="https://countrycode.org/wallisandfutuna"/>
-    <hyperlink ref="A253" r:id="rId237" display="https://countrycode.org/westernsahara"/>
-    <hyperlink ref="A254" r:id="rId238" display="https://countrycode.org/yemen"/>
-    <hyperlink ref="A255" r:id="rId239" display="https://countrycode.org/zambia"/>
-    <hyperlink ref="A256" r:id="rId240" display="https://countrycode.org/zimbabwe"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://countrycode.org/afghanistan" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://countrycode.org/albania" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://countrycode.org/algeria" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://countrycode.org/americansamoa" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://countrycode.org/andorra" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://countrycode.org/angola" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://countrycode.org/anguilla" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://countrycode.org/antarctica" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://countrycode.org/argentina" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://countrycode.org/armenia" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://countrycode.org/aruba" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://countrycode.org/australia" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://countrycode.org/austria" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://countrycode.org/azerbaijan" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://countrycode.org/bahamas" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://countrycode.org/bahrain" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://countrycode.org/bangladesh" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://countrycode.org/barbados" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://countrycode.org/belarus" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://countrycode.org/belgium" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://countrycode.org/belize" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://countrycode.org/benin" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://countrycode.org/bermuda" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://countrycode.org/bhutan" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://countrycode.org/bolivia" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://countrycode.org/bosnia" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://countrycode.org/botswana" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://countrycode.org/brazil" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://countrycode.org/britishvirginislands" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://countrycode.org/brunei" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A35" r:id="rId33" display="https://countrycode.org/bulgaria" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A36" r:id="rId34" display="https://countrycode.org/burkinafaso" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://countrycode.org/burundi" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A38" r:id="rId36" display="https://countrycode.org/cambodia" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A39" r:id="rId37" display="https://countrycode.org/cameroon" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A41" r:id="rId38" display="https://countrycode.org/canada" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A42" r:id="rId39" display="https://countrycode.org/capeverde" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A43" r:id="rId40" display="https://countrycode.org/caymanislands" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A44" r:id="rId41" display="https://countrycode.org/centralafricanrepublic" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A45" r:id="rId42" display="https://countrycode.org/chad" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A46" r:id="rId43" display="https://countrycode.org/chile" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A47" r:id="rId44" display="https://countrycode.org/china" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A48" r:id="rId45" display="https://countrycode.org/christmasisland" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A49" r:id="rId46" display="https://countrycode.org/cocoskeelingislands" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A50" r:id="rId47" display="https://countrycode.org/colombia" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A51" r:id="rId48" display="https://countrycode.org/comoros" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A52" r:id="rId49" display="https://countrycode.org/cookislands" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A53" r:id="rId50" display="https://countrycode.org/costarica" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A54" r:id="rId51" display="https://countrycode.org/croatia" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A55" r:id="rId52" display="https://countrycode.org/cuba" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A56" r:id="rId53" display="https://countrycode.org/curacao" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A57" r:id="rId54" display="https://countrycode.org/cyprus" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A58" r:id="rId55" display="https://countrycode.org/czechrepublic" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A59" r:id="rId56" display="https://countrycode.org/congodemocraticrepublic" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A60" r:id="rId57" display="https://countrycode.org/denmark" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A61" r:id="rId58" display="https://countrycode.org/djibouti" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A62" r:id="rId59" display="https://countrycode.org/dominica" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A63" r:id="rId60" display="https://countrycode.org/dominicanrepublic" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A64" r:id="rId61" display="https://countrycode.org/easttimor" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A65" r:id="rId62" display="https://countrycode.org/ecuador" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A66" r:id="rId63" display="https://countrycode.org/egypt" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A67" r:id="rId64" display="https://countrycode.org/elsalvador" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A68" r:id="rId65" display="https://countrycode.org/equatorialguinea" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A69" r:id="rId66" display="https://countrycode.org/eritrea" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A70" r:id="rId67" display="https://countrycode.org/estonia" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A71" r:id="rId68" display="https://countrycode.org/ethiopia" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A72" r:id="rId69" display="https://countrycode.org/falklands" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A73" r:id="rId70" display="https://countrycode.org/faroeislands" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A74" r:id="rId71" display="https://countrycode.org/fiji" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A75" r:id="rId72" display="https://countrycode.org/finland" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A76" r:id="rId73" display="https://countrycode.org/france" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A77" r:id="rId74" display="https://countrycode.org/frenchpolynesia" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A78" r:id="rId75" display="https://countrycode.org/gabon" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A79" r:id="rId76" display="https://countrycode.org/gambia" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A80" r:id="rId77" display="https://countrycode.org/georgia" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A81" r:id="rId78" display="https://countrycode.org/germany" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A82" r:id="rId79" display="https://countrycode.org/ghana" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A83" r:id="rId80" display="https://countrycode.org/gibraltar" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A84" r:id="rId81" display="https://countrycode.org/greece" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A85" r:id="rId82" display="https://countrycode.org/greenland" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A86" r:id="rId83" display="https://countrycode.org/grenada" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A87" r:id="rId84" display="https://countrycode.org/guam" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A88" r:id="rId85" display="https://countrycode.org/guatemala" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A89" r:id="rId86" display="https://countrycode.org/guernsey" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A90" r:id="rId87" display="https://countrycode.org/guinea" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A91" r:id="rId88" display="https://countrycode.org/guineabissau" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A92" r:id="rId89" display="https://countrycode.org/guyana" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A93" r:id="rId90" display="https://countrycode.org/haiti" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A94" r:id="rId91" display="https://countrycode.org/honduras" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A95" r:id="rId92" display="https://countrycode.org/hongkong" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A96" r:id="rId93" display="https://countrycode.org/hungary" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A97" r:id="rId94" display="https://countrycode.org/iceland" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A99" r:id="rId95" display="https://countrycode.org/india" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A100" r:id="rId96" display="https://countrycode.org/indonesia" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A101" r:id="rId97" display="https://countrycode.org/iran" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A102" r:id="rId98" display="https://countrycode.org/iraq" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A104" r:id="rId99" display="https://countrycode.org/ireland" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A105" r:id="rId100" display="https://countrycode.org/isleofman" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A106" r:id="rId101" display="https://countrycode.org/israel" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A108" r:id="rId102" display="https://countrycode.org/italy" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A109" r:id="rId103" display="https://countrycode.org/ivorycoast" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A110" r:id="rId104" display="https://countrycode.org/jamaica" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A112" r:id="rId105" display="https://countrycode.org/japan" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A113" r:id="rId106" display="https://countrycode.org/jersey" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A114" r:id="rId107" display="https://countrycode.org/jordan" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A115" r:id="rId108" display="https://countrycode.org/kazakhstan" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A116" r:id="rId109" display="https://countrycode.org/kenya" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A117" r:id="rId110" display="https://countrycode.org/kiribati" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A118" r:id="rId111" display="https://countrycode.org/kosovo" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A119" r:id="rId112" display="https://countrycode.org/kuwait" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A120" r:id="rId113" display="https://countrycode.org/kyrgyzstan" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A121" r:id="rId114" display="https://countrycode.org/laos" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A122" r:id="rId115" display="https://countrycode.org/latvia" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A123" r:id="rId116" display="https://countrycode.org/lebanon" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A124" r:id="rId117" display="https://countrycode.org/lesotho" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A125" r:id="rId118" display="https://countrycode.org/liberia" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A126" r:id="rId119" display="https://countrycode.org/libya" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A127" r:id="rId120" display="https://countrycode.org/liechtenstein" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A128" r:id="rId121" display="https://countrycode.org/lithuania" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A130" r:id="rId122" display="https://countrycode.org/luxembourg" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A131" r:id="rId123" display="https://countrycode.org/macau" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A132" r:id="rId124" display="https://countrycode.org/macedonia" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A133" r:id="rId125" display="https://countrycode.org/madagascar" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A134" r:id="rId126" display="https://countrycode.org/malawi" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A135" r:id="rId127" display="https://countrycode.org/malaysia" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A136" r:id="rId128" display="https://countrycode.org/maldives" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A137" r:id="rId129" display="https://countrycode.org/mali" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A139" r:id="rId130" display="https://countrycode.org/malta" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A140" r:id="rId131" display="https://countrycode.org/marshallislands" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A141" r:id="rId132" display="https://countrycode.org/mauritania" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A142" r:id="rId133" display="https://countrycode.org/mauritius" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A143" r:id="rId134" display="https://countrycode.org/mayotte" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A144" r:id="rId135" display="https://countrycode.org/mexico" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A145" r:id="rId136" display="https://countrycode.org/micronesia" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A146" r:id="rId137" display="https://countrycode.org/moldova" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A147" r:id="rId138" display="https://countrycode.org/monaco" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A148" r:id="rId139" display="https://countrycode.org/mongolia" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A149" r:id="rId140" display="https://countrycode.org/montenegro" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A150" r:id="rId141" display="https://countrycode.org/montserrat" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A151" r:id="rId142" display="https://countrycode.org/morocco" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A152" r:id="rId143" display="https://countrycode.org/mozambique" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A153" r:id="rId144" display="https://countrycode.org/burma" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A154" r:id="rId145" display="https://countrycode.org/namibia" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A155" r:id="rId146" display="https://countrycode.org/nauru" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A156" r:id="rId147" display="https://countrycode.org/nepal" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A157" r:id="rId148" display="https://countrycode.org/netherlands" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A158" r:id="rId149" display="https://countrycode.org/netherlandsantilles" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A159" r:id="rId150" display="https://countrycode.org/newcaledonia" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A160" r:id="rId151" display="https://countrycode.org/newzealand" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A161" r:id="rId152" display="https://countrycode.org/nicaragua" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A162" r:id="rId153" display="https://countrycode.org/niger" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A163" r:id="rId154" display="https://countrycode.org/nigeria" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A164" r:id="rId155" display="https://countrycode.org/niue" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A165" r:id="rId156" display="https://countrycode.org/northkorea" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A166" r:id="rId157" display="https://countrycode.org/northernmarianaislands" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A167" r:id="rId158" display="https://countrycode.org/norway" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A168" r:id="rId159" display="https://countrycode.org/oman" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A169" r:id="rId160" display="https://countrycode.org/pakistan" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A170" r:id="rId161" display="https://countrycode.org/palau" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A171" r:id="rId162" display="https://countrycode.org/palestine" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A172" r:id="rId163" display="https://countrycode.org/panama" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A173" r:id="rId164" display="https://countrycode.org/papuanewguinea" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A174" r:id="rId165" display="https://countrycode.org/paraguay" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A175" r:id="rId166" display="https://countrycode.org/peru" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A176" r:id="rId167" display="https://countrycode.org/philippines" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A177" r:id="rId168" display="https://countrycode.org/pitcairnislands" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A178" r:id="rId169" display="https://countrycode.org/poland" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A179" r:id="rId170" display="https://countrycode.org/portugal" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A180" r:id="rId171" display="https://countrycode.org/puertorico" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A181" r:id="rId172" display="https://countrycode.org/qatar" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A182" r:id="rId173" display="https://countrycode.org/congo" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A183" r:id="rId174" display="https://countrycode.org/reunion" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A184" r:id="rId175" display="https://countrycode.org/romania" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A185" r:id="rId176" display="https://countrycode.org/russia" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A186" r:id="rId177" display="https://countrycode.org/rwanda" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A187" r:id="rId178" display="https://countrycode.org/saintbarthelemy" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A188" r:id="rId179" display="https://countrycode.org/sthelena" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A189" r:id="rId180" display="https://countrycode.org/stkitts" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A190" r:id="rId181" display="https://countrycode.org/stlucia" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A191" r:id="rId182" display="https://countrycode.org/stmartin" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A192" r:id="rId183" display="https://countrycode.org/stpierre" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A193" r:id="rId184" display="https://countrycode.org/stvincent" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A194" r:id="rId185" display="https://countrycode.org/samoa" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A195" r:id="rId186" display="https://countrycode.org/sanmarino" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A196" r:id="rId187" display="https://countrycode.org/saotomeandprincipe" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A197" r:id="rId188" display="https://countrycode.org/saudiarabia" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A198" r:id="rId189" display="https://countrycode.org/senegal" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A199" r:id="rId190" display="https://countrycode.org/serbia" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A201" r:id="rId191" display="https://countrycode.org/seychelles" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A202" r:id="rId192" display="https://countrycode.org/sierraleone" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A204" r:id="rId193" display="https://countrycode.org/singapore" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A205" r:id="rId194" display="https://countrycode.org/sintmaarten" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A206" r:id="rId195" display="https://countrycode.org/slovakia" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A207" r:id="rId196" display="https://countrycode.org/slovenia" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A208" r:id="rId197" display="https://countrycode.org/solomonislands" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A209" r:id="rId198" display="https://countrycode.org/somalia" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A210" r:id="rId199" display="https://countrycode.org/southafrica" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A211" r:id="rId200" display="https://countrycode.org/southkorea" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A212" r:id="rId201" display="https://countrycode.org/southsudan" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A214" r:id="rId202" display="https://countrycode.org/spain" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A215" r:id="rId203" display="https://countrycode.org/srilanka" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A216" r:id="rId204" display="https://countrycode.org/sudan" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A217" r:id="rId205" display="https://countrycode.org/suriname" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A218" r:id="rId206" display="https://countrycode.org/svalbard" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A219" r:id="rId207" display="https://countrycode.org/swaziland" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A220" r:id="rId208" display="https://countrycode.org/sweden" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A223" r:id="rId209" display="https://countrycode.org/switzerland" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A224" r:id="rId210" display="https://countrycode.org/syria" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A225" r:id="rId211" display="https://countrycode.org/taiwan" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A226" r:id="rId212" display="https://countrycode.org/tajikistan" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A227" r:id="rId213" display="https://countrycode.org/tanzania" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A229" r:id="rId214" display="https://countrycode.org/thailand" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A230" r:id="rId215" display="https://countrycode.org/togo" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A231" r:id="rId216" display="https://countrycode.org/tokelau" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A232" r:id="rId217" display="https://countrycode.org/tonga" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A233" r:id="rId218" display="https://countrycode.org/trinidadandtobago" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A234" r:id="rId219" display="https://countrycode.org/tunisia" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A235" r:id="rId220" display="https://countrycode.org/turkey" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A236" r:id="rId221" display="https://countrycode.org/turkmenistan" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A237" r:id="rId222" display="https://countrycode.org/turksandcaicos" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A238" r:id="rId223" display="https://countrycode.org/tuvalu" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="A239" r:id="rId224" display="https://countrycode.org/virginislands" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A240" r:id="rId225" display="https://countrycode.org/uganda" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A241" r:id="rId226" display="https://countrycode.org/ukraine" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="A242" r:id="rId227" display="https://countrycode.org/uae" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A243" r:id="rId228" display="https://countrycode.org/uk" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="A245" r:id="rId229" display="https://countrycode.org/usa" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A246" r:id="rId230" display="https://countrycode.org/uruguay" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A247" r:id="rId231" display="https://countrycode.org/uzbekistan" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="A248" r:id="rId232" display="https://countrycode.org/vanuatu" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A249" r:id="rId233" display="https://countrycode.org/vatican" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A250" r:id="rId234" display="https://countrycode.org/venezuela" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A251" r:id="rId235" display="https://countrycode.org/vietnam" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A252" r:id="rId236" display="https://countrycode.org/wallisandfutuna" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A253" r:id="rId237" display="https://countrycode.org/westernsahara" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="A254" r:id="rId238" display="https://countrycode.org/yemen" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A255" r:id="rId239" display="https://countrycode.org/zambia" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A256" r:id="rId240" display="https://countrycode.org/zimbabwe" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18487,246 +18487,246 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://countrycode.org/afghanistan"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://countrycode.org/albania"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://countrycode.org/algeria"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://countrycode.org/americansamoa"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://countrycode.org/andorra"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://countrycode.org/angola"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://countrycode.org/anguilla"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://countrycode.org/antarctica"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://countrycode.org/antiguaandbarbuda"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://countrycode.org/argentina"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://countrycode.org/armenia"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://countrycode.org/aruba"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://countrycode.org/australia"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://countrycode.org/austria"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://countrycode.org/azerbaijan"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://countrycode.org/bahamas"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://countrycode.org/bahrain"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://countrycode.org/bangladesh"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://countrycode.org/barbados"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://countrycode.org/belarus"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://countrycode.org/belgium"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://countrycode.org/belize"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://countrycode.org/benin"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://countrycode.org/bermuda"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://countrycode.org/bhutan"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://countrycode.org/bolivia"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://countrycode.org/bosnia"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://countrycode.org/botswana"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://countrycode.org/brazil"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://countrycode.org/britishindianoceanterritory"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://countrycode.org/britishvirginislands"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://countrycode.org/brunei"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://countrycode.org/bulgaria"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://countrycode.org/burkinafaso"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://countrycode.org/burundi"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://countrycode.org/cambodia"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://countrycode.org/cameroon"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://countrycode.org/canada"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://countrycode.org/capeverde"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://countrycode.org/caymanislands"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://countrycode.org/centralafricanrepublic"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://countrycode.org/chad"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://countrycode.org/chile"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://countrycode.org/china"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://countrycode.org/christmasisland"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://countrycode.org/cocoskeelingislands"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://countrycode.org/colombia"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://countrycode.org/comoros"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://countrycode.org/cookislands"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://countrycode.org/costarica"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://countrycode.org/croatia"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://countrycode.org/cuba"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://countrycode.org/curacao"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://countrycode.org/cyprus"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://countrycode.org/czechrepublic"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://countrycode.org/congodemocraticrepublic"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://countrycode.org/denmark"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://countrycode.org/djibouti"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://countrycode.org/dominica"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://countrycode.org/dominicanrepublic"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://countrycode.org/easttimor"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://countrycode.org/ecuador"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://countrycode.org/egypt"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://countrycode.org/elsalvador"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://countrycode.org/equatorialguinea"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://countrycode.org/eritrea"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://countrycode.org/estonia"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://countrycode.org/ethiopia"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://countrycode.org/falklands"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://countrycode.org/faroeislands"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://countrycode.org/fiji"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://countrycode.org/finland"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://countrycode.org/france"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://countrycode.org/frenchpolynesia"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://countrycode.org/gabon"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://countrycode.org/gambia"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://countrycode.org/georgia"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://countrycode.org/germany"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://countrycode.org/ghana"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://countrycode.org/gibraltar"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://countrycode.org/greece"/>
-    <hyperlink ref="A83" r:id="rId82" display="https://countrycode.org/greenland"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://countrycode.org/grenada"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://countrycode.org/guam"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://countrycode.org/guatemala"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://countrycode.org/guernsey"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://countrycode.org/guinea"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://countrycode.org/guineabissau"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://countrycode.org/guyana"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://countrycode.org/haiti"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://countrycode.org/honduras"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://countrycode.org/hongkong"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://countrycode.org/hungary"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://countrycode.org/iceland"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://countrycode.org/india"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://countrycode.org/indonesia"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://countrycode.org/iran"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://countrycode.org/iraq"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://countrycode.org/ireland"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://countrycode.org/isleofman"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://countrycode.org/israel"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://countrycode.org/italy"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://countrycode.org/ivorycoast"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://countrycode.org/jamaica"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://countrycode.org/japan"/>
-    <hyperlink ref="A107" r:id="rId106" display="https://countrycode.org/jersey"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://countrycode.org/jordan"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://countrycode.org/kazakhstan"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://countrycode.org/kenya"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://countrycode.org/kiribati"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://countrycode.org/kosovo"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://countrycode.org/kuwait"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://countrycode.org/kyrgyzstan"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://countrycode.org/laos"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://countrycode.org/latvia"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://countrycode.org/lebanon"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://countrycode.org/lesotho"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://countrycode.org/liberia"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://countrycode.org/libya"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://countrycode.org/liechtenstein"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://countrycode.org/lithuania"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://countrycode.org/luxembourg"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://countrycode.org/macau"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://countrycode.org/macedonia"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://countrycode.org/madagascar"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://countrycode.org/malawi"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://countrycode.org/malaysia"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://countrycode.org/maldives"/>
-    <hyperlink ref="A130" r:id="rId129" display="https://countrycode.org/mali"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://countrycode.org/malta"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://countrycode.org/marshallislands"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://countrycode.org/mauritania"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://countrycode.org/mauritius"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://countrycode.org/mayotte"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://countrycode.org/mexico"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://countrycode.org/micronesia"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://countrycode.org/moldova"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://countrycode.org/monaco"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://countrycode.org/mongolia"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://countrycode.org/montenegro"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://countrycode.org/montserrat"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://countrycode.org/morocco"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://countrycode.org/mozambique"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://countrycode.org/burma"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://countrycode.org/namibia"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://countrycode.org/nauru"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://countrycode.org/nepal"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://countrycode.org/netherlands"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://countrycode.org/netherlandsantilles"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://countrycode.org/newcaledonia"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://countrycode.org/newzealand"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://countrycode.org/nicaragua"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://countrycode.org/niger"/>
-    <hyperlink ref="A155" r:id="rId154" display="https://countrycode.org/nigeria"/>
-    <hyperlink ref="A156" r:id="rId155" display="https://countrycode.org/niue"/>
-    <hyperlink ref="A157" r:id="rId156" display="https://countrycode.org/northkorea"/>
-    <hyperlink ref="A158" r:id="rId157" display="https://countrycode.org/northernmarianaislands"/>
-    <hyperlink ref="A159" r:id="rId158" display="https://countrycode.org/norway"/>
-    <hyperlink ref="A160" r:id="rId159" display="https://countrycode.org/oman"/>
-    <hyperlink ref="A161" r:id="rId160" display="https://countrycode.org/pakistan"/>
-    <hyperlink ref="A162" r:id="rId161" display="https://countrycode.org/palau"/>
-    <hyperlink ref="A163" r:id="rId162" display="https://countrycode.org/palestine"/>
-    <hyperlink ref="A164" r:id="rId163" display="https://countrycode.org/panama"/>
-    <hyperlink ref="A165" r:id="rId164" display="https://countrycode.org/papuanewguinea"/>
-    <hyperlink ref="A166" r:id="rId165" display="https://countrycode.org/paraguay"/>
-    <hyperlink ref="A167" r:id="rId166" display="https://countrycode.org/peru"/>
-    <hyperlink ref="A168" r:id="rId167" display="https://countrycode.org/philippines"/>
-    <hyperlink ref="A169" r:id="rId168" display="https://countrycode.org/pitcairnislands"/>
-    <hyperlink ref="A170" r:id="rId169" display="https://countrycode.org/poland"/>
-    <hyperlink ref="A171" r:id="rId170" display="https://countrycode.org/portugal"/>
-    <hyperlink ref="A172" r:id="rId171" display="https://countrycode.org/puertorico"/>
-    <hyperlink ref="A173" r:id="rId172" display="https://countrycode.org/qatar"/>
-    <hyperlink ref="A174" r:id="rId173" display="https://countrycode.org/congo"/>
-    <hyperlink ref="A175" r:id="rId174" display="https://countrycode.org/reunion"/>
-    <hyperlink ref="A176" r:id="rId175" display="https://countrycode.org/romania"/>
-    <hyperlink ref="A177" r:id="rId176" display="https://countrycode.org/russia"/>
-    <hyperlink ref="A178" r:id="rId177" display="https://countrycode.org/rwanda"/>
-    <hyperlink ref="A179" r:id="rId178" display="https://countrycode.org/saintbarthelemy"/>
-    <hyperlink ref="A180" r:id="rId179" display="https://countrycode.org/sthelena"/>
-    <hyperlink ref="A181" r:id="rId180" display="https://countrycode.org/stkitts"/>
-    <hyperlink ref="A182" r:id="rId181" display="https://countrycode.org/stlucia"/>
-    <hyperlink ref="A183" r:id="rId182" display="https://countrycode.org/stmartin"/>
-    <hyperlink ref="A184" r:id="rId183" display="https://countrycode.org/stpierre"/>
-    <hyperlink ref="A185" r:id="rId184" display="https://countrycode.org/stvincent"/>
-    <hyperlink ref="A186" r:id="rId185" display="https://countrycode.org/samoa"/>
-    <hyperlink ref="A187" r:id="rId186" display="https://countrycode.org/sanmarino"/>
-    <hyperlink ref="A188" r:id="rId187" display="https://countrycode.org/saotomeandprincipe"/>
-    <hyperlink ref="A189" r:id="rId188" display="https://countrycode.org/saudiarabia"/>
-    <hyperlink ref="A190" r:id="rId189" display="https://countrycode.org/senegal"/>
-    <hyperlink ref="A191" r:id="rId190" display="https://countrycode.org/serbia"/>
-    <hyperlink ref="A192" r:id="rId191" display="https://countrycode.org/seychelles"/>
-    <hyperlink ref="A193" r:id="rId192" display="https://countrycode.org/sierraleone"/>
-    <hyperlink ref="A194" r:id="rId193" display="https://countrycode.org/singapore"/>
-    <hyperlink ref="A195" r:id="rId194" display="https://countrycode.org/sintmaarten"/>
-    <hyperlink ref="A196" r:id="rId195" display="https://countrycode.org/slovakia"/>
-    <hyperlink ref="A197" r:id="rId196" display="https://countrycode.org/slovenia"/>
-    <hyperlink ref="A198" r:id="rId197" display="https://countrycode.org/solomonislands"/>
-    <hyperlink ref="A199" r:id="rId198" display="https://countrycode.org/somalia"/>
-    <hyperlink ref="A200" r:id="rId199" display="https://countrycode.org/southafrica"/>
-    <hyperlink ref="A201" r:id="rId200" display="https://countrycode.org/southkorea"/>
-    <hyperlink ref="A202" r:id="rId201" display="https://countrycode.org/southsudan"/>
-    <hyperlink ref="A203" r:id="rId202" display="https://countrycode.org/spain"/>
-    <hyperlink ref="A204" r:id="rId203" display="https://countrycode.org/srilanka"/>
-    <hyperlink ref="A205" r:id="rId204" display="https://countrycode.org/sudan"/>
-    <hyperlink ref="A206" r:id="rId205" display="https://countrycode.org/suriname"/>
-    <hyperlink ref="A207" r:id="rId206" display="https://countrycode.org/svalbard"/>
-    <hyperlink ref="A208" r:id="rId207" display="https://countrycode.org/swaziland"/>
-    <hyperlink ref="A209" r:id="rId208" display="https://countrycode.org/sweden"/>
-    <hyperlink ref="A210" r:id="rId209" display="https://countrycode.org/switzerland"/>
-    <hyperlink ref="A211" r:id="rId210" display="https://countrycode.org/syria"/>
-    <hyperlink ref="A212" r:id="rId211" display="https://countrycode.org/taiwan"/>
-    <hyperlink ref="A213" r:id="rId212" display="https://countrycode.org/tajikistan"/>
-    <hyperlink ref="A214" r:id="rId213" display="https://countrycode.org/tanzania"/>
-    <hyperlink ref="A215" r:id="rId214" display="https://countrycode.org/thailand"/>
-    <hyperlink ref="A216" r:id="rId215" display="https://countrycode.org/togo"/>
-    <hyperlink ref="A217" r:id="rId216" display="https://countrycode.org/tokelau"/>
-    <hyperlink ref="A218" r:id="rId217" display="https://countrycode.org/tonga"/>
-    <hyperlink ref="A219" r:id="rId218" display="https://countrycode.org/trinidadandtobago"/>
-    <hyperlink ref="A220" r:id="rId219" display="https://countrycode.org/tunisia"/>
-    <hyperlink ref="A221" r:id="rId220" display="https://countrycode.org/turkey"/>
-    <hyperlink ref="A222" r:id="rId221" display="https://countrycode.org/turkmenistan"/>
-    <hyperlink ref="A223" r:id="rId222" display="https://countrycode.org/turksandcaicos"/>
-    <hyperlink ref="A224" r:id="rId223" display="https://countrycode.org/tuvalu"/>
-    <hyperlink ref="A225" r:id="rId224" display="https://countrycode.org/virginislands"/>
-    <hyperlink ref="A226" r:id="rId225" display="https://countrycode.org/uganda"/>
-    <hyperlink ref="A227" r:id="rId226" display="https://countrycode.org/ukraine"/>
-    <hyperlink ref="A228" r:id="rId227" display="https://countrycode.org/uae"/>
-    <hyperlink ref="A229" r:id="rId228" display="https://countrycode.org/uk"/>
-    <hyperlink ref="A230" r:id="rId229" display="https://countrycode.org/usa"/>
-    <hyperlink ref="A231" r:id="rId230" display="https://countrycode.org/uruguay"/>
-    <hyperlink ref="A232" r:id="rId231" display="https://countrycode.org/uzbekistan"/>
-    <hyperlink ref="A233" r:id="rId232" display="https://countrycode.org/vanuatu"/>
-    <hyperlink ref="A234" r:id="rId233" display="https://countrycode.org/vatican"/>
-    <hyperlink ref="A235" r:id="rId234" display="https://countrycode.org/venezuela"/>
-    <hyperlink ref="A236" r:id="rId235" display="https://countrycode.org/vietnam"/>
-    <hyperlink ref="A237" r:id="rId236" display="https://countrycode.org/wallisandfutuna"/>
-    <hyperlink ref="A238" r:id="rId237" display="https://countrycode.org/westernsahara"/>
-    <hyperlink ref="A239" r:id="rId238" display="https://countrycode.org/yemen"/>
-    <hyperlink ref="A240" r:id="rId239" display="https://countrycode.org/zambia"/>
-    <hyperlink ref="A241" r:id="rId240" display="https://countrycode.org/zimbabwe"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://countrycode.org/afghanistan" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://countrycode.org/albania" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://countrycode.org/algeria" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://countrycode.org/americansamoa" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://countrycode.org/andorra" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://countrycode.org/angola" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://countrycode.org/anguilla" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://countrycode.org/antarctica" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://countrycode.org/argentina" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://countrycode.org/armenia" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://countrycode.org/aruba" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://countrycode.org/australia" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://countrycode.org/austria" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://countrycode.org/azerbaijan" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://countrycode.org/bahamas" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://countrycode.org/bahrain" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://countrycode.org/bangladesh" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://countrycode.org/barbados" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://countrycode.org/belarus" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://countrycode.org/belgium" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://countrycode.org/belize" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://countrycode.org/benin" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://countrycode.org/bermuda" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://countrycode.org/bhutan" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://countrycode.org/bolivia" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://countrycode.org/bosnia" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://countrycode.org/botswana" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://countrycode.org/brazil" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://countrycode.org/britishvirginislands" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://countrycode.org/brunei" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://countrycode.org/bulgaria" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://countrycode.org/burkinafaso" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://countrycode.org/burundi" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://countrycode.org/cambodia" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://countrycode.org/cameroon" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://countrycode.org/canada" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://countrycode.org/capeverde" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://countrycode.org/caymanislands" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://countrycode.org/centralafricanrepublic" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://countrycode.org/chad" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://countrycode.org/chile" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://countrycode.org/china" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://countrycode.org/christmasisland" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://countrycode.org/cocoskeelingislands" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://countrycode.org/colombia" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://countrycode.org/comoros" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://countrycode.org/cookislands" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://countrycode.org/costarica" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://countrycode.org/croatia" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://countrycode.org/cuba" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://countrycode.org/curacao" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://countrycode.org/cyprus" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://countrycode.org/czechrepublic" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://countrycode.org/congodemocraticrepublic" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://countrycode.org/denmark" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://countrycode.org/djibouti" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://countrycode.org/dominica" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://countrycode.org/dominicanrepublic" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" display="https://countrycode.org/easttimor" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://countrycode.org/ecuador" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" display="https://countrycode.org/egypt" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" display="https://countrycode.org/elsalvador" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" display="https://countrycode.org/equatorialguinea" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" display="https://countrycode.org/eritrea" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" display="https://countrycode.org/estonia" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" display="https://countrycode.org/ethiopia" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://countrycode.org/falklands" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" display="https://countrycode.org/faroeislands" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" display="https://countrycode.org/fiji" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" display="https://countrycode.org/finland" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" display="https://countrycode.org/france" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" display="https://countrycode.org/frenchpolynesia" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" display="https://countrycode.org/gabon" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" display="https://countrycode.org/gambia" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" display="https://countrycode.org/georgia" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" display="https://countrycode.org/germany" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" display="https://countrycode.org/ghana" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" display="https://countrycode.org/gibraltar" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" display="https://countrycode.org/greece" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" display="https://countrycode.org/greenland" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" display="https://countrycode.org/grenada" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" display="https://countrycode.org/guam" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" display="https://countrycode.org/guatemala" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" display="https://countrycode.org/guernsey" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" display="https://countrycode.org/guinea" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" display="https://countrycode.org/guineabissau" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" display="https://countrycode.org/guyana" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" display="https://countrycode.org/haiti" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" display="https://countrycode.org/honduras" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" display="https://countrycode.org/hongkong" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" display="https://countrycode.org/hungary" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" display="https://countrycode.org/iceland" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" display="https://countrycode.org/india" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" display="https://countrycode.org/indonesia" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" display="https://countrycode.org/iran" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" display="https://countrycode.org/iraq" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" display="https://countrycode.org/ireland" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" display="https://countrycode.org/isleofman" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId101" display="https://countrycode.org/israel" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId102" display="https://countrycode.org/italy" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId103" display="https://countrycode.org/ivorycoast" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId104" display="https://countrycode.org/jamaica" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId105" display="https://countrycode.org/japan" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId106" display="https://countrycode.org/jersey" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId107" display="https://countrycode.org/jordan" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId108" display="https://countrycode.org/kazakhstan" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId109" display="https://countrycode.org/kenya" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId110" display="https://countrycode.org/kiribati" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId111" display="https://countrycode.org/kosovo" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId112" display="https://countrycode.org/kuwait" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId113" display="https://countrycode.org/kyrgyzstan" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId114" display="https://countrycode.org/laos" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId115" display="https://countrycode.org/latvia" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="A117" r:id="rId116" display="https://countrycode.org/lebanon" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="A118" r:id="rId117" display="https://countrycode.org/lesotho" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="A119" r:id="rId118" display="https://countrycode.org/liberia" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="A120" r:id="rId119" display="https://countrycode.org/libya" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="A121" r:id="rId120" display="https://countrycode.org/liechtenstein" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="A122" r:id="rId121" display="https://countrycode.org/lithuania" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="A123" r:id="rId122" display="https://countrycode.org/luxembourg" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="A124" r:id="rId123" display="https://countrycode.org/macau" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="A125" r:id="rId124" display="https://countrycode.org/macedonia" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="A126" r:id="rId125" display="https://countrycode.org/madagascar" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="A127" r:id="rId126" display="https://countrycode.org/malawi" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="A128" r:id="rId127" display="https://countrycode.org/malaysia" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="A129" r:id="rId128" display="https://countrycode.org/maldives" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="A130" r:id="rId129" display="https://countrycode.org/mali" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="A131" r:id="rId130" display="https://countrycode.org/malta" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="A132" r:id="rId131" display="https://countrycode.org/marshallislands" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="A133" r:id="rId132" display="https://countrycode.org/mauritania" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="A134" r:id="rId133" display="https://countrycode.org/mauritius" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="A135" r:id="rId134" display="https://countrycode.org/mayotte" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="A136" r:id="rId135" display="https://countrycode.org/mexico" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="A137" r:id="rId136" display="https://countrycode.org/micronesia" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="A138" r:id="rId137" display="https://countrycode.org/moldova" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="A139" r:id="rId138" display="https://countrycode.org/monaco" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="A140" r:id="rId139" display="https://countrycode.org/mongolia" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="A141" r:id="rId140" display="https://countrycode.org/montenegro" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="A142" r:id="rId141" display="https://countrycode.org/montserrat" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="A143" r:id="rId142" display="https://countrycode.org/morocco" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="A144" r:id="rId143" display="https://countrycode.org/mozambique" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="A145" r:id="rId144" display="https://countrycode.org/burma" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="A146" r:id="rId145" display="https://countrycode.org/namibia" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="A147" r:id="rId146" display="https://countrycode.org/nauru" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="A148" r:id="rId147" display="https://countrycode.org/nepal" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="A149" r:id="rId148" display="https://countrycode.org/netherlands" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="A150" r:id="rId149" display="https://countrycode.org/netherlandsantilles" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="A151" r:id="rId150" display="https://countrycode.org/newcaledonia" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="A152" r:id="rId151" display="https://countrycode.org/newzealand" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="A153" r:id="rId152" display="https://countrycode.org/nicaragua" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="A154" r:id="rId153" display="https://countrycode.org/niger" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="A155" r:id="rId154" display="https://countrycode.org/nigeria" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="A156" r:id="rId155" display="https://countrycode.org/niue" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="A157" r:id="rId156" display="https://countrycode.org/northkorea" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="A158" r:id="rId157" display="https://countrycode.org/northernmarianaislands" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="A159" r:id="rId158" display="https://countrycode.org/norway" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="A160" r:id="rId159" display="https://countrycode.org/oman" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="A161" r:id="rId160" display="https://countrycode.org/pakistan" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="A162" r:id="rId161" display="https://countrycode.org/palau" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="A163" r:id="rId162" display="https://countrycode.org/palestine" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="A164" r:id="rId163" display="https://countrycode.org/panama" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="A165" r:id="rId164" display="https://countrycode.org/papuanewguinea" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="A166" r:id="rId165" display="https://countrycode.org/paraguay" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="A167" r:id="rId166" display="https://countrycode.org/peru" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="A168" r:id="rId167" display="https://countrycode.org/philippines" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="A169" r:id="rId168" display="https://countrycode.org/pitcairnislands" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="A170" r:id="rId169" display="https://countrycode.org/poland" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="A171" r:id="rId170" display="https://countrycode.org/portugal" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="A172" r:id="rId171" display="https://countrycode.org/puertorico" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="A173" r:id="rId172" display="https://countrycode.org/qatar" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="A174" r:id="rId173" display="https://countrycode.org/congo" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="A175" r:id="rId174" display="https://countrycode.org/reunion" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="A176" r:id="rId175" display="https://countrycode.org/romania" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="A177" r:id="rId176" display="https://countrycode.org/russia" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="A178" r:id="rId177" display="https://countrycode.org/rwanda" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="A179" r:id="rId178" display="https://countrycode.org/saintbarthelemy" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="A180" r:id="rId179" display="https://countrycode.org/sthelena" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="A181" r:id="rId180" display="https://countrycode.org/stkitts" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="A182" r:id="rId181" display="https://countrycode.org/stlucia" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="A183" r:id="rId182" display="https://countrycode.org/stmartin" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="A184" r:id="rId183" display="https://countrycode.org/stpierre" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="A185" r:id="rId184" display="https://countrycode.org/stvincent" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="A186" r:id="rId185" display="https://countrycode.org/samoa" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="A187" r:id="rId186" display="https://countrycode.org/sanmarino" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="A188" r:id="rId187" display="https://countrycode.org/saotomeandprincipe" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="A189" r:id="rId188" display="https://countrycode.org/saudiarabia" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="A190" r:id="rId189" display="https://countrycode.org/senegal" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="A191" r:id="rId190" display="https://countrycode.org/serbia" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="A192" r:id="rId191" display="https://countrycode.org/seychelles" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="A193" r:id="rId192" display="https://countrycode.org/sierraleone" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="A194" r:id="rId193" display="https://countrycode.org/singapore" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="A195" r:id="rId194" display="https://countrycode.org/sintmaarten" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="A196" r:id="rId195" display="https://countrycode.org/slovakia" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="A197" r:id="rId196" display="https://countrycode.org/slovenia" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="A198" r:id="rId197" display="https://countrycode.org/solomonislands" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="A199" r:id="rId198" display="https://countrycode.org/somalia" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="A200" r:id="rId199" display="https://countrycode.org/southafrica" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="A201" r:id="rId200" display="https://countrycode.org/southkorea" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="A202" r:id="rId201" display="https://countrycode.org/southsudan" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="A203" r:id="rId202" display="https://countrycode.org/spain" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="A204" r:id="rId203" display="https://countrycode.org/srilanka" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="A205" r:id="rId204" display="https://countrycode.org/sudan" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="A206" r:id="rId205" display="https://countrycode.org/suriname" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="A207" r:id="rId206" display="https://countrycode.org/svalbard" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="A208" r:id="rId207" display="https://countrycode.org/swaziland" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="A209" r:id="rId208" display="https://countrycode.org/sweden" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="A210" r:id="rId209" display="https://countrycode.org/switzerland" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="A211" r:id="rId210" display="https://countrycode.org/syria" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="A212" r:id="rId211" display="https://countrycode.org/taiwan" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="A213" r:id="rId212" display="https://countrycode.org/tajikistan" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="A214" r:id="rId213" display="https://countrycode.org/tanzania" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="A215" r:id="rId214" display="https://countrycode.org/thailand" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="A216" r:id="rId215" display="https://countrycode.org/togo" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="A217" r:id="rId216" display="https://countrycode.org/tokelau" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="A218" r:id="rId217" display="https://countrycode.org/tonga" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="A219" r:id="rId218" display="https://countrycode.org/trinidadandtobago" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="A220" r:id="rId219" display="https://countrycode.org/tunisia" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="A221" r:id="rId220" display="https://countrycode.org/turkey" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="A222" r:id="rId221" display="https://countrycode.org/turkmenistan" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="A223" r:id="rId222" display="https://countrycode.org/turksandcaicos" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="A224" r:id="rId223" display="https://countrycode.org/tuvalu" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="A225" r:id="rId224" display="https://countrycode.org/virginislands" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="A226" r:id="rId225" display="https://countrycode.org/uganda" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="A227" r:id="rId226" display="https://countrycode.org/ukraine" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="A228" r:id="rId227" display="https://countrycode.org/uae" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="A229" r:id="rId228" display="https://countrycode.org/uk" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="A230" r:id="rId229" display="https://countrycode.org/usa" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="A231" r:id="rId230" display="https://countrycode.org/uruguay" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="A232" r:id="rId231" display="https://countrycode.org/uzbekistan" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="A233" r:id="rId232" display="https://countrycode.org/vanuatu" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="A234" r:id="rId233" display="https://countrycode.org/vatican" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="A235" r:id="rId234" display="https://countrycode.org/venezuela" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="A236" r:id="rId235" display="https://countrycode.org/vietnam" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="A237" r:id="rId236" display="https://countrycode.org/wallisandfutuna" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="A238" r:id="rId237" display="https://countrycode.org/westernsahara" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="A239" r:id="rId238" display="https://countrycode.org/yemen" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="A240" r:id="rId239" display="https://countrycode.org/zambia" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="A241" r:id="rId240" display="https://countrycode.org/zimbabwe" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/country_info.xlsx
+++ b/country_info.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonmar/gmail_acct/python-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97722A6E-97EC-494D-B137-DBB2A06F26B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9388A6D-79B8-2341-BD4A-0C58B6124E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="0" windowWidth="25440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6500" yWindow="-20360" windowWidth="25440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_info" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="locale_datetime" sheetId="3" r:id="rId2"/>
+    <sheet name="source" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1391">
   <si>
     <t>ISO 3166 Country Code</t>
   </si>
@@ -4182,6 +4183,18 @@
   </si>
   <si>
     <t>_Lang_ISO3166</t>
+  </si>
+  <si>
+    <t>_Lang_cnt</t>
+  </si>
+  <si>
+    <t>_Epoch</t>
+  </si>
+  <si>
+    <t>Epoch?</t>
+  </si>
+  <si>
+    <t>_Short_Name</t>
   </si>
 </sst>
 </file>
@@ -5044,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12264,11 +12277,4405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE14CF3D-305E-254F-808F-981373BD6F80}">
+  <dimension ref="A1:H256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96" t="s">
+        <v>150</v>
+      </c>
+      <c r="G96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" t="s">
+        <v>174</v>
+      </c>
+      <c r="G97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" t="s">
+        <v>167</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" t="s">
+        <v>179</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111" t="s">
+        <v>188</v>
+      </c>
+      <c r="G111" t="s">
+        <v>190</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>187</v>
+      </c>
+      <c r="E112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F112" t="s">
+        <v>188</v>
+      </c>
+      <c r="G112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>214</v>
+      </c>
+      <c r="E122" t="s">
+        <v>213</v>
+      </c>
+      <c r="F122" t="s">
+        <v>215</v>
+      </c>
+      <c r="G122" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>206</v>
+      </c>
+      <c r="E128" t="s">
+        <v>205</v>
+      </c>
+      <c r="F128" t="s">
+        <v>207</v>
+      </c>
+      <c r="G128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>209</v>
+      </c>
+      <c r="B129" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" t="s">
+        <v>223</v>
+      </c>
+      <c r="F132" t="s">
+        <v>225</v>
+      </c>
+      <c r="G132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>237</v>
+      </c>
+      <c r="E135" t="s">
+        <v>236</v>
+      </c>
+      <c r="F135" t="s">
+        <v>238</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" t="s">
+        <v>228</v>
+      </c>
+      <c r="F138" t="s">
+        <v>230</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>49</v>
+      </c>
+      <c r="E149" t="s">
+        <v>48</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" t="s">
+        <v>37</v>
+      </c>
+      <c r="G157" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>247</v>
+      </c>
+      <c r="E167" t="s">
+        <v>246</v>
+      </c>
+      <c r="F167" t="s">
+        <v>248</v>
+      </c>
+      <c r="G167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>263</v>
+      </c>
+      <c r="E178" t="s">
+        <v>262</v>
+      </c>
+      <c r="F178" t="s">
+        <v>264</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" t="s">
+        <v>62</v>
+      </c>
+      <c r="F179" t="s">
+        <v>64</v>
+      </c>
+      <c r="G179" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>276</v>
+      </c>
+      <c r="E184" t="s">
+        <v>275</v>
+      </c>
+      <c r="F184" t="s">
+        <v>277</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>281</v>
+      </c>
+      <c r="E185" t="s">
+        <v>280</v>
+      </c>
+      <c r="F185" t="s">
+        <v>282</v>
+      </c>
+      <c r="G185" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>49</v>
+      </c>
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="F199" t="s">
+        <v>50</v>
+      </c>
+      <c r="G199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>285</v>
+      </c>
+      <c r="B200" t="s">
+        <v>286</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>49</v>
+      </c>
+      <c r="E201" t="s">
+        <v>48</v>
+      </c>
+      <c r="F201" t="s">
+        <v>50</v>
+      </c>
+      <c r="G201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>289</v>
+      </c>
+      <c r="B203" t="s">
+        <v>290</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E203" t="s">
+        <v>76</v>
+      </c>
+      <c r="F203" t="s">
+        <v>78</v>
+      </c>
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>298</v>
+      </c>
+      <c r="E206" t="s">
+        <v>297</v>
+      </c>
+      <c r="F206" t="s">
+        <v>299</v>
+      </c>
+      <c r="G206" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>303</v>
+      </c>
+      <c r="E207" t="s">
+        <v>302</v>
+      </c>
+      <c r="F207" t="s">
+        <v>304</v>
+      </c>
+      <c r="G207" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" t="s">
+        <v>193</v>
+      </c>
+      <c r="F211" t="s">
+        <v>195</v>
+      </c>
+      <c r="G211" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>109</v>
+      </c>
+      <c r="B213" t="s">
+        <v>110</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>112</v>
+      </c>
+      <c r="E213" t="s">
+        <v>111</v>
+      </c>
+      <c r="F213" t="s">
+        <v>113</v>
+      </c>
+      <c r="G213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>308</v>
+      </c>
+      <c r="E219" t="s">
+        <v>307</v>
+      </c>
+      <c r="F219" t="s">
+        <v>309</v>
+      </c>
+      <c r="G219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221" t="s">
+        <v>68</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221" t="s">
+        <v>27</v>
+      </c>
+      <c r="E221" t="s">
+        <v>26</v>
+      </c>
+      <c r="F221" t="s">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>67</v>
+      </c>
+      <c r="B222" t="s">
+        <v>68</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" t="s">
+        <v>70</v>
+      </c>
+      <c r="E222" t="s">
+        <v>69</v>
+      </c>
+      <c r="F222" t="s">
+        <v>71</v>
+      </c>
+      <c r="G222" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>33</v>
+      </c>
+      <c r="E223" t="s">
+        <v>32</v>
+      </c>
+      <c r="F223" t="s">
+        <v>34</v>
+      </c>
+      <c r="G223" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>77</v>
+      </c>
+      <c r="E225" t="s">
+        <v>76</v>
+      </c>
+      <c r="F225" t="s">
+        <v>78</v>
+      </c>
+      <c r="G225" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>312</v>
+      </c>
+      <c r="B228" t="s">
+        <v>313</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>315</v>
+      </c>
+      <c r="E228" t="s">
+        <v>314</v>
+      </c>
+      <c r="F228" t="s">
+        <v>316</v>
+      </c>
+      <c r="G228" t="s">
+        <v>318</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>315</v>
+      </c>
+      <c r="E229" t="s">
+        <v>314</v>
+      </c>
+      <c r="F229" t="s">
+        <v>316</v>
+      </c>
+      <c r="G229" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>324</v>
+      </c>
+      <c r="E235" t="s">
+        <v>323</v>
+      </c>
+      <c r="F235" t="s">
+        <v>325</v>
+      </c>
+      <c r="G235" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>332</v>
+      </c>
+      <c r="E241" t="s">
+        <v>331</v>
+      </c>
+      <c r="F241" t="s">
+        <v>333</v>
+      </c>
+      <c r="G241" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" t="s">
+        <v>20</v>
+      </c>
+      <c r="F243" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>336</v>
+      </c>
+      <c r="B244" t="s">
+        <v>337</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" t="s">
+        <v>17</v>
+      </c>
+      <c r="G244" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>21</v>
+      </c>
+      <c r="E245" t="s">
+        <v>20</v>
+      </c>
+      <c r="F245" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>16</v>
+      </c>
+      <c r="E246" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>16</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" t="s">
+        <v>17</v>
+      </c>
+      <c r="G250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>343</v>
+      </c>
+      <c r="E251" t="s">
+        <v>342</v>
+      </c>
+      <c r="F251" t="s">
+        <v>344</v>
+      </c>
+      <c r="G251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" t="s">
+        <v>11</v>
+      </c>
+      <c r="G254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://countrycode.org/albania" xr:uid="{27C4B0F4-478C-FD41-8D5E-C7FEE0D05807}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://countrycode.org/algeria" xr:uid="{8E1A73F8-BD4A-5747-B99F-681759D36BA5}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://countrycode.org/argentina" xr:uid="{49D6B134-A7B8-8244-AC72-D4563E04A322}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://countrycode.org/australia" xr:uid="{1AF4B257-5244-0B4B-9428-A75F2DCB0B00}"/>
+    <hyperlink ref="B15" r:id="rId5" display="https://countrycode.org/austria" xr:uid="{15B55FFA-E55F-3741-B980-4FD047EA00BF}"/>
+    <hyperlink ref="B18" r:id="rId6" display="https://countrycode.org/bahrain" xr:uid="{048B0C12-895B-794E-B4DA-87D8A7E01908}"/>
+    <hyperlink ref="B21" r:id="rId7" display="https://countrycode.org/belarus" xr:uid="{4D8D0FFB-BD3D-8048-AD7B-061A7353EFD8}"/>
+    <hyperlink ref="B23" r:id="rId8" display="https://countrycode.org/belgium" xr:uid="{FA1B15D2-2023-0549-9180-A905088B91CC}"/>
+    <hyperlink ref="B28" r:id="rId9" display="https://countrycode.org/bolivia" xr:uid="{45B3AA88-0E7B-8741-9D15-D51254C25D84}"/>
+    <hyperlink ref="B29" r:id="rId10" display="https://countrycode.org/bosnia" xr:uid="{15C59D32-E871-D848-81A4-E37AC878CB4C}"/>
+    <hyperlink ref="B31" r:id="rId11" display="https://countrycode.org/brazil" xr:uid="{E7BAA957-9520-8948-9CBE-D927E748A4CD}"/>
+    <hyperlink ref="B35" r:id="rId12" display="https://countrycode.org/bulgaria" xr:uid="{2A8F0A71-13F1-DF48-9B8F-9EE44AF24B98}"/>
+    <hyperlink ref="B41" r:id="rId13" display="https://countrycode.org/canada" xr:uid="{D6223BD0-6669-A54F-AFB2-B8F951A3B762}"/>
+    <hyperlink ref="B46" r:id="rId14" display="https://countrycode.org/chile" xr:uid="{F3002634-5FFE-FA4D-9038-3960AB9E4C84}"/>
+    <hyperlink ref="B47" r:id="rId15" display="https://countrycode.org/china" xr:uid="{CA6C8CAB-6470-F84E-87B6-D36339F3F545}"/>
+    <hyperlink ref="B50" r:id="rId16" display="https://countrycode.org/colombia" xr:uid="{230E315B-3CA7-C646-87C5-2CD341E36A75}"/>
+    <hyperlink ref="B53" r:id="rId17" display="https://countrycode.org/costarica" xr:uid="{D9351AB0-9667-5842-9467-69E9E4B35286}"/>
+    <hyperlink ref="B54" r:id="rId18" display="https://countrycode.org/croatia" xr:uid="{DD069F75-23BA-1944-88C5-DC258090C119}"/>
+    <hyperlink ref="B57" r:id="rId19" display="https://countrycode.org/cyprus" xr:uid="{D50F2DD9-EFAA-7043-A808-9E463C41799B}"/>
+    <hyperlink ref="B58" r:id="rId20" display="https://countrycode.org/czechrepublic" xr:uid="{DB760696-D41D-4B42-AA11-219E2C6EBE8C}"/>
+    <hyperlink ref="B60" r:id="rId21" display="https://countrycode.org/denmark" xr:uid="{CFBA55C3-161D-8F44-8996-A97AB52501DB}"/>
+    <hyperlink ref="B63" r:id="rId22" display="https://countrycode.org/dominicanrepublic" xr:uid="{4A56EDBC-B84D-B640-B1BD-75D4A9390968}"/>
+    <hyperlink ref="B65" r:id="rId23" display="https://countrycode.org/ecuador" xr:uid="{45E9574F-6E75-ED4D-A7B2-DE5CA9246EAC}"/>
+    <hyperlink ref="B66" r:id="rId24" display="https://countrycode.org/egypt" xr:uid="{3AE881DF-DA2F-024F-976A-D2928929D456}"/>
+    <hyperlink ref="B67" r:id="rId25" display="https://countrycode.org/elsalvador" xr:uid="{A2B0E189-71ED-9E47-97A4-8B6913A7BB92}"/>
+    <hyperlink ref="B70" r:id="rId26" display="https://countrycode.org/estonia" xr:uid="{54C619C1-4112-2C43-A3D6-B151FD0A210F}"/>
+    <hyperlink ref="B75" r:id="rId27" display="https://countrycode.org/finland" xr:uid="{D309D8CF-3C82-A446-865F-75F94924D693}"/>
+    <hyperlink ref="B76" r:id="rId28" display="https://countrycode.org/france" xr:uid="{AB75973D-2DF3-1449-BAC7-AFBA1DF4F10D}"/>
+    <hyperlink ref="B81" r:id="rId29" display="https://countrycode.org/germany" xr:uid="{92802B3E-71BB-2C40-9EB4-C6692836C782}"/>
+    <hyperlink ref="B84" r:id="rId30" display="https://countrycode.org/greece" xr:uid="{2AC6C655-D060-A04F-AD86-10ECCA990244}"/>
+    <hyperlink ref="B88" r:id="rId31" display="https://countrycode.org/guatemala" xr:uid="{D91F4C05-255D-D54D-90EE-EE803BE430F4}"/>
+    <hyperlink ref="B94" r:id="rId32" display="https://countrycode.org/honduras" xr:uid="{07A7903E-3753-1042-95AA-3E7BFBA41734}"/>
+    <hyperlink ref="B95" r:id="rId33" display="https://countrycode.org/hongkong" xr:uid="{EDDD84BB-F80A-464A-9966-834731A92C42}"/>
+    <hyperlink ref="B96" r:id="rId34" display="https://countrycode.org/hungary" xr:uid="{9014078A-1DC5-1D48-9837-ABA287922CFA}"/>
+    <hyperlink ref="B97" r:id="rId35" display="https://countrycode.org/iceland" xr:uid="{CDF63D1B-9764-9046-86EF-F5D630570A77}"/>
+    <hyperlink ref="B99" r:id="rId36" display="https://countrycode.org/india" xr:uid="{D46CDE7F-C1D9-CE4F-85F4-3978A19587DB}"/>
+    <hyperlink ref="B100" r:id="rId37" display="https://countrycode.org/indonesia" xr:uid="{8D399D9B-F96B-1047-8B6C-E0E9F0FA9134}"/>
+    <hyperlink ref="B102" r:id="rId38" display="https://countrycode.org/iraq" xr:uid="{765774FB-C294-9F47-9149-0FB5D0B4ADEF}"/>
+    <hyperlink ref="B104" r:id="rId39" display="https://countrycode.org/ireland" xr:uid="{BD930EB9-001E-0B46-A76E-27B580DFE531}"/>
+    <hyperlink ref="B106" r:id="rId40" display="https://countrycode.org/israel" xr:uid="{8C80D2CA-8CF6-E544-8785-C87CC3588BF9}"/>
+    <hyperlink ref="B108" r:id="rId41" display="https://countrycode.org/italy" xr:uid="{81F96A88-44C2-854A-AD0E-D6F3AF5629AC}"/>
+    <hyperlink ref="B112" r:id="rId42" display="https://countrycode.org/japan" xr:uid="{5D4005F5-1E0A-0E43-A89F-63653792F9E9}"/>
+    <hyperlink ref="B114" r:id="rId43" display="https://countrycode.org/jordan" xr:uid="{BD41672D-93F7-9B46-BAA2-DA33F9F3CE5C}"/>
+    <hyperlink ref="B119" r:id="rId44" display="https://countrycode.org/kuwait" xr:uid="{2DD23851-84D3-6E44-83F2-1B67D59EE31D}"/>
+    <hyperlink ref="B122" r:id="rId45" display="https://countrycode.org/latvia" xr:uid="{2BED9785-02A5-0D41-9B68-B3630B7B5CFD}"/>
+    <hyperlink ref="B123" r:id="rId46" display="https://countrycode.org/lebanon" xr:uid="{45F3CCBE-A4AA-8D4C-A237-4673B4D8128F}"/>
+    <hyperlink ref="B126" r:id="rId47" display="https://countrycode.org/libya" xr:uid="{5A8FA451-83A2-F44D-93D5-954DC4F3D1E5}"/>
+    <hyperlink ref="B128" r:id="rId48" display="https://countrycode.org/lithuania" xr:uid="{A450E905-8F96-1942-A4E8-25FE8C8D3FBE}"/>
+    <hyperlink ref="B130" r:id="rId49" display="https://countrycode.org/luxembourg" xr:uid="{A7A0394B-0E5C-0940-A400-25E674CACC2E}"/>
+    <hyperlink ref="B132" r:id="rId50" display="https://countrycode.org/macedonia" xr:uid="{A420A34A-9F0C-3F4D-A306-84D3AA50293C}"/>
+    <hyperlink ref="B135" r:id="rId51" display="https://countrycode.org/malaysia" xr:uid="{745F6C29-FCA7-5943-A33E-70F056C514D4}"/>
+    <hyperlink ref="B139" r:id="rId52" display="https://countrycode.org/malta" xr:uid="{F182B04C-0920-9841-86F7-050A66CBE3C3}"/>
+    <hyperlink ref="B144" r:id="rId53" display="https://countrycode.org/mexico" xr:uid="{41BDDF72-E2BC-7E40-BB31-7CF1DEB9A555}"/>
+    <hyperlink ref="B149" r:id="rId54" display="https://countrycode.org/montenegro" xr:uid="{89D44898-FF2C-714F-8733-0DB3CD0030F1}"/>
+    <hyperlink ref="B151" r:id="rId55" display="https://countrycode.org/morocco" xr:uid="{A5C162DD-EE65-CC44-B387-FCB4E130153C}"/>
+    <hyperlink ref="B157" r:id="rId56" display="https://countrycode.org/netherlands" xr:uid="{B05D7964-8E0B-1F4B-BCDD-C41226803B8A}"/>
+    <hyperlink ref="B160" r:id="rId57" display="https://countrycode.org/newzealand" xr:uid="{3E5FF6FB-0879-654E-A1EB-1739D5D00D82}"/>
+    <hyperlink ref="B161" r:id="rId58" display="https://countrycode.org/nicaragua" xr:uid="{2C481954-557D-9C46-9788-B4E5C713838F}"/>
+    <hyperlink ref="B167" r:id="rId59" display="https://countrycode.org/norway" xr:uid="{0A0CEE3B-29C5-DE46-AB4C-66EA3C7AC140}"/>
+    <hyperlink ref="B168" r:id="rId60" display="https://countrycode.org/oman" xr:uid="{B9D5DF48-2D1C-D749-B5EE-3D81F199F3B7}"/>
+    <hyperlink ref="B172" r:id="rId61" display="https://countrycode.org/panama" xr:uid="{4590BE7A-9319-154F-8EAF-FD68C83AAB82}"/>
+    <hyperlink ref="B174" r:id="rId62" display="https://countrycode.org/paraguay" xr:uid="{08FA7F94-0CD5-384E-BFE3-5F7423B307B8}"/>
+    <hyperlink ref="B175" r:id="rId63" display="https://countrycode.org/peru" xr:uid="{A15BF072-EE56-E842-8BAB-70F3C3FF88C3}"/>
+    <hyperlink ref="B176" r:id="rId64" display="https://countrycode.org/philippines" xr:uid="{D627B8BD-3FC2-FD44-BE09-43F6B419572B}"/>
+    <hyperlink ref="B178" r:id="rId65" display="https://countrycode.org/poland" xr:uid="{8EC558DE-149A-5A40-9CB4-89F94C423832}"/>
+    <hyperlink ref="B179" r:id="rId66" display="https://countrycode.org/portugal" xr:uid="{5B788388-BCF7-8847-AC76-C63A681EB816}"/>
+    <hyperlink ref="B180" r:id="rId67" display="https://countrycode.org/puertorico" xr:uid="{CCB923F8-2282-7245-823D-99CCC0FC1728}"/>
+    <hyperlink ref="B181" r:id="rId68" display="https://countrycode.org/qatar" xr:uid="{2A73F34F-BF0B-8843-B3C6-C5571F34E26F}"/>
+    <hyperlink ref="B184" r:id="rId69" display="https://countrycode.org/romania" xr:uid="{5C2D7325-6A60-9B4A-A2F6-D4F1DCA7EE26}"/>
+    <hyperlink ref="B185" r:id="rId70" display="https://countrycode.org/russia" xr:uid="{6353707C-BE8B-0B4F-9202-82CBBC0D1F8B}"/>
+    <hyperlink ref="B197" r:id="rId71" display="https://countrycode.org/saudiarabia" xr:uid="{0110E9B3-C334-A54F-82E0-08AED7C48A5D}"/>
+    <hyperlink ref="B199" r:id="rId72" display="https://countrycode.org/serbia" xr:uid="{B027B925-66F0-F640-BFDB-3E09BF3D76B6}"/>
+    <hyperlink ref="B201" r:id="rId73" display="https://countrycode.org/seychelles" xr:uid="{A17FB1FA-9145-694D-A900-FEC5C4EC9965}"/>
+    <hyperlink ref="B204" r:id="rId74" display="https://countrycode.org/singapore" xr:uid="{9BE77D65-CE6D-B249-BA0A-0BD23CAF8895}"/>
+    <hyperlink ref="B206" r:id="rId75" display="https://countrycode.org/slovakia" xr:uid="{817929C8-4CB9-F34E-859C-80F9BA460B03}"/>
+    <hyperlink ref="B207" r:id="rId76" display="https://countrycode.org/slovenia" xr:uid="{3CEAAB15-CCAF-FC41-8B57-A2FE2E9C6670}"/>
+    <hyperlink ref="B210" r:id="rId77" display="https://countrycode.org/southafrica" xr:uid="{266572DE-4E09-AD48-9E29-AEF140BE3219}"/>
+    <hyperlink ref="B211" r:id="rId78" display="https://countrycode.org/southkorea" xr:uid="{C46541AD-507B-9143-B0EE-F42D7F23CCFC}"/>
+    <hyperlink ref="B214" r:id="rId79" display="https://countrycode.org/spain" xr:uid="{D697E321-5968-F842-90AD-5DD5A7E79787}"/>
+    <hyperlink ref="B216" r:id="rId80" display="https://countrycode.org/sudan" xr:uid="{1989F6A0-51DC-8F4F-AEA3-4983F66D6E01}"/>
+    <hyperlink ref="B219" r:id="rId81" display="https://countrycode.org/swaziland" xr:uid="{9F5EF16D-16BF-2645-A1C0-938C2CFA59FE}"/>
+    <hyperlink ref="B223" r:id="rId82" display="https://countrycode.org/switzerland" xr:uid="{14436A5F-90F0-3D4F-BBA6-3FB2D75A88A1}"/>
+    <hyperlink ref="B224" r:id="rId83" display="https://countrycode.org/syria" xr:uid="{8D759E35-3362-BB41-8104-1D4612AC71DF}"/>
+    <hyperlink ref="B225" r:id="rId84" display="https://countrycode.org/taiwan" xr:uid="{D9F3B066-7009-D842-BCC7-D0010F7A9673}"/>
+    <hyperlink ref="B229" r:id="rId85" display="https://countrycode.org/thailand" xr:uid="{63A2F74E-37C8-7343-8973-DD0699AFB537}"/>
+    <hyperlink ref="B234" r:id="rId86" display="https://countrycode.org/tunisia" xr:uid="{5A1DA306-2241-554E-ACD7-2691F758D105}"/>
+    <hyperlink ref="B235" r:id="rId87" display="https://countrycode.org/turkey" xr:uid="{AF8D7776-22A4-DB46-996A-9154B1843706}"/>
+    <hyperlink ref="B241" r:id="rId88" display="https://countrycode.org/ukraine" xr:uid="{2B4CEAB7-FCDD-B043-B356-11AD3F0663F1}"/>
+    <hyperlink ref="B242" r:id="rId89" display="https://countrycode.org/uae" xr:uid="{E5339F2E-0E22-7A4D-A0B6-B9DED1BE277D}"/>
+    <hyperlink ref="B243" r:id="rId90" display="https://countrycode.org/uk" xr:uid="{642CEA19-991C-804F-8481-1EDA09A39CEE}"/>
+    <hyperlink ref="B245" r:id="rId91" display="https://countrycode.org/usa" xr:uid="{C1187652-EAD5-3B4F-BBEB-7CC62934D5E5}"/>
+    <hyperlink ref="B246" r:id="rId92" display="https://countrycode.org/uruguay" xr:uid="{BF16DDCF-E15F-7B4A-9935-04A40B546544}"/>
+    <hyperlink ref="B250" r:id="rId93" display="https://countrycode.org/venezuela" xr:uid="{E79C679A-44D6-7D44-9323-754022293B70}"/>
+    <hyperlink ref="B251" r:id="rId94" display="https://countrycode.org/vietnam" xr:uid="{4522F82B-8749-A94D-B944-BFF032951D45}"/>
+    <hyperlink ref="B254" r:id="rId95" display="https://countrycode.org/yemen" xr:uid="{59BF3A13-6F73-E046-ABD1-CF4A61617AD5}"/>
+    <hyperlink ref="B256" r:id="rId96" display="https://countrycode.org/zimbabwe" xr:uid="{8E9B7FF3-6402-9946-9E74-A4F8F74FB803}"/>
+    <hyperlink ref="B255" r:id="rId97" display="https://countrycode.org/zambia" xr:uid="{3E790804-2D9E-8C46-A3A5-512187195293}"/>
+    <hyperlink ref="B253" r:id="rId98" display="https://countrycode.org/westernsahara" xr:uid="{7DE729E9-EF1D-A743-902D-3BE9083F5ADE}"/>
+    <hyperlink ref="B252" r:id="rId99" display="https://countrycode.org/wallisandfutuna" xr:uid="{86BA9E76-7DA8-484D-A04D-809C969F205B}"/>
+    <hyperlink ref="B249" r:id="rId100" display="https://countrycode.org/vatican" xr:uid="{35947EC9-0CD8-A44C-AB5A-8F011BFFF50C}"/>
+    <hyperlink ref="B248" r:id="rId101" display="https://countrycode.org/vanuatu" xr:uid="{903FAD78-C338-1B43-B6E8-F929663CCD0C}"/>
+    <hyperlink ref="B247" r:id="rId102" display="https://countrycode.org/uzbekistan" xr:uid="{C083B24B-3728-0848-8267-14F9B42FE6F6}"/>
+    <hyperlink ref="B240" r:id="rId103" display="https://countrycode.org/uganda" xr:uid="{041D6136-CAC7-1246-85DD-559195A4628F}"/>
+    <hyperlink ref="B239" r:id="rId104" display="https://countrycode.org/virginislands" xr:uid="{F7025D04-80D0-6A42-BF67-010D508CA6D1}"/>
+    <hyperlink ref="B238" r:id="rId105" display="https://countrycode.org/tuvalu" xr:uid="{EF8587AC-5447-394D-9E48-BCAB43A8AE8A}"/>
+    <hyperlink ref="B237" r:id="rId106" display="https://countrycode.org/turksandcaicos" xr:uid="{936A3C71-CBCB-E845-885D-485014F118E1}"/>
+    <hyperlink ref="B236" r:id="rId107" display="https://countrycode.org/turkmenistan" xr:uid="{11C49448-349E-DD41-835C-FCBBF9E9BD1E}"/>
+    <hyperlink ref="B233" r:id="rId108" display="https://countrycode.org/trinidadandtobago" xr:uid="{FF49E5AD-C16E-1246-B387-08820170FC79}"/>
+    <hyperlink ref="B232" r:id="rId109" display="https://countrycode.org/tonga" xr:uid="{00ECD5E6-84C4-4346-8009-8D28734C4178}"/>
+    <hyperlink ref="B231" r:id="rId110" display="https://countrycode.org/tokelau" xr:uid="{D860920F-016B-0F44-8E52-B7740A444832}"/>
+    <hyperlink ref="B230" r:id="rId111" display="https://countrycode.org/togo" xr:uid="{85417428-6282-0C4D-9A27-9203938A35E8}"/>
+    <hyperlink ref="B227" r:id="rId112" display="https://countrycode.org/tanzania" xr:uid="{A812EB9A-4A7D-6D43-8C51-12CB5D3B8F75}"/>
+    <hyperlink ref="B226" r:id="rId113" display="https://countrycode.org/tajikistan" xr:uid="{C3F6A510-769F-B245-A2FC-15C4D48CB6A0}"/>
+    <hyperlink ref="B220" r:id="rId114" display="https://countrycode.org/sweden" xr:uid="{ED0DF3CA-92FB-5A47-8241-4B561F56AF19}"/>
+    <hyperlink ref="B218" r:id="rId115" display="https://countrycode.org/svalbard" xr:uid="{898894BD-2E42-044D-9A67-A94DE8247137}"/>
+    <hyperlink ref="B217" r:id="rId116" display="https://countrycode.org/suriname" xr:uid="{98222181-30AD-6B44-BBEB-648D23E637DE}"/>
+    <hyperlink ref="B215" r:id="rId117" display="https://countrycode.org/srilanka" xr:uid="{C758396C-DE40-6740-92EA-2899349A88F1}"/>
+    <hyperlink ref="B212" r:id="rId118" display="https://countrycode.org/southsudan" xr:uid="{0A537ED5-C212-8C40-B598-B2EE6454A2BA}"/>
+    <hyperlink ref="B209" r:id="rId119" display="https://countrycode.org/somalia" xr:uid="{3811D7D0-0122-DD4D-8084-96DA5FEEACA3}"/>
+    <hyperlink ref="B208" r:id="rId120" display="https://countrycode.org/solomonislands" xr:uid="{A717C126-DFF7-5A4A-955F-6B9854A0D6E4}"/>
+    <hyperlink ref="B205" r:id="rId121" display="https://countrycode.org/sintmaarten" xr:uid="{3D5A5952-C061-7D40-B84D-00506710FD65}"/>
+    <hyperlink ref="B202" r:id="rId122" display="https://countrycode.org/sierraleone" xr:uid="{FC0AE630-1E32-1641-B19B-6BCD25B1521E}"/>
+    <hyperlink ref="B198" r:id="rId123" display="https://countrycode.org/senegal" xr:uid="{178FD444-577C-244A-9EA7-761EFC3773B0}"/>
+    <hyperlink ref="B196" r:id="rId124" display="https://countrycode.org/saotomeandprincipe" xr:uid="{BE85460B-CAC3-AB4C-B86E-DAC1013A6A04}"/>
+    <hyperlink ref="B195" r:id="rId125" display="https://countrycode.org/sanmarino" xr:uid="{9799B7EB-CD53-5545-8963-39B543C06974}"/>
+    <hyperlink ref="B194" r:id="rId126" display="https://countrycode.org/samoa" xr:uid="{F547D1C2-E65B-BE4D-9619-FB2A81381095}"/>
+    <hyperlink ref="B193" r:id="rId127" display="https://countrycode.org/stvincent" xr:uid="{C7946E6B-3CCD-6F4F-875B-EC3EEF391463}"/>
+    <hyperlink ref="B192" r:id="rId128" display="https://countrycode.org/stpierre" xr:uid="{7D90FBF1-59CF-9C4F-96DD-E9E510C87B07}"/>
+    <hyperlink ref="B191" r:id="rId129" display="https://countrycode.org/stmartin" xr:uid="{3C35466A-C9CE-B946-A794-4A981FA3E94B}"/>
+    <hyperlink ref="B190" r:id="rId130" display="https://countrycode.org/stlucia" xr:uid="{38F1D5CE-54EF-904E-BF9C-194D75B2FFED}"/>
+    <hyperlink ref="B189" r:id="rId131" display="https://countrycode.org/stkitts" xr:uid="{6F25E7B3-A43A-2648-815E-03330C3D9A7B}"/>
+    <hyperlink ref="B188" r:id="rId132" display="https://countrycode.org/sthelena" xr:uid="{C56F22FE-73C1-3D4E-BC26-70E1B6199DA7}"/>
+    <hyperlink ref="B187" r:id="rId133" display="https://countrycode.org/saintbarthelemy" xr:uid="{CB15A89B-2F83-8C42-9585-6B624A448E32}"/>
+    <hyperlink ref="B186" r:id="rId134" display="https://countrycode.org/rwanda" xr:uid="{47C2D8FB-8E5B-0E48-889B-58B0E295D0C6}"/>
+    <hyperlink ref="B183" r:id="rId135" display="https://countrycode.org/reunion" xr:uid="{563A6CD0-375C-B24C-A468-427FD9EF09F3}"/>
+    <hyperlink ref="B182" r:id="rId136" display="https://countrycode.org/congo" xr:uid="{448FF584-D8F1-F648-8334-B134B8283C2B}"/>
+    <hyperlink ref="B177" r:id="rId137" display="https://countrycode.org/pitcairnislands" xr:uid="{ED961BB0-5C13-2241-914E-0BBB19B2F05C}"/>
+    <hyperlink ref="B173" r:id="rId138" display="https://countrycode.org/papuanewguinea" xr:uid="{5F085C90-DAE8-D24E-8A25-B95E27381F56}"/>
+    <hyperlink ref="B171" r:id="rId139" display="https://countrycode.org/palestine" xr:uid="{B63EC55B-5B1D-8944-BD80-3D5C631666BA}"/>
+    <hyperlink ref="B170" r:id="rId140" display="https://countrycode.org/palau" xr:uid="{7D2C7192-8E8B-4741-9BE5-3A3D186B0B51}"/>
+    <hyperlink ref="B169" r:id="rId141" display="https://countrycode.org/pakistan" xr:uid="{75D7296A-B0BF-9B47-8988-628F1FF008C6}"/>
+    <hyperlink ref="B166" r:id="rId142" display="https://countrycode.org/northernmarianaislands" xr:uid="{F4F040AA-B6FF-8D46-8E48-07FE223E3CA9}"/>
+    <hyperlink ref="B165" r:id="rId143" display="https://countrycode.org/northkorea" xr:uid="{DD2DE97C-91E6-7746-BD95-A1C40310EC78}"/>
+    <hyperlink ref="B164" r:id="rId144" display="https://countrycode.org/niue" xr:uid="{7940A048-DA7E-694D-8982-1B2A14677A1C}"/>
+    <hyperlink ref="B163" r:id="rId145" display="https://countrycode.org/nigeria" xr:uid="{D7F1AE96-E98E-494C-951C-46877CC89166}"/>
+    <hyperlink ref="B162" r:id="rId146" display="https://countrycode.org/niger" xr:uid="{E2EF17B9-0587-6C4F-AADD-1491C9F47BD5}"/>
+    <hyperlink ref="B159" r:id="rId147" display="https://countrycode.org/newcaledonia" xr:uid="{B047A99E-EB11-654D-9DCF-81FE906004F2}"/>
+    <hyperlink ref="B158" r:id="rId148" display="https://countrycode.org/netherlandsantilles" xr:uid="{009BDE5D-0FFC-3745-9539-BB14537AE30D}"/>
+    <hyperlink ref="B156" r:id="rId149" display="https://countrycode.org/nepal" xr:uid="{B14115EA-8D3A-3245-892F-C9A50B8B52F9}"/>
+    <hyperlink ref="B155" r:id="rId150" display="https://countrycode.org/nauru" xr:uid="{654F8A9D-2129-0E42-89F0-8B12403B1DB1}"/>
+    <hyperlink ref="B154" r:id="rId151" display="https://countrycode.org/namibia" xr:uid="{8831E5E0-5F0A-FE4E-94B3-2D1A34703F51}"/>
+    <hyperlink ref="B153" r:id="rId152" display="https://countrycode.org/burma" xr:uid="{947A5161-A375-A449-AA7B-B896F94500D9}"/>
+    <hyperlink ref="B152" r:id="rId153" display="https://countrycode.org/mozambique" xr:uid="{A868C81D-2933-9947-8404-6BE5270F4D6B}"/>
+    <hyperlink ref="B150" r:id="rId154" display="https://countrycode.org/montserrat" xr:uid="{F60DC1F5-CC51-954A-ABB6-4BAB80BBC4F6}"/>
+    <hyperlink ref="B148" r:id="rId155" display="https://countrycode.org/mongolia" xr:uid="{129E24BC-965C-B645-969B-3233E3912112}"/>
+    <hyperlink ref="B147" r:id="rId156" display="https://countrycode.org/monaco" xr:uid="{26DAD3B1-463D-4D4B-8F66-912800A882D8}"/>
+    <hyperlink ref="B146" r:id="rId157" display="https://countrycode.org/moldova" xr:uid="{EE836C67-B5ED-D44A-B38F-E1CD1C8A4938}"/>
+    <hyperlink ref="B145" r:id="rId158" display="https://countrycode.org/micronesia" xr:uid="{F2BA089D-9FB2-0447-BA1E-520283CDA11F}"/>
+    <hyperlink ref="B143" r:id="rId159" display="https://countrycode.org/mayotte" xr:uid="{CDE83C4F-4B75-3145-99F9-F4E74270D3C8}"/>
+    <hyperlink ref="B142" r:id="rId160" display="https://countrycode.org/mauritius" xr:uid="{70D9DB1A-2980-E348-BFD9-1D31465D1F66}"/>
+    <hyperlink ref="B141" r:id="rId161" display="https://countrycode.org/mauritania" xr:uid="{48778E8F-718A-3440-BF54-9917DFE2AE4F}"/>
+    <hyperlink ref="B140" r:id="rId162" display="https://countrycode.org/marshallislands" xr:uid="{975309F4-D70F-3644-9D99-CF4F793FDA37}"/>
+    <hyperlink ref="B137" r:id="rId163" display="https://countrycode.org/mali" xr:uid="{3DC14AB4-817C-A644-9D0A-6895B5A0D742}"/>
+    <hyperlink ref="B136" r:id="rId164" display="https://countrycode.org/maldives" xr:uid="{D16859A5-4760-8D4C-8583-3A6228B27A1B}"/>
+    <hyperlink ref="B134" r:id="rId165" display="https://countrycode.org/malawi" xr:uid="{9BF5CD7B-4DAA-F84F-912E-B42485E33956}"/>
+    <hyperlink ref="B133" r:id="rId166" display="https://countrycode.org/madagascar" xr:uid="{D02D0BC6-0F2E-664F-BFCC-997B929620DA}"/>
+    <hyperlink ref="B131" r:id="rId167" display="https://countrycode.org/macau" xr:uid="{0CFC3002-E22F-D24C-BFD5-8DB930DC4271}"/>
+    <hyperlink ref="B127" r:id="rId168" display="https://countrycode.org/liechtenstein" xr:uid="{FAFBC7A1-58B4-9C4B-9716-8531C22655ED}"/>
+    <hyperlink ref="B125" r:id="rId169" display="https://countrycode.org/liberia" xr:uid="{C00AE2FE-4A12-4F49-8463-074798DEDAF7}"/>
+    <hyperlink ref="B124" r:id="rId170" display="https://countrycode.org/lesotho" xr:uid="{FDEC945C-FB48-5D48-9990-CF8084C46B93}"/>
+    <hyperlink ref="B121" r:id="rId171" display="https://countrycode.org/laos" xr:uid="{8BB7FB49-75BD-C349-AB43-2684D520682D}"/>
+    <hyperlink ref="B120" r:id="rId172" display="https://countrycode.org/kyrgyzstan" xr:uid="{03020B3E-D000-8C4E-93A8-EEC5437B62BF}"/>
+    <hyperlink ref="B118" r:id="rId173" display="https://countrycode.org/kosovo" xr:uid="{08E89C28-5C03-1340-AB47-FA4782B043C4}"/>
+    <hyperlink ref="B117" r:id="rId174" display="https://countrycode.org/kiribati" xr:uid="{80DE6BAB-6573-A74A-AE71-654CE77D9F5A}"/>
+    <hyperlink ref="B116" r:id="rId175" display="https://countrycode.org/kenya" xr:uid="{629D3D00-E7E9-AF41-A084-013245B49CA2}"/>
+    <hyperlink ref="B115" r:id="rId176" display="https://countrycode.org/kazakhstan" xr:uid="{F4350962-3E1C-4C4F-9F3B-D86443CF1E2F}"/>
+    <hyperlink ref="B113" r:id="rId177" display="https://countrycode.org/jersey" xr:uid="{89283202-D221-5B47-A59A-7F2298A4E4C8}"/>
+    <hyperlink ref="B110" r:id="rId178" display="https://countrycode.org/jamaica" xr:uid="{634FF95C-4DDB-FF4C-8072-0DF85A42312B}"/>
+    <hyperlink ref="B109" r:id="rId179" display="https://countrycode.org/ivorycoast" xr:uid="{5D21594C-F6F9-1C45-BFE4-B16E06B5F12F}"/>
+    <hyperlink ref="B105" r:id="rId180" display="https://countrycode.org/isleofman" xr:uid="{EC57A8D0-3134-1841-A920-38E42E5CFA61}"/>
+    <hyperlink ref="B101" r:id="rId181" display="https://countrycode.org/iran" xr:uid="{EECA986F-30C4-5542-BE10-91586527F4F4}"/>
+    <hyperlink ref="B93" r:id="rId182" display="https://countrycode.org/haiti" xr:uid="{643C3C93-80A6-A447-9C92-1555CB47CB68}"/>
+    <hyperlink ref="B92" r:id="rId183" display="https://countrycode.org/guyana" xr:uid="{52628704-315A-B644-A375-2F7533928241}"/>
+    <hyperlink ref="B91" r:id="rId184" display="https://countrycode.org/guineabissau" xr:uid="{97A02505-A321-214E-B235-32D7521CA1E4}"/>
+    <hyperlink ref="B90" r:id="rId185" display="https://countrycode.org/guinea" xr:uid="{F89DAC08-D290-B145-AFD5-4C522BDC8F9E}"/>
+    <hyperlink ref="B89" r:id="rId186" display="https://countrycode.org/guernsey" xr:uid="{51AD8DC7-137C-3F41-986F-2968E88B14DF}"/>
+    <hyperlink ref="B87" r:id="rId187" display="https://countrycode.org/guam" xr:uid="{A3C39277-7B29-0C45-9B5F-F44365C90258}"/>
+    <hyperlink ref="B86" r:id="rId188" display="https://countrycode.org/grenada" xr:uid="{B9079CF4-782B-8244-959E-15C01093FF2D}"/>
+    <hyperlink ref="B85" r:id="rId189" display="https://countrycode.org/greenland" xr:uid="{F86B6688-44E9-9E46-9A3C-2BE62F5EA570}"/>
+    <hyperlink ref="B83" r:id="rId190" display="https://countrycode.org/gibraltar" xr:uid="{7CF9D34B-58B4-2A4E-BB65-6588C0BE1508}"/>
+    <hyperlink ref="B82" r:id="rId191" display="https://countrycode.org/ghana" xr:uid="{93E64B20-9454-BC48-B01B-93C9DA1A272D}"/>
+    <hyperlink ref="B80" r:id="rId192" display="https://countrycode.org/georgia" xr:uid="{796D6DBD-5B49-0645-9774-B1E8E19A96AD}"/>
+    <hyperlink ref="B79" r:id="rId193" display="https://countrycode.org/gambia" xr:uid="{4A852019-21F1-5345-B210-DAB52B446978}"/>
+    <hyperlink ref="B78" r:id="rId194" display="https://countrycode.org/gabon" xr:uid="{9AE3547E-CEAB-BC42-A46B-D044A74AABF6}"/>
+    <hyperlink ref="B77" r:id="rId195" display="https://countrycode.org/frenchpolynesia" xr:uid="{0B0659AB-8780-A847-8692-C61092A31174}"/>
+    <hyperlink ref="B74" r:id="rId196" display="https://countrycode.org/fiji" xr:uid="{393E05DB-FBB2-E140-888D-B259BBCC0286}"/>
+    <hyperlink ref="B73" r:id="rId197" display="https://countrycode.org/faroeislands" xr:uid="{B445B08A-1A1F-FA48-A8BF-AFE87FB5FF7B}"/>
+    <hyperlink ref="B72" r:id="rId198" display="https://countrycode.org/falklands" xr:uid="{33214453-8EB5-AD4D-A712-86BEF324068E}"/>
+    <hyperlink ref="B71" r:id="rId199" display="https://countrycode.org/ethiopia" xr:uid="{5BE7C518-6D46-124D-8785-DBAF1A3AA015}"/>
+    <hyperlink ref="B69" r:id="rId200" display="https://countrycode.org/eritrea" xr:uid="{DE2CEFFC-28FD-594A-B450-24C4C2774158}"/>
+    <hyperlink ref="B68" r:id="rId201" display="https://countrycode.org/equatorialguinea" xr:uid="{2E253AE9-096F-4243-A16B-D3A55E5726E4}"/>
+    <hyperlink ref="B64" r:id="rId202" display="https://countrycode.org/easttimor" xr:uid="{55BE2B37-5C8C-BD44-9E6E-499685E80FFE}"/>
+    <hyperlink ref="B62" r:id="rId203" display="https://countrycode.org/dominica" xr:uid="{D75A8FC3-07A6-864D-8769-72CFC07D46AD}"/>
+    <hyperlink ref="B61" r:id="rId204" display="https://countrycode.org/djibouti" xr:uid="{7415B62D-C73F-594F-81C0-6B67698D8321}"/>
+    <hyperlink ref="B59" r:id="rId205" display="https://countrycode.org/congodemocraticrepublic" xr:uid="{8F06A8C0-17D6-DE4C-89FA-3656B8D72E85}"/>
+    <hyperlink ref="B56" r:id="rId206" display="https://countrycode.org/curacao" xr:uid="{1A6846B9-271E-DE47-B3DF-714EA5D3D54A}"/>
+    <hyperlink ref="B55" r:id="rId207" display="https://countrycode.org/cuba" xr:uid="{C0BFB8CE-2473-724C-8E14-8A32C7F941D2}"/>
+    <hyperlink ref="B52" r:id="rId208" display="https://countrycode.org/cookislands" xr:uid="{2523BCB3-D2BE-D541-AB76-B3039989FB2F}"/>
+    <hyperlink ref="B51" r:id="rId209" display="https://countrycode.org/comoros" xr:uid="{F85BDD58-7694-6843-B96D-CD61AE1174C3}"/>
+    <hyperlink ref="B49" r:id="rId210" display="https://countrycode.org/cocoskeelingislands" xr:uid="{23051366-5C45-1443-8846-F8EB4D3DCB50}"/>
+    <hyperlink ref="B48" r:id="rId211" display="https://countrycode.org/christmasisland" xr:uid="{00911325-626E-B74F-A2F4-E3F8EE5F0FA7}"/>
+    <hyperlink ref="B45" r:id="rId212" display="https://countrycode.org/chad" xr:uid="{08746853-BDBF-3D48-8D8A-98B11D479FA7}"/>
+    <hyperlink ref="B44" r:id="rId213" display="https://countrycode.org/centralafricanrepublic" xr:uid="{1DD07354-45C4-414C-9DDB-013182C25CAF}"/>
+    <hyperlink ref="B43" r:id="rId214" display="https://countrycode.org/caymanislands" xr:uid="{66989346-1926-D541-802F-F909D383AB4D}"/>
+    <hyperlink ref="B42" r:id="rId215" display="https://countrycode.org/capeverde" xr:uid="{D7ADEBF6-3F37-8D48-A9B7-2A74A4833B4B}"/>
+    <hyperlink ref="B39" r:id="rId216" display="https://countrycode.org/cameroon" xr:uid="{B8F76CD1-CF21-984D-B90E-0EB90CDAA8E5}"/>
+    <hyperlink ref="B38" r:id="rId217" display="https://countrycode.org/cambodia" xr:uid="{5617EC6A-CCE8-E340-9B5C-6A1814EEB7B3}"/>
+    <hyperlink ref="B37" r:id="rId218" display="https://countrycode.org/burundi" xr:uid="{3E1D8332-B822-AC48-99D2-027A2A4A82FF}"/>
+    <hyperlink ref="B36" r:id="rId219" display="https://countrycode.org/burkinafaso" xr:uid="{8C662493-3B81-914E-994C-08C7111C5082}"/>
+    <hyperlink ref="B34" r:id="rId220" display="https://countrycode.org/brunei" xr:uid="{300991BE-6CE1-7248-834D-9486926AEB45}"/>
+    <hyperlink ref="B33" r:id="rId221" display="https://countrycode.org/britishvirginislands" xr:uid="{06481640-CB20-984D-B59D-1F7F23D73F54}"/>
+    <hyperlink ref="B32" r:id="rId222" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{CB6D75D5-4B98-0B48-B197-3E73719543D3}"/>
+    <hyperlink ref="B30" r:id="rId223" display="https://countrycode.org/botswana" xr:uid="{2DB4AB28-0D0A-8148-9FD4-77647FDF145F}"/>
+    <hyperlink ref="B27" r:id="rId224" display="https://countrycode.org/bhutan" xr:uid="{863DE961-D875-BB4A-956C-2248B3795CBC}"/>
+    <hyperlink ref="B26" r:id="rId225" display="https://countrycode.org/bermuda" xr:uid="{8E5ABE97-4F40-9641-95AC-5B924CA458E3}"/>
+    <hyperlink ref="B25" r:id="rId226" display="https://countrycode.org/benin" xr:uid="{8E46D4C5-F0A1-C24E-A15C-9B460DACA4AC}"/>
+    <hyperlink ref="B24" r:id="rId227" display="https://countrycode.org/belize" xr:uid="{A37E341B-F465-A949-9FB9-19EFAD536E57}"/>
+    <hyperlink ref="B20" r:id="rId228" display="https://countrycode.org/barbados" xr:uid="{06B514F8-763E-8244-B0A0-40BF62D619DA}"/>
+    <hyperlink ref="B19" r:id="rId229" display="https://countrycode.org/bangladesh" xr:uid="{DEC4E054-7D25-3041-B141-4B3BAEE70E2E}"/>
+    <hyperlink ref="B17" r:id="rId230" display="https://countrycode.org/bahamas" xr:uid="{2C0067AB-A816-394D-A80E-61024BEA58AF}"/>
+    <hyperlink ref="B16" r:id="rId231" display="https://countrycode.org/azerbaijan" xr:uid="{99C7CF3B-D828-104B-A11A-756BCCDCC70C}"/>
+    <hyperlink ref="B13" r:id="rId232" display="https://countrycode.org/aruba" xr:uid="{C1B01431-45F6-9E49-B355-EB1A8874B1B6}"/>
+    <hyperlink ref="B12" r:id="rId233" display="https://countrycode.org/armenia" xr:uid="{E58E4E9A-F7EC-1342-B686-143530219BA9}"/>
+    <hyperlink ref="B10" r:id="rId234" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{6434E0AC-B422-1D47-8E20-AC42F385A85D}"/>
+    <hyperlink ref="B9" r:id="rId235" display="https://countrycode.org/antarctica" xr:uid="{63C673C1-460A-5948-B73A-4BD675EA1D60}"/>
+    <hyperlink ref="B8" r:id="rId236" display="https://countrycode.org/anguilla" xr:uid="{4009DB37-3629-D141-95BE-BA66E729B2C3}"/>
+    <hyperlink ref="B7" r:id="rId237" display="https://countrycode.org/angola" xr:uid="{580F1E3B-A599-904E-AC6C-D3247283BCF8}"/>
+    <hyperlink ref="B6" r:id="rId238" display="https://countrycode.org/andorra" xr:uid="{3EACF7B3-33CE-F149-A4D6-C2611CF39A62}"/>
+    <hyperlink ref="B5" r:id="rId239" display="https://countrycode.org/americansamoa" xr:uid="{830EB6F3-5D8A-F641-9C93-7BF4CC805E51}"/>
+    <hyperlink ref="B2" r:id="rId240" display="https://countrycode.org/afghanistan" xr:uid="{5E1801C2-C82A-6144-AECE-68F3DE9EEE03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/country_info.xlsx
+++ b/country_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonmar/gmail_acct/python-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9388A6D-79B8-2341-BD4A-0C58B6124E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA911FC5-4772-8345-A70E-F69D36F8AE38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="-20360" windowWidth="25440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="640" windowWidth="25440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1390">
   <si>
     <t>ISO 3166 Country Code</t>
   </si>
@@ -4186,9 +4186,6 @@
   </si>
   <si>
     <t>_Lang_cnt</t>
-  </si>
-  <si>
-    <t>_Epoch</t>
   </si>
   <si>
     <t>Epoch?</t>
@@ -12280,8 +12277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE14CF3D-305E-254F-808F-981373BD6F80}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12295,7 +12292,7 @@
         <v>1377</v>
       </c>
       <c r="B1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C1" t="s">
         <v>1387</v>
@@ -12313,49 +12310,61 @@
         <v>1383</v>
       </c>
       <c r="H1" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>985</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -12375,88 +12384,160 @@
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>989</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>991</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>993</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="C7">
         <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>995</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>997</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="C9">
         <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>999</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
+        <v>218</v>
       </c>
       <c r="C10">
         <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -12464,100 +12545,148 @@
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>1002</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="C12">
         <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>1004</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="C13">
         <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>1008</v>
+        <v>319</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="C16">
         <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>1010</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>391</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12577,214 +12706,298 @@
     </row>
     <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>1013</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>397</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>1015</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>408</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>1021</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>411</v>
+        <v>94</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>414</v>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>418</v>
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>1029</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>425</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -12792,145 +13005,229 @@
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>1032</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1034</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>432</v>
+        <v>164</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>1036</v>
+        <v>226</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>436</v>
+        <v>227</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>1039</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>441</v>
+        <v>258</v>
       </c>
       <c r="C36">
         <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1041</v>
+        <v>289</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>444</v>
+        <v>290</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>1043</v>
+        <v>347</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="C38">
         <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>1045</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -12938,54 +13235,102 @@
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>1048</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>1050</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>458</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>1052</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>1054</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -13000,60 +13345,84 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>1058</v>
+        <v>291</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>472</v>
+        <v>292</v>
       </c>
       <c r="C48">
         <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>1060</v>
+        <v>132</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="C49">
         <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -13068,37 +13437,61 @@
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>1063</v>
+        <v>219</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>478</v>
+        <v>220</v>
       </c>
       <c r="C51">
         <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>1065</v>
+        <v>239</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>481</v>
+        <v>240</v>
       </c>
       <c r="C52">
         <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -13113,921 +13506,1275 @@
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>1069</v>
+        <v>255</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>488</v>
+        <v>256</v>
       </c>
       <c r="C55">
         <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>1071</v>
+        <v>265</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>491</v>
+        <v>266</v>
       </c>
       <c r="C56">
         <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>337</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>1075</v>
+        <v>334</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>497</v>
+        <v>335</v>
       </c>
       <c r="C59">
         <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>1078</v>
+        <v>114</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>502</v>
+        <v>115</v>
       </c>
       <c r="C61">
         <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>1080</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>505</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>512</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
       </c>
       <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>521</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>524</v>
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>1093</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>529</v>
+        <v>147</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>1095</v>
+        <v>152</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>532</v>
+        <v>153</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>1097</v>
+        <v>170</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>535</v>
+        <v>171</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>1099</v>
+        <v>180</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>538</v>
+        <v>181</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>121</v>
+      <c r="D74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="G75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>545</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
       </c>
       <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>1105</v>
+        <v>184</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>548</v>
+        <v>185</v>
       </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>1107</v>
+        <v>191</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>551</v>
+        <v>192</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>1109</v>
+        <v>203</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>554</v>
+        <v>204</v>
       </c>
       <c r="C80">
         <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>207</v>
+      </c>
+      <c r="G80" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>1112</v>
+        <v>221</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>559</v>
+        <v>222</v>
       </c>
       <c r="C82">
         <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>1114</v>
+        <v>234</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>130</v>
+      <c r="D83" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" t="s">
+        <v>236</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>227</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="G84" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>567</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>1119</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>570</v>
+        <v>242</v>
       </c>
       <c r="C86">
         <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>1121</v>
+        <v>244</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>574</v>
+        <v>245</v>
       </c>
       <c r="C87">
         <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>1124</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>580</v>
+        <v>61</v>
       </c>
       <c r="C89">
         <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>1126</v>
+        <v>267</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>584</v>
+        <v>268</v>
       </c>
       <c r="C90">
         <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>1128</v>
+        <v>273</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>587</v>
+        <v>274</v>
       </c>
       <c r="C91">
         <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>1130</v>
+        <v>278</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>590</v>
+        <v>279</v>
       </c>
       <c r="C92">
         <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
+      </c>
+      <c r="E92" t="s">
+        <v>280</v>
+      </c>
+      <c r="F92" t="s">
+        <v>282</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>1132</v>
+        <v>295</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>593</v>
+        <v>296</v>
       </c>
       <c r="C93">
         <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" t="s">
+        <v>299</v>
+      </c>
+      <c r="G93" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>304</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="G97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" t="s">
-        <v>158</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="G98" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>157</v>
+        <v>1293</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>158</v>
+        <v>856</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>152</v>
+        <v>1318</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>153</v>
+        <v>897</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>608</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>312</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>315</v>
+      </c>
+      <c r="E101" t="s">
+        <v>314</v>
+      </c>
+      <c r="F101" t="s">
+        <v>316</v>
+      </c>
+      <c r="G101" t="s">
+        <v>318</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" t="s">
-        <v>164</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="F103" t="s">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>332</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1144</v>
+        <v>340</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="C105">
         <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" t="s">
+        <v>342</v>
+      </c>
+      <c r="F105" t="s">
+        <v>344</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="F106" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>180</v>
-      </c>
-      <c r="B107" t="s">
-        <v>181</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>181</v>
+      <c r="D107" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" t="s">
+        <v>76</v>
+      </c>
+      <c r="F107" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" t="s">
+        <v>290</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F108" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
@@ -14035,2373 +14782,1623 @@
     </row>
     <row r="109" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1148</v>
+        <v>326</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>623</v>
+        <v>327</v>
       </c>
       <c r="C109">
         <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" t="s">
+        <v>76</v>
+      </c>
+      <c r="F109" t="s">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1150</v>
+        <v>985</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>626</v>
+        <v>349</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>184</v>
-      </c>
-      <c r="B111" t="s">
-        <v>185</v>
+    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E111" t="s">
-        <v>186</v>
-      </c>
-      <c r="F111" t="s">
-        <v>188</v>
-      </c>
-      <c r="G111" t="s">
-        <v>190</v>
-      </c>
-      <c r="H111" t="s">
-        <v>1389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>184</v>
+        <v>991</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>187</v>
-      </c>
-      <c r="E112" t="s">
-        <v>186</v>
-      </c>
-      <c r="F112" t="s">
-        <v>188</v>
-      </c>
-      <c r="G112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>214</v>
-      </c>
-      <c r="E122" t="s">
-        <v>213</v>
-      </c>
-      <c r="F122" t="s">
-        <v>215</v>
-      </c>
-      <c r="G122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>206</v>
-      </c>
-      <c r="E128" t="s">
-        <v>205</v>
-      </c>
-      <c r="F128" t="s">
-        <v>207</v>
-      </c>
-      <c r="G128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>209</v>
-      </c>
-      <c r="B129" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-      <c r="D129" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C130">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" t="s">
-        <v>32</v>
-      </c>
-      <c r="F130" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>224</v>
-      </c>
-      <c r="E132" t="s">
-        <v>223</v>
-      </c>
-      <c r="F132" t="s">
-        <v>225</v>
-      </c>
-      <c r="G132" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
-        <v>237</v>
-      </c>
-      <c r="E135" t="s">
-        <v>236</v>
-      </c>
-      <c r="F135" t="s">
-        <v>238</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>226</v>
-      </c>
-      <c r="B138" t="s">
-        <v>227</v>
-      </c>
-      <c r="C138">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s">
-        <v>229</v>
-      </c>
-      <c r="E138" t="s">
-        <v>228</v>
-      </c>
-      <c r="F138" t="s">
-        <v>230</v>
-      </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>21</v>
-      </c>
-      <c r="E139" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" t="s">
-        <v>15</v>
-      </c>
-      <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
-        <v>49</v>
-      </c>
-      <c r="E149" t="s">
-        <v>48</v>
-      </c>
-      <c r="F149" t="s">
-        <v>50</v>
-      </c>
-      <c r="G149" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" t="s">
-        <v>35</v>
-      </c>
-      <c r="F157" t="s">
-        <v>37</v>
-      </c>
-      <c r="G157" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>21</v>
-      </c>
-      <c r="E160" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161" t="s">
-        <v>15</v>
-      </c>
-      <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167" t="s">
-        <v>247</v>
-      </c>
-      <c r="E167" t="s">
-        <v>246</v>
-      </c>
-      <c r="F167" t="s">
-        <v>248</v>
-      </c>
-      <c r="G167" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172" t="s">
-        <v>16</v>
-      </c>
-      <c r="E172" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" t="s">
-        <v>15</v>
-      </c>
-      <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176" t="s">
-        <v>21</v>
-      </c>
-      <c r="E176" t="s">
-        <v>20</v>
-      </c>
-      <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178" t="s">
-        <v>263</v>
-      </c>
-      <c r="E178" t="s">
-        <v>262</v>
-      </c>
-      <c r="F178" t="s">
-        <v>264</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-      <c r="D179" t="s">
-        <v>63</v>
-      </c>
-      <c r="E179" t="s">
-        <v>62</v>
-      </c>
-      <c r="F179" t="s">
-        <v>64</v>
-      </c>
-      <c r="G179" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180" t="s">
-        <v>15</v>
-      </c>
-      <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
-        <v>276</v>
-      </c>
-      <c r="E184" t="s">
-        <v>275</v>
-      </c>
-      <c r="F184" t="s">
-        <v>277</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185" t="s">
-        <v>281</v>
-      </c>
-      <c r="E185" t="s">
-        <v>280</v>
-      </c>
-      <c r="F185" t="s">
-        <v>282</v>
-      </c>
-      <c r="G185" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199" t="s">
-        <v>49</v>
-      </c>
-      <c r="E199" t="s">
-        <v>48</v>
-      </c>
-      <c r="F199" t="s">
-        <v>50</v>
-      </c>
-      <c r="G199" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>285</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B229" t="s">
         <v>286</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201" t="s">
-        <v>49</v>
-      </c>
-      <c r="E201" t="s">
-        <v>48</v>
-      </c>
-      <c r="F201" t="s">
-        <v>50</v>
-      </c>
-      <c r="G201" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>289</v>
-      </c>
-      <c r="B203" t="s">
-        <v>290</v>
-      </c>
-      <c r="C203">
-        <v>2</v>
-      </c>
-      <c r="D203" t="s">
-        <v>77</v>
-      </c>
-      <c r="E203" t="s">
-        <v>76</v>
-      </c>
-      <c r="F203" t="s">
-        <v>78</v>
-      </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C204">
-        <v>2</v>
-      </c>
-      <c r="D204" t="s">
-        <v>21</v>
-      </c>
-      <c r="E204" t="s">
-        <v>20</v>
-      </c>
-      <c r="F204" t="s">
-        <v>22</v>
-      </c>
-      <c r="G204" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206" t="s">
-        <v>298</v>
-      </c>
-      <c r="E206" t="s">
-        <v>297</v>
-      </c>
-      <c r="F206" t="s">
-        <v>299</v>
-      </c>
-      <c r="G206" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207" t="s">
-        <v>303</v>
-      </c>
-      <c r="E207" t="s">
-        <v>302</v>
-      </c>
-      <c r="F207" t="s">
-        <v>304</v>
-      </c>
-      <c r="G207" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210" t="s">
-        <v>21</v>
-      </c>
-      <c r="E210" t="s">
-        <v>20</v>
-      </c>
-      <c r="F210" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211" t="s">
-        <v>194</v>
-      </c>
-      <c r="E211" t="s">
-        <v>193</v>
-      </c>
-      <c r="F211" t="s">
-        <v>195</v>
-      </c>
-      <c r="G211" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>109</v>
-      </c>
-      <c r="B213" t="s">
-        <v>110</v>
-      </c>
-      <c r="C213">
-        <v>2</v>
-      </c>
-      <c r="D213" t="s">
-        <v>112</v>
-      </c>
-      <c r="E213" t="s">
-        <v>111</v>
-      </c>
-      <c r="F213" t="s">
-        <v>113</v>
-      </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-      <c r="D214" t="s">
-        <v>16</v>
-      </c>
-      <c r="E214" t="s">
-        <v>15</v>
-      </c>
-      <c r="F214" t="s">
-        <v>17</v>
-      </c>
-      <c r="G214" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219" t="s">
-        <v>308</v>
-      </c>
-      <c r="E219" t="s">
-        <v>307</v>
-      </c>
-      <c r="F219" t="s">
-        <v>309</v>
-      </c>
-      <c r="G219" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>67</v>
-      </c>
-      <c r="B221" t="s">
-        <v>68</v>
-      </c>
-      <c r="C221">
-        <v>3</v>
-      </c>
-      <c r="D221" t="s">
-        <v>27</v>
-      </c>
-      <c r="E221" t="s">
-        <v>26</v>
-      </c>
-      <c r="F221" t="s">
-        <v>28</v>
-      </c>
-      <c r="G221" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>67</v>
-      </c>
-      <c r="B222" t="s">
-        <v>68</v>
-      </c>
-      <c r="C222">
-        <v>3</v>
-      </c>
-      <c r="D222" t="s">
-        <v>70</v>
-      </c>
-      <c r="E222" t="s">
-        <v>69</v>
-      </c>
-      <c r="F222" t="s">
-        <v>71</v>
-      </c>
-      <c r="G222" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C223">
-        <v>3</v>
-      </c>
-      <c r="D223" t="s">
-        <v>33</v>
-      </c>
-      <c r="E223" t="s">
-        <v>32</v>
-      </c>
-      <c r="F223" t="s">
-        <v>34</v>
-      </c>
-      <c r="G223" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224" t="s">
-        <v>10</v>
-      </c>
-      <c r="E224" t="s">
-        <v>9</v>
-      </c>
-      <c r="F224" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225" t="s">
-        <v>77</v>
-      </c>
-      <c r="E225" t="s">
-        <v>76</v>
-      </c>
-      <c r="F225" t="s">
-        <v>78</v>
-      </c>
-      <c r="G225" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>312</v>
-      </c>
-      <c r="B228" t="s">
-        <v>313</v>
-      </c>
-      <c r="C228">
-        <v>2</v>
-      </c>
-      <c r="D228" t="s">
-        <v>315</v>
-      </c>
-      <c r="E228" t="s">
-        <v>314</v>
-      </c>
-      <c r="F228" t="s">
-        <v>316</v>
-      </c>
-      <c r="G228" t="s">
-        <v>318</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C229">
-        <v>2</v>
-      </c>
-      <c r="D229" t="s">
-        <v>315</v>
-      </c>
-      <c r="E229" t="s">
-        <v>314</v>
-      </c>
-      <c r="F229" t="s">
-        <v>316</v>
-      </c>
-      <c r="G229" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
         <v>1329</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234" t="s">
-        <v>10</v>
-      </c>
-      <c r="E234" t="s">
-        <v>9</v>
-      </c>
-      <c r="F234" t="s">
-        <v>11</v>
-      </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235" t="s">
-        <v>324</v>
-      </c>
-      <c r="E235" t="s">
-        <v>323</v>
-      </c>
-      <c r="F235" t="s">
-        <v>325</v>
-      </c>
-      <c r="G235" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
         <v>1343</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241" t="s">
-        <v>332</v>
-      </c>
-      <c r="E241" t="s">
-        <v>331</v>
-      </c>
-      <c r="F241" t="s">
-        <v>333</v>
-      </c>
-      <c r="G241" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242" t="s">
-        <v>10</v>
-      </c>
-      <c r="E242" t="s">
-        <v>9</v>
-      </c>
-      <c r="F242" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243" t="s">
-        <v>21</v>
-      </c>
-      <c r="E243" t="s">
-        <v>20</v>
-      </c>
-      <c r="F243" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>336</v>
-      </c>
-      <c r="B244" t="s">
-        <v>337</v>
-      </c>
-      <c r="C244">
-        <v>2</v>
-      </c>
-      <c r="D244" t="s">
-        <v>16</v>
-      </c>
-      <c r="E244" t="s">
-        <v>15</v>
-      </c>
-      <c r="F244" t="s">
-        <v>17</v>
-      </c>
-      <c r="G244" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C245">
-        <v>2</v>
-      </c>
-      <c r="D245" t="s">
-        <v>21</v>
-      </c>
-      <c r="E245" t="s">
-        <v>20</v>
-      </c>
-      <c r="F245" t="s">
-        <v>22</v>
-      </c>
-      <c r="G245" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246" t="s">
-        <v>16</v>
-      </c>
-      <c r="E246" t="s">
-        <v>15</v>
-      </c>
-      <c r="F246" t="s">
-        <v>17</v>
-      </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250" t="s">
-        <v>16</v>
-      </c>
-      <c r="E250" t="s">
-        <v>15</v>
-      </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251" t="s">
-        <v>343</v>
-      </c>
-      <c r="E251" t="s">
-        <v>342</v>
-      </c>
-      <c r="F251" t="s">
-        <v>344</v>
-      </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C254">
         <v>1</v>
       </c>
-      <c r="D254" t="s">
-        <v>10</v>
-      </c>
-      <c r="E254" t="s">
-        <v>9</v>
-      </c>
-      <c r="F254" t="s">
-        <v>11</v>
-      </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>1367</v>
       </c>
@@ -16412,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>1369</v>
       </c>
@@ -16424,247 +16421,250 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H256">
+    <sortCondition ref="D2:D256"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://countrycode.org/albania" xr:uid="{27C4B0F4-478C-FD41-8D5E-C7FEE0D05807}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://countrycode.org/algeria" xr:uid="{8E1A73F8-BD4A-5747-B99F-681759D36BA5}"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://countrycode.org/argentina" xr:uid="{49D6B134-A7B8-8244-AC72-D4563E04A322}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://countrycode.org/australia" xr:uid="{1AF4B257-5244-0B4B-9428-A75F2DCB0B00}"/>
-    <hyperlink ref="B15" r:id="rId5" display="https://countrycode.org/austria" xr:uid="{15B55FFA-E55F-3741-B980-4FD047EA00BF}"/>
-    <hyperlink ref="B18" r:id="rId6" display="https://countrycode.org/bahrain" xr:uid="{048B0C12-895B-794E-B4DA-87D8A7E01908}"/>
-    <hyperlink ref="B21" r:id="rId7" display="https://countrycode.org/belarus" xr:uid="{4D8D0FFB-BD3D-8048-AD7B-061A7353EFD8}"/>
-    <hyperlink ref="B23" r:id="rId8" display="https://countrycode.org/belgium" xr:uid="{FA1B15D2-2023-0549-9180-A905088B91CC}"/>
-    <hyperlink ref="B28" r:id="rId9" display="https://countrycode.org/bolivia" xr:uid="{45B3AA88-0E7B-8741-9D15-D51254C25D84}"/>
-    <hyperlink ref="B29" r:id="rId10" display="https://countrycode.org/bosnia" xr:uid="{15C59D32-E871-D848-81A4-E37AC878CB4C}"/>
-    <hyperlink ref="B31" r:id="rId11" display="https://countrycode.org/brazil" xr:uid="{E7BAA957-9520-8948-9CBE-D927E748A4CD}"/>
-    <hyperlink ref="B35" r:id="rId12" display="https://countrycode.org/bulgaria" xr:uid="{2A8F0A71-13F1-DF48-9B8F-9EE44AF24B98}"/>
-    <hyperlink ref="B41" r:id="rId13" display="https://countrycode.org/canada" xr:uid="{D6223BD0-6669-A54F-AFB2-B8F951A3B762}"/>
-    <hyperlink ref="B46" r:id="rId14" display="https://countrycode.org/chile" xr:uid="{F3002634-5FFE-FA4D-9038-3960AB9E4C84}"/>
-    <hyperlink ref="B47" r:id="rId15" display="https://countrycode.org/china" xr:uid="{CA6C8CAB-6470-F84E-87B6-D36339F3F545}"/>
-    <hyperlink ref="B50" r:id="rId16" display="https://countrycode.org/colombia" xr:uid="{230E315B-3CA7-C646-87C5-2CD341E36A75}"/>
-    <hyperlink ref="B53" r:id="rId17" display="https://countrycode.org/costarica" xr:uid="{D9351AB0-9667-5842-9467-69E9E4B35286}"/>
-    <hyperlink ref="B54" r:id="rId18" display="https://countrycode.org/croatia" xr:uid="{DD069F75-23BA-1944-88C5-DC258090C119}"/>
-    <hyperlink ref="B57" r:id="rId19" display="https://countrycode.org/cyprus" xr:uid="{D50F2DD9-EFAA-7043-A808-9E463C41799B}"/>
-    <hyperlink ref="B58" r:id="rId20" display="https://countrycode.org/czechrepublic" xr:uid="{DB760696-D41D-4B42-AA11-219E2C6EBE8C}"/>
-    <hyperlink ref="B60" r:id="rId21" display="https://countrycode.org/denmark" xr:uid="{CFBA55C3-161D-8F44-8996-A97AB52501DB}"/>
-    <hyperlink ref="B63" r:id="rId22" display="https://countrycode.org/dominicanrepublic" xr:uid="{4A56EDBC-B84D-B640-B1BD-75D4A9390968}"/>
-    <hyperlink ref="B65" r:id="rId23" display="https://countrycode.org/ecuador" xr:uid="{45E9574F-6E75-ED4D-A7B2-DE5CA9246EAC}"/>
-    <hyperlink ref="B66" r:id="rId24" display="https://countrycode.org/egypt" xr:uid="{3AE881DF-DA2F-024F-976A-D2928929D456}"/>
-    <hyperlink ref="B67" r:id="rId25" display="https://countrycode.org/elsalvador" xr:uid="{A2B0E189-71ED-9E47-97A4-8B6913A7BB92}"/>
-    <hyperlink ref="B70" r:id="rId26" display="https://countrycode.org/estonia" xr:uid="{54C619C1-4112-2C43-A3D6-B151FD0A210F}"/>
-    <hyperlink ref="B75" r:id="rId27" display="https://countrycode.org/finland" xr:uid="{D309D8CF-3C82-A446-865F-75F94924D693}"/>
-    <hyperlink ref="B76" r:id="rId28" display="https://countrycode.org/france" xr:uid="{AB75973D-2DF3-1449-BAC7-AFBA1DF4F10D}"/>
-    <hyperlink ref="B81" r:id="rId29" display="https://countrycode.org/germany" xr:uid="{92802B3E-71BB-2C40-9EB4-C6692836C782}"/>
-    <hyperlink ref="B84" r:id="rId30" display="https://countrycode.org/greece" xr:uid="{2AC6C655-D060-A04F-AD86-10ECCA990244}"/>
-    <hyperlink ref="B88" r:id="rId31" display="https://countrycode.org/guatemala" xr:uid="{D91F4C05-255D-D54D-90EE-EE803BE430F4}"/>
-    <hyperlink ref="B94" r:id="rId32" display="https://countrycode.org/honduras" xr:uid="{07A7903E-3753-1042-95AA-3E7BFBA41734}"/>
-    <hyperlink ref="B95" r:id="rId33" display="https://countrycode.org/hongkong" xr:uid="{EDDD84BB-F80A-464A-9966-834731A92C42}"/>
-    <hyperlink ref="B96" r:id="rId34" display="https://countrycode.org/hungary" xr:uid="{9014078A-1DC5-1D48-9837-ABA287922CFA}"/>
-    <hyperlink ref="B97" r:id="rId35" display="https://countrycode.org/iceland" xr:uid="{CDF63D1B-9764-9046-86EF-F5D630570A77}"/>
-    <hyperlink ref="B99" r:id="rId36" display="https://countrycode.org/india" xr:uid="{D46CDE7F-C1D9-CE4F-85F4-3978A19587DB}"/>
-    <hyperlink ref="B100" r:id="rId37" display="https://countrycode.org/indonesia" xr:uid="{8D399D9B-F96B-1047-8B6C-E0E9F0FA9134}"/>
-    <hyperlink ref="B102" r:id="rId38" display="https://countrycode.org/iraq" xr:uid="{765774FB-C294-9F47-9149-0FB5D0B4ADEF}"/>
-    <hyperlink ref="B104" r:id="rId39" display="https://countrycode.org/ireland" xr:uid="{BD930EB9-001E-0B46-A76E-27B580DFE531}"/>
-    <hyperlink ref="B106" r:id="rId40" display="https://countrycode.org/israel" xr:uid="{8C80D2CA-8CF6-E544-8785-C87CC3588BF9}"/>
-    <hyperlink ref="B108" r:id="rId41" display="https://countrycode.org/italy" xr:uid="{81F96A88-44C2-854A-AD0E-D6F3AF5629AC}"/>
-    <hyperlink ref="B112" r:id="rId42" display="https://countrycode.org/japan" xr:uid="{5D4005F5-1E0A-0E43-A89F-63653792F9E9}"/>
-    <hyperlink ref="B114" r:id="rId43" display="https://countrycode.org/jordan" xr:uid="{BD41672D-93F7-9B46-BAA2-DA33F9F3CE5C}"/>
-    <hyperlink ref="B119" r:id="rId44" display="https://countrycode.org/kuwait" xr:uid="{2DD23851-84D3-6E44-83F2-1B67D59EE31D}"/>
-    <hyperlink ref="B122" r:id="rId45" display="https://countrycode.org/latvia" xr:uid="{2BED9785-02A5-0D41-9B68-B3630B7B5CFD}"/>
-    <hyperlink ref="B123" r:id="rId46" display="https://countrycode.org/lebanon" xr:uid="{45F3CCBE-A4AA-8D4C-A237-4673B4D8128F}"/>
-    <hyperlink ref="B126" r:id="rId47" display="https://countrycode.org/libya" xr:uid="{5A8FA451-83A2-F44D-93D5-954DC4F3D1E5}"/>
-    <hyperlink ref="B128" r:id="rId48" display="https://countrycode.org/lithuania" xr:uid="{A450E905-8F96-1942-A4E8-25FE8C8D3FBE}"/>
-    <hyperlink ref="B130" r:id="rId49" display="https://countrycode.org/luxembourg" xr:uid="{A7A0394B-0E5C-0940-A400-25E674CACC2E}"/>
-    <hyperlink ref="B132" r:id="rId50" display="https://countrycode.org/macedonia" xr:uid="{A420A34A-9F0C-3F4D-A306-84D3AA50293C}"/>
-    <hyperlink ref="B135" r:id="rId51" display="https://countrycode.org/malaysia" xr:uid="{745F6C29-FCA7-5943-A33E-70F056C514D4}"/>
-    <hyperlink ref="B139" r:id="rId52" display="https://countrycode.org/malta" xr:uid="{F182B04C-0920-9841-86F7-050A66CBE3C3}"/>
-    <hyperlink ref="B144" r:id="rId53" display="https://countrycode.org/mexico" xr:uid="{41BDDF72-E2BC-7E40-BB31-7CF1DEB9A555}"/>
-    <hyperlink ref="B149" r:id="rId54" display="https://countrycode.org/montenegro" xr:uid="{89D44898-FF2C-714F-8733-0DB3CD0030F1}"/>
-    <hyperlink ref="B151" r:id="rId55" display="https://countrycode.org/morocco" xr:uid="{A5C162DD-EE65-CC44-B387-FCB4E130153C}"/>
-    <hyperlink ref="B157" r:id="rId56" display="https://countrycode.org/netherlands" xr:uid="{B05D7964-8E0B-1F4B-BCDD-C41226803B8A}"/>
-    <hyperlink ref="B160" r:id="rId57" display="https://countrycode.org/newzealand" xr:uid="{3E5FF6FB-0879-654E-A1EB-1739D5D00D82}"/>
-    <hyperlink ref="B161" r:id="rId58" display="https://countrycode.org/nicaragua" xr:uid="{2C481954-557D-9C46-9788-B4E5C713838F}"/>
-    <hyperlink ref="B167" r:id="rId59" display="https://countrycode.org/norway" xr:uid="{0A0CEE3B-29C5-DE46-AB4C-66EA3C7AC140}"/>
-    <hyperlink ref="B168" r:id="rId60" display="https://countrycode.org/oman" xr:uid="{B9D5DF48-2D1C-D749-B5EE-3D81F199F3B7}"/>
-    <hyperlink ref="B172" r:id="rId61" display="https://countrycode.org/panama" xr:uid="{4590BE7A-9319-154F-8EAF-FD68C83AAB82}"/>
-    <hyperlink ref="B174" r:id="rId62" display="https://countrycode.org/paraguay" xr:uid="{08FA7F94-0CD5-384E-BFE3-5F7423B307B8}"/>
-    <hyperlink ref="B175" r:id="rId63" display="https://countrycode.org/peru" xr:uid="{A15BF072-EE56-E842-8BAB-70F3C3FF88C3}"/>
-    <hyperlink ref="B176" r:id="rId64" display="https://countrycode.org/philippines" xr:uid="{D627B8BD-3FC2-FD44-BE09-43F6B419572B}"/>
-    <hyperlink ref="B178" r:id="rId65" display="https://countrycode.org/poland" xr:uid="{8EC558DE-149A-5A40-9CB4-89F94C423832}"/>
-    <hyperlink ref="B179" r:id="rId66" display="https://countrycode.org/portugal" xr:uid="{5B788388-BCF7-8847-AC76-C63A681EB816}"/>
-    <hyperlink ref="B180" r:id="rId67" display="https://countrycode.org/puertorico" xr:uid="{CCB923F8-2282-7245-823D-99CCC0FC1728}"/>
-    <hyperlink ref="B181" r:id="rId68" display="https://countrycode.org/qatar" xr:uid="{2A73F34F-BF0B-8843-B3C6-C5571F34E26F}"/>
-    <hyperlink ref="B184" r:id="rId69" display="https://countrycode.org/romania" xr:uid="{5C2D7325-6A60-9B4A-A2F6-D4F1DCA7EE26}"/>
-    <hyperlink ref="B185" r:id="rId70" display="https://countrycode.org/russia" xr:uid="{6353707C-BE8B-0B4F-9202-82CBBC0D1F8B}"/>
-    <hyperlink ref="B197" r:id="rId71" display="https://countrycode.org/saudiarabia" xr:uid="{0110E9B3-C334-A54F-82E0-08AED7C48A5D}"/>
-    <hyperlink ref="B199" r:id="rId72" display="https://countrycode.org/serbia" xr:uid="{B027B925-66F0-F640-BFDB-3E09BF3D76B6}"/>
-    <hyperlink ref="B201" r:id="rId73" display="https://countrycode.org/seychelles" xr:uid="{A17FB1FA-9145-694D-A900-FEC5C4EC9965}"/>
-    <hyperlink ref="B204" r:id="rId74" display="https://countrycode.org/singapore" xr:uid="{9BE77D65-CE6D-B249-BA0A-0BD23CAF8895}"/>
-    <hyperlink ref="B206" r:id="rId75" display="https://countrycode.org/slovakia" xr:uid="{817929C8-4CB9-F34E-859C-80F9BA460B03}"/>
-    <hyperlink ref="B207" r:id="rId76" display="https://countrycode.org/slovenia" xr:uid="{3CEAAB15-CCAF-FC41-8B57-A2FE2E9C6670}"/>
-    <hyperlink ref="B210" r:id="rId77" display="https://countrycode.org/southafrica" xr:uid="{266572DE-4E09-AD48-9E29-AEF140BE3219}"/>
-    <hyperlink ref="B211" r:id="rId78" display="https://countrycode.org/southkorea" xr:uid="{C46541AD-507B-9143-B0EE-F42D7F23CCFC}"/>
-    <hyperlink ref="B214" r:id="rId79" display="https://countrycode.org/spain" xr:uid="{D697E321-5968-F842-90AD-5DD5A7E79787}"/>
-    <hyperlink ref="B216" r:id="rId80" display="https://countrycode.org/sudan" xr:uid="{1989F6A0-51DC-8F4F-AEA3-4983F66D6E01}"/>
-    <hyperlink ref="B219" r:id="rId81" display="https://countrycode.org/swaziland" xr:uid="{9F5EF16D-16BF-2645-A1C0-938C2CFA59FE}"/>
-    <hyperlink ref="B223" r:id="rId82" display="https://countrycode.org/switzerland" xr:uid="{14436A5F-90F0-3D4F-BBA6-3FB2D75A88A1}"/>
-    <hyperlink ref="B224" r:id="rId83" display="https://countrycode.org/syria" xr:uid="{8D759E35-3362-BB41-8104-1D4612AC71DF}"/>
-    <hyperlink ref="B225" r:id="rId84" display="https://countrycode.org/taiwan" xr:uid="{D9F3B066-7009-D842-BCC7-D0010F7A9673}"/>
-    <hyperlink ref="B229" r:id="rId85" display="https://countrycode.org/thailand" xr:uid="{63A2F74E-37C8-7343-8973-DD0699AFB537}"/>
-    <hyperlink ref="B234" r:id="rId86" display="https://countrycode.org/tunisia" xr:uid="{5A1DA306-2241-554E-ACD7-2691F758D105}"/>
-    <hyperlink ref="B235" r:id="rId87" display="https://countrycode.org/turkey" xr:uid="{AF8D7776-22A4-DB46-996A-9154B1843706}"/>
-    <hyperlink ref="B241" r:id="rId88" display="https://countrycode.org/ukraine" xr:uid="{2B4CEAB7-FCDD-B043-B356-11AD3F0663F1}"/>
-    <hyperlink ref="B242" r:id="rId89" display="https://countrycode.org/uae" xr:uid="{E5339F2E-0E22-7A4D-A0B6-B9DED1BE277D}"/>
-    <hyperlink ref="B243" r:id="rId90" display="https://countrycode.org/uk" xr:uid="{642CEA19-991C-804F-8481-1EDA09A39CEE}"/>
-    <hyperlink ref="B245" r:id="rId91" display="https://countrycode.org/usa" xr:uid="{C1187652-EAD5-3B4F-BBEB-7CC62934D5E5}"/>
-    <hyperlink ref="B246" r:id="rId92" display="https://countrycode.org/uruguay" xr:uid="{BF16DDCF-E15F-7B4A-9935-04A40B546544}"/>
-    <hyperlink ref="B250" r:id="rId93" display="https://countrycode.org/venezuela" xr:uid="{E79C679A-44D6-7D44-9323-754022293B70}"/>
-    <hyperlink ref="B251" r:id="rId94" display="https://countrycode.org/vietnam" xr:uid="{4522F82B-8749-A94D-B944-BFF032951D45}"/>
-    <hyperlink ref="B254" r:id="rId95" display="https://countrycode.org/yemen" xr:uid="{59BF3A13-6F73-E046-ABD1-CF4A61617AD5}"/>
+    <hyperlink ref="B95" r:id="rId1" display="https://countrycode.org/albania" xr:uid="{27C4B0F4-478C-FD41-8D5E-C7FEE0D05807}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://countrycode.org/algeria" xr:uid="{8E1A73F8-BD4A-5747-B99F-681759D36BA5}"/>
+    <hyperlink ref="B41" r:id="rId3" display="https://countrycode.org/argentina" xr:uid="{49D6B134-A7B8-8244-AC72-D4563E04A322}"/>
+    <hyperlink ref="B30" r:id="rId4" display="https://countrycode.org/australia" xr:uid="{1AF4B257-5244-0B4B-9428-A75F2DCB0B00}"/>
+    <hyperlink ref="B24" r:id="rId5" display="https://countrycode.org/austria" xr:uid="{15B55FFA-E55F-3741-B980-4FD047EA00BF}"/>
+    <hyperlink ref="B3" r:id="rId6" display="https://countrycode.org/bahrain" xr:uid="{048B0C12-895B-794E-B4DA-87D8A7E01908}"/>
+    <hyperlink ref="B19" r:id="rId7" display="https://countrycode.org/belarus" xr:uid="{4D8D0FFB-BD3D-8048-AD7B-061A7353EFD8}"/>
+    <hyperlink ref="B63" r:id="rId8" display="https://countrycode.org/belgium" xr:uid="{FA1B15D2-2023-0549-9180-A905088B91CC}"/>
+    <hyperlink ref="B42" r:id="rId9" display="https://countrycode.org/bolivia" xr:uid="{45B3AA88-0E7B-8741-9D15-D51254C25D84}"/>
+    <hyperlink ref="B96" r:id="rId10" display="https://countrycode.org/bosnia" xr:uid="{15C59D32-E871-D848-81A4-E37AC878CB4C}"/>
+    <hyperlink ref="B89" r:id="rId11" display="https://countrycode.org/brazil" xr:uid="{E7BAA957-9520-8948-9CBE-D927E748A4CD}"/>
+    <hyperlink ref="B20" r:id="rId12" display="https://countrycode.org/bulgaria" xr:uid="{2A8F0A71-13F1-DF48-9B8F-9EE44AF24B98}"/>
+    <hyperlink ref="B31" r:id="rId13" display="https://countrycode.org/canada" xr:uid="{D6223BD0-6669-A54F-AFB2-B8F951A3B762}"/>
+    <hyperlink ref="B43" r:id="rId14" display="https://countrycode.org/chile" xr:uid="{F3002634-5FFE-FA4D-9038-3960AB9E4C84}"/>
+    <hyperlink ref="B106" r:id="rId15" display="https://countrycode.org/china" xr:uid="{CA6C8CAB-6470-F84E-87B6-D36339F3F545}"/>
+    <hyperlink ref="B44" r:id="rId16" display="https://countrycode.org/colombia" xr:uid="{230E315B-3CA7-C646-87C5-2CD341E36A75}"/>
+    <hyperlink ref="B45" r:id="rId17" display="https://countrycode.org/costarica" xr:uid="{D9351AB0-9667-5842-9467-69E9E4B35286}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://countrycode.org/croatia" xr:uid="{DD069F75-23BA-1944-88C5-DC258090C119}"/>
+    <hyperlink ref="B28" r:id="rId19" display="https://countrycode.org/cyprus" xr:uid="{D50F2DD9-EFAA-7043-A808-9E463C41799B}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://countrycode.org/czechrepublic" xr:uid="{DB760696-D41D-4B42-AA11-219E2C6EBE8C}"/>
+    <hyperlink ref="B23" r:id="rId21" display="https://countrycode.org/denmark" xr:uid="{CFBA55C3-161D-8F44-8996-A97AB52501DB}"/>
+    <hyperlink ref="B46" r:id="rId22" display="https://countrycode.org/dominicanrepublic" xr:uid="{4A56EDBC-B84D-B640-B1BD-75D4A9390968}"/>
+    <hyperlink ref="B47" r:id="rId23" display="https://countrycode.org/ecuador" xr:uid="{45E9574F-6E75-ED4D-A7B2-DE5CA9246EAC}"/>
+    <hyperlink ref="B4" r:id="rId24" display="https://countrycode.org/egypt" xr:uid="{3AE881DF-DA2F-024F-976A-D2928929D456}"/>
+    <hyperlink ref="B48" r:id="rId25" display="https://countrycode.org/elsalvador" xr:uid="{A2B0E189-71ED-9E47-97A4-8B6913A7BB92}"/>
+    <hyperlink ref="B61" r:id="rId26" display="https://countrycode.org/estonia" xr:uid="{54C619C1-4112-2C43-A3D6-B151FD0A210F}"/>
+    <hyperlink ref="B62" r:id="rId27" display="https://countrycode.org/finland" xr:uid="{D309D8CF-3C82-A446-865F-75F94924D693}"/>
+    <hyperlink ref="B65" r:id="rId28" display="https://countrycode.org/france" xr:uid="{AB75973D-2DF3-1449-BAC7-AFBA1DF4F10D}"/>
+    <hyperlink ref="B25" r:id="rId29" display="https://countrycode.org/germany" xr:uid="{92802B3E-71BB-2C40-9EB4-C6692836C782}"/>
+    <hyperlink ref="B29" r:id="rId30" display="https://countrycode.org/greece" xr:uid="{2AC6C655-D060-A04F-AD86-10ECCA990244}"/>
+    <hyperlink ref="B49" r:id="rId31" display="https://countrycode.org/guatemala" xr:uid="{D91F4C05-255D-D54D-90EE-EE803BE430F4}"/>
+    <hyperlink ref="B50" r:id="rId32" display="https://countrycode.org/honduras" xr:uid="{07A7903E-3753-1042-95AA-3E7BFBA41734}"/>
+    <hyperlink ref="B107" r:id="rId33" display="https://countrycode.org/hongkong" xr:uid="{EDDD84BB-F80A-464A-9966-834731A92C42}"/>
+    <hyperlink ref="B71" r:id="rId34" display="https://countrycode.org/hungary" xr:uid="{9014078A-1DC5-1D48-9837-ABA287922CFA}"/>
+    <hyperlink ref="B73" r:id="rId35" display="https://countrycode.org/iceland" xr:uid="{CDF63D1B-9764-9046-86EF-F5D630570A77}"/>
+    <hyperlink ref="B32" r:id="rId36" display="https://countrycode.org/india" xr:uid="{D46CDE7F-C1D9-CE4F-85F4-3978A19587DB}"/>
+    <hyperlink ref="B72" r:id="rId37" display="https://countrycode.org/indonesia" xr:uid="{8D399D9B-F96B-1047-8B6C-E0E9F0FA9134}"/>
+    <hyperlink ref="B5" r:id="rId38" display="https://countrycode.org/iraq" xr:uid="{765774FB-C294-9F47-9149-0FB5D0B4ADEF}"/>
+    <hyperlink ref="B33" r:id="rId39" display="https://countrycode.org/ireland" xr:uid="{BD930EB9-001E-0B46-A76E-27B580DFE531}"/>
+    <hyperlink ref="B76" r:id="rId40" display="https://countrycode.org/israel" xr:uid="{8C80D2CA-8CF6-E544-8785-C87CC3588BF9}"/>
+    <hyperlink ref="B74" r:id="rId41" display="https://countrycode.org/italy" xr:uid="{81F96A88-44C2-854A-AD0E-D6F3AF5629AC}"/>
+    <hyperlink ref="B78" r:id="rId42" display="https://countrycode.org/japan" xr:uid="{5D4005F5-1E0A-0E43-A89F-63653792F9E9}"/>
+    <hyperlink ref="B6" r:id="rId43" display="https://countrycode.org/jordan" xr:uid="{BD41672D-93F7-9B46-BAA2-DA33F9F3CE5C}"/>
+    <hyperlink ref="B7" r:id="rId44" display="https://countrycode.org/kuwait" xr:uid="{2DD23851-84D3-6E44-83F2-1B67D59EE31D}"/>
+    <hyperlink ref="B81" r:id="rId45" display="https://countrycode.org/latvia" xr:uid="{2BED9785-02A5-0D41-9B68-B3630B7B5CFD}"/>
+    <hyperlink ref="B8" r:id="rId46" display="https://countrycode.org/lebanon" xr:uid="{45F3CCBE-A4AA-8D4C-A237-4673B4D8128F}"/>
+    <hyperlink ref="B9" r:id="rId47" display="https://countrycode.org/libya" xr:uid="{5A8FA451-83A2-F44D-93D5-954DC4F3D1E5}"/>
+    <hyperlink ref="B80" r:id="rId48" display="https://countrycode.org/lithuania" xr:uid="{A450E905-8F96-1942-A4E8-25FE8C8D3FBE}"/>
+    <hyperlink ref="B66" r:id="rId49" display="https://countrycode.org/luxembourg" xr:uid="{A7A0394B-0E5C-0940-A400-25E674CACC2E}"/>
+    <hyperlink ref="B82" r:id="rId50" display="https://countrycode.org/macedonia" xr:uid="{A420A34A-9F0C-3F4D-A306-84D3AA50293C}"/>
+    <hyperlink ref="B83" r:id="rId51" display="https://countrycode.org/malaysia" xr:uid="{745F6C29-FCA7-5943-A33E-70F056C514D4}"/>
+    <hyperlink ref="B34" r:id="rId52" display="https://countrycode.org/malta" xr:uid="{F182B04C-0920-9841-86F7-050A66CBE3C3}"/>
+    <hyperlink ref="B51" r:id="rId53" display="https://countrycode.org/mexico" xr:uid="{41BDDF72-E2BC-7E40-BB31-7CF1DEB9A555}"/>
+    <hyperlink ref="B97" r:id="rId54" display="https://countrycode.org/montenegro" xr:uid="{89D44898-FF2C-714F-8733-0DB3CD0030F1}"/>
+    <hyperlink ref="B10" r:id="rId55" display="https://countrycode.org/morocco" xr:uid="{A5C162DD-EE65-CC44-B387-FCB4E130153C}"/>
+    <hyperlink ref="B86" r:id="rId56" display="https://countrycode.org/netherlands" xr:uid="{B05D7964-8E0B-1F4B-BCDD-C41226803B8A}"/>
+    <hyperlink ref="B35" r:id="rId57" display="https://countrycode.org/newzealand" xr:uid="{3E5FF6FB-0879-654E-A1EB-1739D5D00D82}"/>
+    <hyperlink ref="B52" r:id="rId58" display="https://countrycode.org/nicaragua" xr:uid="{2C481954-557D-9C46-9788-B4E5C713838F}"/>
+    <hyperlink ref="B87" r:id="rId59" display="https://countrycode.org/norway" xr:uid="{0A0CEE3B-29C5-DE46-AB4C-66EA3C7AC140}"/>
+    <hyperlink ref="B11" r:id="rId60" display="https://countrycode.org/oman" xr:uid="{B9D5DF48-2D1C-D749-B5EE-3D81F199F3B7}"/>
+    <hyperlink ref="B53" r:id="rId61" display="https://countrycode.org/panama" xr:uid="{4590BE7A-9319-154F-8EAF-FD68C83AAB82}"/>
+    <hyperlink ref="B54" r:id="rId62" display="https://countrycode.org/paraguay" xr:uid="{08FA7F94-0CD5-384E-BFE3-5F7423B307B8}"/>
+    <hyperlink ref="B55" r:id="rId63" display="https://countrycode.org/peru" xr:uid="{A15BF072-EE56-E842-8BAB-70F3C3FF88C3}"/>
+    <hyperlink ref="B36" r:id="rId64" display="https://countrycode.org/philippines" xr:uid="{D627B8BD-3FC2-FD44-BE09-43F6B419572B}"/>
+    <hyperlink ref="B88" r:id="rId65" display="https://countrycode.org/poland" xr:uid="{8EC558DE-149A-5A40-9CB4-89F94C423832}"/>
+    <hyperlink ref="B90" r:id="rId66" display="https://countrycode.org/portugal" xr:uid="{5B788388-BCF7-8847-AC76-C63A681EB816}"/>
+    <hyperlink ref="B56" r:id="rId67" display="https://countrycode.org/puertorico" xr:uid="{CCB923F8-2282-7245-823D-99CCC0FC1728}"/>
+    <hyperlink ref="B12" r:id="rId68" display="https://countrycode.org/qatar" xr:uid="{2A73F34F-BF0B-8843-B3C6-C5571F34E26F}"/>
+    <hyperlink ref="B91" r:id="rId69" display="https://countrycode.org/romania" xr:uid="{5C2D7325-6A60-9B4A-A2F6-D4F1DCA7EE26}"/>
+    <hyperlink ref="B92" r:id="rId70" display="https://countrycode.org/russia" xr:uid="{6353707C-BE8B-0B4F-9202-82CBBC0D1F8B}"/>
+    <hyperlink ref="B13" r:id="rId71" display="https://countrycode.org/saudiarabia" xr:uid="{0110E9B3-C334-A54F-82E0-08AED7C48A5D}"/>
+    <hyperlink ref="B98" r:id="rId72" display="https://countrycode.org/serbia" xr:uid="{B027B925-66F0-F640-BFDB-3E09BF3D76B6}"/>
+    <hyperlink ref="B99" r:id="rId73" display="https://countrycode.org/seychelles" xr:uid="{A17FB1FA-9145-694D-A900-FEC5C4EC9965}"/>
+    <hyperlink ref="B37" r:id="rId74" display="https://countrycode.org/singapore" xr:uid="{9BE77D65-CE6D-B249-BA0A-0BD23CAF8895}"/>
+    <hyperlink ref="B93" r:id="rId75" display="https://countrycode.org/slovakia" xr:uid="{817929C8-4CB9-F34E-859C-80F9BA460B03}"/>
+    <hyperlink ref="B94" r:id="rId76" display="https://countrycode.org/slovenia" xr:uid="{3CEAAB15-CCAF-FC41-8B57-A2FE2E9C6670}"/>
+    <hyperlink ref="B38" r:id="rId77" display="https://countrycode.org/southafrica" xr:uid="{266572DE-4E09-AD48-9E29-AEF140BE3219}"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://countrycode.org/southkorea" xr:uid="{C46541AD-507B-9143-B0EE-F42D7F23CCFC}"/>
+    <hyperlink ref="B57" r:id="rId79" display="https://countrycode.org/spain" xr:uid="{D697E321-5968-F842-90AD-5DD5A7E79787}"/>
+    <hyperlink ref="B14" r:id="rId80" display="https://countrycode.org/sudan" xr:uid="{1989F6A0-51DC-8F4F-AEA3-4983F66D6E01}"/>
+    <hyperlink ref="B100" r:id="rId81" display="https://countrycode.org/swaziland" xr:uid="{9F5EF16D-16BF-2645-A1C0-938C2CFA59FE}"/>
+    <hyperlink ref="B67" r:id="rId82" display="https://countrycode.org/switzerland" xr:uid="{14436A5F-90F0-3D4F-BBA6-3FB2D75A88A1}"/>
+    <hyperlink ref="B15" r:id="rId83" display="https://countrycode.org/syria" xr:uid="{8D759E35-3362-BB41-8104-1D4612AC71DF}"/>
+    <hyperlink ref="B109" r:id="rId84" display="https://countrycode.org/taiwan" xr:uid="{D9F3B066-7009-D842-BCC7-D0010F7A9673}"/>
+    <hyperlink ref="B102" r:id="rId85" display="https://countrycode.org/thailand" xr:uid="{63A2F74E-37C8-7343-8973-DD0699AFB537}"/>
+    <hyperlink ref="B16" r:id="rId86" display="https://countrycode.org/tunisia" xr:uid="{5A1DA306-2241-554E-ACD7-2691F758D105}"/>
+    <hyperlink ref="B103" r:id="rId87" display="https://countrycode.org/turkey" xr:uid="{AF8D7776-22A4-DB46-996A-9154B1843706}"/>
+    <hyperlink ref="B104" r:id="rId88" display="https://countrycode.org/ukraine" xr:uid="{2B4CEAB7-FCDD-B043-B356-11AD3F0663F1}"/>
+    <hyperlink ref="B17" r:id="rId89" display="https://countrycode.org/uae" xr:uid="{E5339F2E-0E22-7A4D-A0B6-B9DED1BE277D}"/>
+    <hyperlink ref="B39" r:id="rId90" display="https://countrycode.org/uk" xr:uid="{642CEA19-991C-804F-8481-1EDA09A39CEE}"/>
+    <hyperlink ref="B40" r:id="rId91" display="https://countrycode.org/usa" xr:uid="{C1187652-EAD5-3B4F-BBEB-7CC62934D5E5}"/>
+    <hyperlink ref="B59" r:id="rId92" display="https://countrycode.org/uruguay" xr:uid="{BF16DDCF-E15F-7B4A-9935-04A40B546544}"/>
+    <hyperlink ref="B60" r:id="rId93" display="https://countrycode.org/venezuela" xr:uid="{E79C679A-44D6-7D44-9323-754022293B70}"/>
+    <hyperlink ref="B105" r:id="rId94" display="https://countrycode.org/vietnam" xr:uid="{4522F82B-8749-A94D-B944-BFF032951D45}"/>
+    <hyperlink ref="B18" r:id="rId95" display="https://countrycode.org/yemen" xr:uid="{59BF3A13-6F73-E046-ABD1-CF4A61617AD5}"/>
     <hyperlink ref="B256" r:id="rId96" display="https://countrycode.org/zimbabwe" xr:uid="{8E9B7FF3-6402-9946-9E74-A4F8F74FB803}"/>
     <hyperlink ref="B255" r:id="rId97" display="https://countrycode.org/zambia" xr:uid="{3E790804-2D9E-8C46-A3A5-512187195293}"/>
-    <hyperlink ref="B253" r:id="rId98" display="https://countrycode.org/westernsahara" xr:uid="{7DE729E9-EF1D-A743-902D-3BE9083F5ADE}"/>
-    <hyperlink ref="B252" r:id="rId99" display="https://countrycode.org/wallisandfutuna" xr:uid="{86BA9E76-7DA8-484D-A04D-809C969F205B}"/>
-    <hyperlink ref="B249" r:id="rId100" display="https://countrycode.org/vatican" xr:uid="{35947EC9-0CD8-A44C-AB5A-8F011BFFF50C}"/>
-    <hyperlink ref="B248" r:id="rId101" display="https://countrycode.org/vanuatu" xr:uid="{903FAD78-C338-1B43-B6E8-F929663CCD0C}"/>
-    <hyperlink ref="B247" r:id="rId102" display="https://countrycode.org/uzbekistan" xr:uid="{C083B24B-3728-0848-8267-14F9B42FE6F6}"/>
-    <hyperlink ref="B240" r:id="rId103" display="https://countrycode.org/uganda" xr:uid="{041D6136-CAC7-1246-85DD-559195A4628F}"/>
-    <hyperlink ref="B239" r:id="rId104" display="https://countrycode.org/virginislands" xr:uid="{F7025D04-80D0-6A42-BF67-010D508CA6D1}"/>
-    <hyperlink ref="B238" r:id="rId105" display="https://countrycode.org/tuvalu" xr:uid="{EF8587AC-5447-394D-9E48-BCAB43A8AE8A}"/>
-    <hyperlink ref="B237" r:id="rId106" display="https://countrycode.org/turksandcaicos" xr:uid="{936A3C71-CBCB-E845-885D-485014F118E1}"/>
-    <hyperlink ref="B236" r:id="rId107" display="https://countrycode.org/turkmenistan" xr:uid="{11C49448-349E-DD41-835C-FCBBF9E9BD1E}"/>
-    <hyperlink ref="B233" r:id="rId108" display="https://countrycode.org/trinidadandtobago" xr:uid="{FF49E5AD-C16E-1246-B387-08820170FC79}"/>
-    <hyperlink ref="B232" r:id="rId109" display="https://countrycode.org/tonga" xr:uid="{00ECD5E6-84C4-4346-8009-8D28734C4178}"/>
-    <hyperlink ref="B231" r:id="rId110" display="https://countrycode.org/tokelau" xr:uid="{D860920F-016B-0F44-8E52-B7740A444832}"/>
-    <hyperlink ref="B230" r:id="rId111" display="https://countrycode.org/togo" xr:uid="{85417428-6282-0C4D-9A27-9203938A35E8}"/>
-    <hyperlink ref="B227" r:id="rId112" display="https://countrycode.org/tanzania" xr:uid="{A812EB9A-4A7D-6D43-8C51-12CB5D3B8F75}"/>
-    <hyperlink ref="B226" r:id="rId113" display="https://countrycode.org/tajikistan" xr:uid="{C3F6A510-769F-B245-A2FC-15C4D48CB6A0}"/>
-    <hyperlink ref="B220" r:id="rId114" display="https://countrycode.org/sweden" xr:uid="{ED0DF3CA-92FB-5A47-8241-4B561F56AF19}"/>
-    <hyperlink ref="B218" r:id="rId115" display="https://countrycode.org/svalbard" xr:uid="{898894BD-2E42-044D-9A67-A94DE8247137}"/>
-    <hyperlink ref="B217" r:id="rId116" display="https://countrycode.org/suriname" xr:uid="{98222181-30AD-6B44-BBEB-648D23E637DE}"/>
-    <hyperlink ref="B215" r:id="rId117" display="https://countrycode.org/srilanka" xr:uid="{C758396C-DE40-6740-92EA-2899349A88F1}"/>
-    <hyperlink ref="B212" r:id="rId118" display="https://countrycode.org/southsudan" xr:uid="{0A537ED5-C212-8C40-B598-B2EE6454A2BA}"/>
-    <hyperlink ref="B209" r:id="rId119" display="https://countrycode.org/somalia" xr:uid="{3811D7D0-0122-DD4D-8084-96DA5FEEACA3}"/>
-    <hyperlink ref="B208" r:id="rId120" display="https://countrycode.org/solomonislands" xr:uid="{A717C126-DFF7-5A4A-955F-6B9854A0D6E4}"/>
-    <hyperlink ref="B205" r:id="rId121" display="https://countrycode.org/sintmaarten" xr:uid="{3D5A5952-C061-7D40-B84D-00506710FD65}"/>
-    <hyperlink ref="B202" r:id="rId122" display="https://countrycode.org/sierraleone" xr:uid="{FC0AE630-1E32-1641-B19B-6BCD25B1521E}"/>
-    <hyperlink ref="B198" r:id="rId123" display="https://countrycode.org/senegal" xr:uid="{178FD444-577C-244A-9EA7-761EFC3773B0}"/>
-    <hyperlink ref="B196" r:id="rId124" display="https://countrycode.org/saotomeandprincipe" xr:uid="{BE85460B-CAC3-AB4C-B86E-DAC1013A6A04}"/>
-    <hyperlink ref="B195" r:id="rId125" display="https://countrycode.org/sanmarino" xr:uid="{9799B7EB-CD53-5545-8963-39B543C06974}"/>
-    <hyperlink ref="B194" r:id="rId126" display="https://countrycode.org/samoa" xr:uid="{F547D1C2-E65B-BE4D-9619-FB2A81381095}"/>
-    <hyperlink ref="B193" r:id="rId127" display="https://countrycode.org/stvincent" xr:uid="{C7946E6B-3CCD-6F4F-875B-EC3EEF391463}"/>
-    <hyperlink ref="B192" r:id="rId128" display="https://countrycode.org/stpierre" xr:uid="{7D90FBF1-59CF-9C4F-96DD-E9E510C87B07}"/>
-    <hyperlink ref="B191" r:id="rId129" display="https://countrycode.org/stmartin" xr:uid="{3C35466A-C9CE-B946-A794-4A981FA3E94B}"/>
-    <hyperlink ref="B190" r:id="rId130" display="https://countrycode.org/stlucia" xr:uid="{38F1D5CE-54EF-904E-BF9C-194D75B2FFED}"/>
-    <hyperlink ref="B189" r:id="rId131" display="https://countrycode.org/stkitts" xr:uid="{6F25E7B3-A43A-2648-815E-03330C3D9A7B}"/>
-    <hyperlink ref="B188" r:id="rId132" display="https://countrycode.org/sthelena" xr:uid="{C56F22FE-73C1-3D4E-BC26-70E1B6199DA7}"/>
-    <hyperlink ref="B187" r:id="rId133" display="https://countrycode.org/saintbarthelemy" xr:uid="{CB15A89B-2F83-8C42-9585-6B624A448E32}"/>
-    <hyperlink ref="B186" r:id="rId134" display="https://countrycode.org/rwanda" xr:uid="{47C2D8FB-8E5B-0E48-889B-58B0E295D0C6}"/>
-    <hyperlink ref="B183" r:id="rId135" display="https://countrycode.org/reunion" xr:uid="{563A6CD0-375C-B24C-A468-427FD9EF09F3}"/>
-    <hyperlink ref="B182" r:id="rId136" display="https://countrycode.org/congo" xr:uid="{448FF584-D8F1-F648-8334-B134B8283C2B}"/>
-    <hyperlink ref="B177" r:id="rId137" display="https://countrycode.org/pitcairnislands" xr:uid="{ED961BB0-5C13-2241-914E-0BBB19B2F05C}"/>
-    <hyperlink ref="B173" r:id="rId138" display="https://countrycode.org/papuanewguinea" xr:uid="{5F085C90-DAE8-D24E-8A25-B95E27381F56}"/>
-    <hyperlink ref="B171" r:id="rId139" display="https://countrycode.org/palestine" xr:uid="{B63EC55B-5B1D-8944-BD80-3D5C631666BA}"/>
-    <hyperlink ref="B170" r:id="rId140" display="https://countrycode.org/palau" xr:uid="{7D2C7192-8E8B-4741-9BE5-3A3D186B0B51}"/>
-    <hyperlink ref="B169" r:id="rId141" display="https://countrycode.org/pakistan" xr:uid="{75D7296A-B0BF-9B47-8988-628F1FF008C6}"/>
-    <hyperlink ref="B166" r:id="rId142" display="https://countrycode.org/northernmarianaislands" xr:uid="{F4F040AA-B6FF-8D46-8E48-07FE223E3CA9}"/>
-    <hyperlink ref="B165" r:id="rId143" display="https://countrycode.org/northkorea" xr:uid="{DD2DE97C-91E6-7746-BD95-A1C40310EC78}"/>
-    <hyperlink ref="B164" r:id="rId144" display="https://countrycode.org/niue" xr:uid="{7940A048-DA7E-694D-8982-1B2A14677A1C}"/>
-    <hyperlink ref="B163" r:id="rId145" display="https://countrycode.org/nigeria" xr:uid="{D7F1AE96-E98E-494C-951C-46877CC89166}"/>
-    <hyperlink ref="B162" r:id="rId146" display="https://countrycode.org/niger" xr:uid="{E2EF17B9-0587-6C4F-AADD-1491C9F47BD5}"/>
-    <hyperlink ref="B159" r:id="rId147" display="https://countrycode.org/newcaledonia" xr:uid="{B047A99E-EB11-654D-9DCF-81FE906004F2}"/>
-    <hyperlink ref="B158" r:id="rId148" display="https://countrycode.org/netherlandsantilles" xr:uid="{009BDE5D-0FFC-3745-9539-BB14537AE30D}"/>
-    <hyperlink ref="B156" r:id="rId149" display="https://countrycode.org/nepal" xr:uid="{B14115EA-8D3A-3245-892F-C9A50B8B52F9}"/>
-    <hyperlink ref="B155" r:id="rId150" display="https://countrycode.org/nauru" xr:uid="{654F8A9D-2129-0E42-89F0-8B12403B1DB1}"/>
-    <hyperlink ref="B154" r:id="rId151" display="https://countrycode.org/namibia" xr:uid="{8831E5E0-5F0A-FE4E-94B3-2D1A34703F51}"/>
-    <hyperlink ref="B153" r:id="rId152" display="https://countrycode.org/burma" xr:uid="{947A5161-A375-A449-AA7B-B896F94500D9}"/>
-    <hyperlink ref="B152" r:id="rId153" display="https://countrycode.org/mozambique" xr:uid="{A868C81D-2933-9947-8404-6BE5270F4D6B}"/>
-    <hyperlink ref="B150" r:id="rId154" display="https://countrycode.org/montserrat" xr:uid="{F60DC1F5-CC51-954A-ABB6-4BAB80BBC4F6}"/>
-    <hyperlink ref="B148" r:id="rId155" display="https://countrycode.org/mongolia" xr:uid="{129E24BC-965C-B645-969B-3233E3912112}"/>
-    <hyperlink ref="B147" r:id="rId156" display="https://countrycode.org/monaco" xr:uid="{26DAD3B1-463D-4D4B-8F66-912800A882D8}"/>
-    <hyperlink ref="B146" r:id="rId157" display="https://countrycode.org/moldova" xr:uid="{EE836C67-B5ED-D44A-B38F-E1CD1C8A4938}"/>
-    <hyperlink ref="B145" r:id="rId158" display="https://countrycode.org/micronesia" xr:uid="{F2BA089D-9FB2-0447-BA1E-520283CDA11F}"/>
-    <hyperlink ref="B143" r:id="rId159" display="https://countrycode.org/mayotte" xr:uid="{CDE83C4F-4B75-3145-99F9-F4E74270D3C8}"/>
-    <hyperlink ref="B142" r:id="rId160" display="https://countrycode.org/mauritius" xr:uid="{70D9DB1A-2980-E348-BFD9-1D31465D1F66}"/>
-    <hyperlink ref="B141" r:id="rId161" display="https://countrycode.org/mauritania" xr:uid="{48778E8F-718A-3440-BF54-9917DFE2AE4F}"/>
-    <hyperlink ref="B140" r:id="rId162" display="https://countrycode.org/marshallislands" xr:uid="{975309F4-D70F-3644-9D99-CF4F793FDA37}"/>
-    <hyperlink ref="B137" r:id="rId163" display="https://countrycode.org/mali" xr:uid="{3DC14AB4-817C-A644-9D0A-6895B5A0D742}"/>
-    <hyperlink ref="B136" r:id="rId164" display="https://countrycode.org/maldives" xr:uid="{D16859A5-4760-8D4C-8583-3A6228B27A1B}"/>
-    <hyperlink ref="B134" r:id="rId165" display="https://countrycode.org/malawi" xr:uid="{9BF5CD7B-4DAA-F84F-912E-B42485E33956}"/>
-    <hyperlink ref="B133" r:id="rId166" display="https://countrycode.org/madagascar" xr:uid="{D02D0BC6-0F2E-664F-BFCC-997B929620DA}"/>
-    <hyperlink ref="B131" r:id="rId167" display="https://countrycode.org/macau" xr:uid="{0CFC3002-E22F-D24C-BFD5-8DB930DC4271}"/>
-    <hyperlink ref="B127" r:id="rId168" display="https://countrycode.org/liechtenstein" xr:uid="{FAFBC7A1-58B4-9C4B-9716-8531C22655ED}"/>
-    <hyperlink ref="B125" r:id="rId169" display="https://countrycode.org/liberia" xr:uid="{C00AE2FE-4A12-4F49-8463-074798DEDAF7}"/>
-    <hyperlink ref="B124" r:id="rId170" display="https://countrycode.org/lesotho" xr:uid="{FDEC945C-FB48-5D48-9990-CF8084C46B93}"/>
-    <hyperlink ref="B121" r:id="rId171" display="https://countrycode.org/laos" xr:uid="{8BB7FB49-75BD-C349-AB43-2684D520682D}"/>
-    <hyperlink ref="B120" r:id="rId172" display="https://countrycode.org/kyrgyzstan" xr:uid="{03020B3E-D000-8C4E-93A8-EEC5437B62BF}"/>
-    <hyperlink ref="B118" r:id="rId173" display="https://countrycode.org/kosovo" xr:uid="{08E89C28-5C03-1340-AB47-FA4782B043C4}"/>
-    <hyperlink ref="B117" r:id="rId174" display="https://countrycode.org/kiribati" xr:uid="{80DE6BAB-6573-A74A-AE71-654CE77D9F5A}"/>
-    <hyperlink ref="B116" r:id="rId175" display="https://countrycode.org/kenya" xr:uid="{629D3D00-E7E9-AF41-A084-013245B49CA2}"/>
-    <hyperlink ref="B115" r:id="rId176" display="https://countrycode.org/kazakhstan" xr:uid="{F4350962-3E1C-4C4F-9F3B-D86443CF1E2F}"/>
-    <hyperlink ref="B113" r:id="rId177" display="https://countrycode.org/jersey" xr:uid="{89283202-D221-5B47-A59A-7F2298A4E4C8}"/>
-    <hyperlink ref="B110" r:id="rId178" display="https://countrycode.org/jamaica" xr:uid="{634FF95C-4DDB-FF4C-8072-0DF85A42312B}"/>
-    <hyperlink ref="B109" r:id="rId179" display="https://countrycode.org/ivorycoast" xr:uid="{5D21594C-F6F9-1C45-BFE4-B16E06B5F12F}"/>
-    <hyperlink ref="B105" r:id="rId180" display="https://countrycode.org/isleofman" xr:uid="{EC57A8D0-3134-1841-A920-38E42E5CFA61}"/>
-    <hyperlink ref="B101" r:id="rId181" display="https://countrycode.org/iran" xr:uid="{EECA986F-30C4-5542-BE10-91586527F4F4}"/>
-    <hyperlink ref="B93" r:id="rId182" display="https://countrycode.org/haiti" xr:uid="{643C3C93-80A6-A447-9C92-1555CB47CB68}"/>
-    <hyperlink ref="B92" r:id="rId183" display="https://countrycode.org/guyana" xr:uid="{52628704-315A-B644-A375-2F7533928241}"/>
-    <hyperlink ref="B91" r:id="rId184" display="https://countrycode.org/guineabissau" xr:uid="{97A02505-A321-214E-B235-32D7521CA1E4}"/>
-    <hyperlink ref="B90" r:id="rId185" display="https://countrycode.org/guinea" xr:uid="{F89DAC08-D290-B145-AFD5-4C522BDC8F9E}"/>
-    <hyperlink ref="B89" r:id="rId186" display="https://countrycode.org/guernsey" xr:uid="{51AD8DC7-137C-3F41-986F-2968E88B14DF}"/>
-    <hyperlink ref="B87" r:id="rId187" display="https://countrycode.org/guam" xr:uid="{A3C39277-7B29-0C45-9B5F-F44365C90258}"/>
-    <hyperlink ref="B86" r:id="rId188" display="https://countrycode.org/grenada" xr:uid="{B9079CF4-782B-8244-959E-15C01093FF2D}"/>
-    <hyperlink ref="B85" r:id="rId189" display="https://countrycode.org/greenland" xr:uid="{F86B6688-44E9-9E46-9A3C-2BE62F5EA570}"/>
-    <hyperlink ref="B83" r:id="rId190" display="https://countrycode.org/gibraltar" xr:uid="{7CF9D34B-58B4-2A4E-BB65-6588C0BE1508}"/>
-    <hyperlink ref="B82" r:id="rId191" display="https://countrycode.org/ghana" xr:uid="{93E64B20-9454-BC48-B01B-93C9DA1A272D}"/>
-    <hyperlink ref="B80" r:id="rId192" display="https://countrycode.org/georgia" xr:uid="{796D6DBD-5B49-0645-9774-B1E8E19A96AD}"/>
-    <hyperlink ref="B79" r:id="rId193" display="https://countrycode.org/gambia" xr:uid="{4A852019-21F1-5345-B210-DAB52B446978}"/>
-    <hyperlink ref="B78" r:id="rId194" display="https://countrycode.org/gabon" xr:uid="{9AE3547E-CEAB-BC42-A46B-D044A74AABF6}"/>
-    <hyperlink ref="B77" r:id="rId195" display="https://countrycode.org/frenchpolynesia" xr:uid="{0B0659AB-8780-A847-8692-C61092A31174}"/>
-    <hyperlink ref="B74" r:id="rId196" display="https://countrycode.org/fiji" xr:uid="{393E05DB-FBB2-E140-888D-B259BBCC0286}"/>
-    <hyperlink ref="B73" r:id="rId197" display="https://countrycode.org/faroeislands" xr:uid="{B445B08A-1A1F-FA48-A8BF-AFE87FB5FF7B}"/>
-    <hyperlink ref="B72" r:id="rId198" display="https://countrycode.org/falklands" xr:uid="{33214453-8EB5-AD4D-A712-86BEF324068E}"/>
-    <hyperlink ref="B71" r:id="rId199" display="https://countrycode.org/ethiopia" xr:uid="{5BE7C518-6D46-124D-8785-DBAF1A3AA015}"/>
-    <hyperlink ref="B69" r:id="rId200" display="https://countrycode.org/eritrea" xr:uid="{DE2CEFFC-28FD-594A-B450-24C4C2774158}"/>
-    <hyperlink ref="B68" r:id="rId201" display="https://countrycode.org/equatorialguinea" xr:uid="{2E253AE9-096F-4243-A16B-D3A55E5726E4}"/>
-    <hyperlink ref="B64" r:id="rId202" display="https://countrycode.org/easttimor" xr:uid="{55BE2B37-5C8C-BD44-9E6E-499685E80FFE}"/>
-    <hyperlink ref="B62" r:id="rId203" display="https://countrycode.org/dominica" xr:uid="{D75A8FC3-07A6-864D-8769-72CFC07D46AD}"/>
-    <hyperlink ref="B61" r:id="rId204" display="https://countrycode.org/djibouti" xr:uid="{7415B62D-C73F-594F-81C0-6B67698D8321}"/>
-    <hyperlink ref="B59" r:id="rId205" display="https://countrycode.org/congodemocraticrepublic" xr:uid="{8F06A8C0-17D6-DE4C-89FA-3656B8D72E85}"/>
-    <hyperlink ref="B56" r:id="rId206" display="https://countrycode.org/curacao" xr:uid="{1A6846B9-271E-DE47-B3DF-714EA5D3D54A}"/>
-    <hyperlink ref="B55" r:id="rId207" display="https://countrycode.org/cuba" xr:uid="{C0BFB8CE-2473-724C-8E14-8A32C7F941D2}"/>
-    <hyperlink ref="B52" r:id="rId208" display="https://countrycode.org/cookislands" xr:uid="{2523BCB3-D2BE-D541-AB76-B3039989FB2F}"/>
-    <hyperlink ref="B51" r:id="rId209" display="https://countrycode.org/comoros" xr:uid="{F85BDD58-7694-6843-B96D-CD61AE1174C3}"/>
-    <hyperlink ref="B49" r:id="rId210" display="https://countrycode.org/cocoskeelingislands" xr:uid="{23051366-5C45-1443-8846-F8EB4D3DCB50}"/>
-    <hyperlink ref="B48" r:id="rId211" display="https://countrycode.org/christmasisland" xr:uid="{00911325-626E-B74F-A2F4-E3F8EE5F0FA7}"/>
-    <hyperlink ref="B45" r:id="rId212" display="https://countrycode.org/chad" xr:uid="{08746853-BDBF-3D48-8D8A-98B11D479FA7}"/>
-    <hyperlink ref="B44" r:id="rId213" display="https://countrycode.org/centralafricanrepublic" xr:uid="{1DD07354-45C4-414C-9DDB-013182C25CAF}"/>
-    <hyperlink ref="B43" r:id="rId214" display="https://countrycode.org/caymanislands" xr:uid="{66989346-1926-D541-802F-F909D383AB4D}"/>
-    <hyperlink ref="B42" r:id="rId215" display="https://countrycode.org/capeverde" xr:uid="{D7ADEBF6-3F37-8D48-A9B7-2A74A4833B4B}"/>
-    <hyperlink ref="B39" r:id="rId216" display="https://countrycode.org/cameroon" xr:uid="{B8F76CD1-CF21-984D-B90E-0EB90CDAA8E5}"/>
-    <hyperlink ref="B38" r:id="rId217" display="https://countrycode.org/cambodia" xr:uid="{5617EC6A-CCE8-E340-9B5C-6A1814EEB7B3}"/>
-    <hyperlink ref="B37" r:id="rId218" display="https://countrycode.org/burundi" xr:uid="{3E1D8332-B822-AC48-99D2-027A2A4A82FF}"/>
-    <hyperlink ref="B36" r:id="rId219" display="https://countrycode.org/burkinafaso" xr:uid="{8C662493-3B81-914E-994C-08C7111C5082}"/>
-    <hyperlink ref="B34" r:id="rId220" display="https://countrycode.org/brunei" xr:uid="{300991BE-6CE1-7248-834D-9486926AEB45}"/>
-    <hyperlink ref="B33" r:id="rId221" display="https://countrycode.org/britishvirginislands" xr:uid="{06481640-CB20-984D-B59D-1F7F23D73F54}"/>
-    <hyperlink ref="B32" r:id="rId222" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{CB6D75D5-4B98-0B48-B197-3E73719543D3}"/>
-    <hyperlink ref="B30" r:id="rId223" display="https://countrycode.org/botswana" xr:uid="{2DB4AB28-0D0A-8148-9FD4-77647FDF145F}"/>
-    <hyperlink ref="B27" r:id="rId224" display="https://countrycode.org/bhutan" xr:uid="{863DE961-D875-BB4A-956C-2248B3795CBC}"/>
-    <hyperlink ref="B26" r:id="rId225" display="https://countrycode.org/bermuda" xr:uid="{8E5ABE97-4F40-9641-95AC-5B924CA458E3}"/>
-    <hyperlink ref="B25" r:id="rId226" display="https://countrycode.org/benin" xr:uid="{8E46D4C5-F0A1-C24E-A15C-9B460DACA4AC}"/>
-    <hyperlink ref="B24" r:id="rId227" display="https://countrycode.org/belize" xr:uid="{A37E341B-F465-A949-9FB9-19EFAD536E57}"/>
-    <hyperlink ref="B20" r:id="rId228" display="https://countrycode.org/barbados" xr:uid="{06B514F8-763E-8244-B0A0-40BF62D619DA}"/>
-    <hyperlink ref="B19" r:id="rId229" display="https://countrycode.org/bangladesh" xr:uid="{DEC4E054-7D25-3041-B141-4B3BAEE70E2E}"/>
-    <hyperlink ref="B17" r:id="rId230" display="https://countrycode.org/bahamas" xr:uid="{2C0067AB-A816-394D-A80E-61024BEA58AF}"/>
-    <hyperlink ref="B16" r:id="rId231" display="https://countrycode.org/azerbaijan" xr:uid="{99C7CF3B-D828-104B-A11A-756BCCDCC70C}"/>
-    <hyperlink ref="B13" r:id="rId232" display="https://countrycode.org/aruba" xr:uid="{C1B01431-45F6-9E49-B355-EB1A8874B1B6}"/>
-    <hyperlink ref="B12" r:id="rId233" display="https://countrycode.org/armenia" xr:uid="{E58E4E9A-F7EC-1342-B686-143530219BA9}"/>
-    <hyperlink ref="B10" r:id="rId234" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{6434E0AC-B422-1D47-8E20-AC42F385A85D}"/>
-    <hyperlink ref="B9" r:id="rId235" display="https://countrycode.org/antarctica" xr:uid="{63C673C1-460A-5948-B73A-4BD675EA1D60}"/>
-    <hyperlink ref="B8" r:id="rId236" display="https://countrycode.org/anguilla" xr:uid="{4009DB37-3629-D141-95BE-BA66E729B2C3}"/>
-    <hyperlink ref="B7" r:id="rId237" display="https://countrycode.org/angola" xr:uid="{580F1E3B-A599-904E-AC6C-D3247283BCF8}"/>
-    <hyperlink ref="B6" r:id="rId238" display="https://countrycode.org/andorra" xr:uid="{3EACF7B3-33CE-F149-A4D6-C2611CF39A62}"/>
-    <hyperlink ref="B5" r:id="rId239" display="https://countrycode.org/americansamoa" xr:uid="{830EB6F3-5D8A-F641-9C93-7BF4CC805E51}"/>
-    <hyperlink ref="B2" r:id="rId240" display="https://countrycode.org/afghanistan" xr:uid="{5E1801C2-C82A-6144-AECE-68F3DE9EEE03}"/>
+    <hyperlink ref="B254" r:id="rId98" display="https://countrycode.org/westernsahara" xr:uid="{7DE729E9-EF1D-A743-902D-3BE9083F5ADE}"/>
+    <hyperlink ref="B253" r:id="rId99" display="https://countrycode.org/wallisandfutuna" xr:uid="{86BA9E76-7DA8-484D-A04D-809C969F205B}"/>
+    <hyperlink ref="B252" r:id="rId100" display="https://countrycode.org/vatican" xr:uid="{35947EC9-0CD8-A44C-AB5A-8F011BFFF50C}"/>
+    <hyperlink ref="B251" r:id="rId101" display="https://countrycode.org/vanuatu" xr:uid="{903FAD78-C338-1B43-B6E8-F929663CCD0C}"/>
+    <hyperlink ref="B250" r:id="rId102" display="https://countrycode.org/uzbekistan" xr:uid="{C083B24B-3728-0848-8267-14F9B42FE6F6}"/>
+    <hyperlink ref="B249" r:id="rId103" display="https://countrycode.org/uganda" xr:uid="{041D6136-CAC7-1246-85DD-559195A4628F}"/>
+    <hyperlink ref="B248" r:id="rId104" display="https://countrycode.org/virginislands" xr:uid="{F7025D04-80D0-6A42-BF67-010D508CA6D1}"/>
+    <hyperlink ref="B247" r:id="rId105" display="https://countrycode.org/tuvalu" xr:uid="{EF8587AC-5447-394D-9E48-BCAB43A8AE8A}"/>
+    <hyperlink ref="B246" r:id="rId106" display="https://countrycode.org/turksandcaicos" xr:uid="{936A3C71-CBCB-E845-885D-485014F118E1}"/>
+    <hyperlink ref="B245" r:id="rId107" display="https://countrycode.org/turkmenistan" xr:uid="{11C49448-349E-DD41-835C-FCBBF9E9BD1E}"/>
+    <hyperlink ref="B244" r:id="rId108" display="https://countrycode.org/trinidadandtobago" xr:uid="{FF49E5AD-C16E-1246-B387-08820170FC79}"/>
+    <hyperlink ref="B243" r:id="rId109" display="https://countrycode.org/tonga" xr:uid="{00ECD5E6-84C4-4346-8009-8D28734C4178}"/>
+    <hyperlink ref="B242" r:id="rId110" display="https://countrycode.org/tokelau" xr:uid="{D860920F-016B-0F44-8E52-B7740A444832}"/>
+    <hyperlink ref="B241" r:id="rId111" display="https://countrycode.org/togo" xr:uid="{85417428-6282-0C4D-9A27-9203938A35E8}"/>
+    <hyperlink ref="B240" r:id="rId112" display="https://countrycode.org/tanzania" xr:uid="{A812EB9A-4A7D-6D43-8C51-12CB5D3B8F75}"/>
+    <hyperlink ref="B239" r:id="rId113" display="https://countrycode.org/tajikistan" xr:uid="{C3F6A510-769F-B245-A2FC-15C4D48CB6A0}"/>
+    <hyperlink ref="B238" r:id="rId114" display="https://countrycode.org/sweden" xr:uid="{ED0DF3CA-92FB-5A47-8241-4B561F56AF19}"/>
+    <hyperlink ref="B237" r:id="rId115" display="https://countrycode.org/svalbard" xr:uid="{898894BD-2E42-044D-9A67-A94DE8247137}"/>
+    <hyperlink ref="B236" r:id="rId116" display="https://countrycode.org/suriname" xr:uid="{98222181-30AD-6B44-BBEB-648D23E637DE}"/>
+    <hyperlink ref="B235" r:id="rId117" display="https://countrycode.org/srilanka" xr:uid="{C758396C-DE40-6740-92EA-2899349A88F1}"/>
+    <hyperlink ref="B234" r:id="rId118" display="https://countrycode.org/southsudan" xr:uid="{0A537ED5-C212-8C40-B598-B2EE6454A2BA}"/>
+    <hyperlink ref="B233" r:id="rId119" display="https://countrycode.org/somalia" xr:uid="{3811D7D0-0122-DD4D-8084-96DA5FEEACA3}"/>
+    <hyperlink ref="B232" r:id="rId120" display="https://countrycode.org/solomonislands" xr:uid="{A717C126-DFF7-5A4A-955F-6B9854A0D6E4}"/>
+    <hyperlink ref="B231" r:id="rId121" display="https://countrycode.org/sintmaarten" xr:uid="{3D5A5952-C061-7D40-B84D-00506710FD65}"/>
+    <hyperlink ref="B230" r:id="rId122" display="https://countrycode.org/sierraleone" xr:uid="{FC0AE630-1E32-1641-B19B-6BCD25B1521E}"/>
+    <hyperlink ref="B228" r:id="rId123" display="https://countrycode.org/senegal" xr:uid="{178FD444-577C-244A-9EA7-761EFC3773B0}"/>
+    <hyperlink ref="B227" r:id="rId124" display="https://countrycode.org/saotomeandprincipe" xr:uid="{BE85460B-CAC3-AB4C-B86E-DAC1013A6A04}"/>
+    <hyperlink ref="B226" r:id="rId125" display="https://countrycode.org/sanmarino" xr:uid="{9799B7EB-CD53-5545-8963-39B543C06974}"/>
+    <hyperlink ref="B225" r:id="rId126" display="https://countrycode.org/samoa" xr:uid="{F547D1C2-E65B-BE4D-9619-FB2A81381095}"/>
+    <hyperlink ref="B224" r:id="rId127" display="https://countrycode.org/stvincent" xr:uid="{C7946E6B-3CCD-6F4F-875B-EC3EEF391463}"/>
+    <hyperlink ref="B223" r:id="rId128" display="https://countrycode.org/stpierre" xr:uid="{7D90FBF1-59CF-9C4F-96DD-E9E510C87B07}"/>
+    <hyperlink ref="B222" r:id="rId129" display="https://countrycode.org/stmartin" xr:uid="{3C35466A-C9CE-B946-A794-4A981FA3E94B}"/>
+    <hyperlink ref="B221" r:id="rId130" display="https://countrycode.org/stlucia" xr:uid="{38F1D5CE-54EF-904E-BF9C-194D75B2FFED}"/>
+    <hyperlink ref="B220" r:id="rId131" display="https://countrycode.org/stkitts" xr:uid="{6F25E7B3-A43A-2648-815E-03330C3D9A7B}"/>
+    <hyperlink ref="B219" r:id="rId132" display="https://countrycode.org/sthelena" xr:uid="{C56F22FE-73C1-3D4E-BC26-70E1B6199DA7}"/>
+    <hyperlink ref="B218" r:id="rId133" display="https://countrycode.org/saintbarthelemy" xr:uid="{CB15A89B-2F83-8C42-9585-6B624A448E32}"/>
+    <hyperlink ref="B217" r:id="rId134" display="https://countrycode.org/rwanda" xr:uid="{47C2D8FB-8E5B-0E48-889B-58B0E295D0C6}"/>
+    <hyperlink ref="B216" r:id="rId135" display="https://countrycode.org/reunion" xr:uid="{563A6CD0-375C-B24C-A468-427FD9EF09F3}"/>
+    <hyperlink ref="B215" r:id="rId136" display="https://countrycode.org/congo" xr:uid="{448FF584-D8F1-F648-8334-B134B8283C2B}"/>
+    <hyperlink ref="B214" r:id="rId137" display="https://countrycode.org/pitcairnislands" xr:uid="{ED961BB0-5C13-2241-914E-0BBB19B2F05C}"/>
+    <hyperlink ref="B213" r:id="rId138" display="https://countrycode.org/papuanewguinea" xr:uid="{5F085C90-DAE8-D24E-8A25-B95E27381F56}"/>
+    <hyperlink ref="B212" r:id="rId139" display="https://countrycode.org/palestine" xr:uid="{B63EC55B-5B1D-8944-BD80-3D5C631666BA}"/>
+    <hyperlink ref="B211" r:id="rId140" display="https://countrycode.org/palau" xr:uid="{7D2C7192-8E8B-4741-9BE5-3A3D186B0B51}"/>
+    <hyperlink ref="B210" r:id="rId141" display="https://countrycode.org/pakistan" xr:uid="{75D7296A-B0BF-9B47-8988-628F1FF008C6}"/>
+    <hyperlink ref="B209" r:id="rId142" display="https://countrycode.org/northernmarianaislands" xr:uid="{F4F040AA-B6FF-8D46-8E48-07FE223E3CA9}"/>
+    <hyperlink ref="B208" r:id="rId143" display="https://countrycode.org/northkorea" xr:uid="{DD2DE97C-91E6-7746-BD95-A1C40310EC78}"/>
+    <hyperlink ref="B207" r:id="rId144" display="https://countrycode.org/niue" xr:uid="{7940A048-DA7E-694D-8982-1B2A14677A1C}"/>
+    <hyperlink ref="B206" r:id="rId145" display="https://countrycode.org/nigeria" xr:uid="{D7F1AE96-E98E-494C-951C-46877CC89166}"/>
+    <hyperlink ref="B205" r:id="rId146" display="https://countrycode.org/niger" xr:uid="{E2EF17B9-0587-6C4F-AADD-1491C9F47BD5}"/>
+    <hyperlink ref="B204" r:id="rId147" display="https://countrycode.org/newcaledonia" xr:uid="{B047A99E-EB11-654D-9DCF-81FE906004F2}"/>
+    <hyperlink ref="B203" r:id="rId148" display="https://countrycode.org/netherlandsantilles" xr:uid="{009BDE5D-0FFC-3745-9539-BB14537AE30D}"/>
+    <hyperlink ref="B202" r:id="rId149" display="https://countrycode.org/nepal" xr:uid="{B14115EA-8D3A-3245-892F-C9A50B8B52F9}"/>
+    <hyperlink ref="B201" r:id="rId150" display="https://countrycode.org/nauru" xr:uid="{654F8A9D-2129-0E42-89F0-8B12403B1DB1}"/>
+    <hyperlink ref="B200" r:id="rId151" display="https://countrycode.org/namibia" xr:uid="{8831E5E0-5F0A-FE4E-94B3-2D1A34703F51}"/>
+    <hyperlink ref="B199" r:id="rId152" display="https://countrycode.org/burma" xr:uid="{947A5161-A375-A449-AA7B-B896F94500D9}"/>
+    <hyperlink ref="B198" r:id="rId153" display="https://countrycode.org/mozambique" xr:uid="{A868C81D-2933-9947-8404-6BE5270F4D6B}"/>
+    <hyperlink ref="B197" r:id="rId154" display="https://countrycode.org/montserrat" xr:uid="{F60DC1F5-CC51-954A-ABB6-4BAB80BBC4F6}"/>
+    <hyperlink ref="B196" r:id="rId155" display="https://countrycode.org/mongolia" xr:uid="{129E24BC-965C-B645-969B-3233E3912112}"/>
+    <hyperlink ref="B195" r:id="rId156" display="https://countrycode.org/monaco" xr:uid="{26DAD3B1-463D-4D4B-8F66-912800A882D8}"/>
+    <hyperlink ref="B194" r:id="rId157" display="https://countrycode.org/moldova" xr:uid="{EE836C67-B5ED-D44A-B38F-E1CD1C8A4938}"/>
+    <hyperlink ref="B193" r:id="rId158" display="https://countrycode.org/micronesia" xr:uid="{F2BA089D-9FB2-0447-BA1E-520283CDA11F}"/>
+    <hyperlink ref="B192" r:id="rId159" display="https://countrycode.org/mayotte" xr:uid="{CDE83C4F-4B75-3145-99F9-F4E74270D3C8}"/>
+    <hyperlink ref="B191" r:id="rId160" display="https://countrycode.org/mauritius" xr:uid="{70D9DB1A-2980-E348-BFD9-1D31465D1F66}"/>
+    <hyperlink ref="B190" r:id="rId161" display="https://countrycode.org/mauritania" xr:uid="{48778E8F-718A-3440-BF54-9917DFE2AE4F}"/>
+    <hyperlink ref="B189" r:id="rId162" display="https://countrycode.org/marshallislands" xr:uid="{975309F4-D70F-3644-9D99-CF4F793FDA37}"/>
+    <hyperlink ref="B188" r:id="rId163" display="https://countrycode.org/mali" xr:uid="{3DC14AB4-817C-A644-9D0A-6895B5A0D742}"/>
+    <hyperlink ref="B187" r:id="rId164" display="https://countrycode.org/maldives" xr:uid="{D16859A5-4760-8D4C-8583-3A6228B27A1B}"/>
+    <hyperlink ref="B186" r:id="rId165" display="https://countrycode.org/malawi" xr:uid="{9BF5CD7B-4DAA-F84F-912E-B42485E33956}"/>
+    <hyperlink ref="B185" r:id="rId166" display="https://countrycode.org/madagascar" xr:uid="{D02D0BC6-0F2E-664F-BFCC-997B929620DA}"/>
+    <hyperlink ref="B184" r:id="rId167" display="https://countrycode.org/macau" xr:uid="{0CFC3002-E22F-D24C-BFD5-8DB930DC4271}"/>
+    <hyperlink ref="B183" r:id="rId168" display="https://countrycode.org/liechtenstein" xr:uid="{FAFBC7A1-58B4-9C4B-9716-8531C22655ED}"/>
+    <hyperlink ref="B182" r:id="rId169" display="https://countrycode.org/liberia" xr:uid="{C00AE2FE-4A12-4F49-8463-074798DEDAF7}"/>
+    <hyperlink ref="B181" r:id="rId170" display="https://countrycode.org/lesotho" xr:uid="{FDEC945C-FB48-5D48-9990-CF8084C46B93}"/>
+    <hyperlink ref="B180" r:id="rId171" display="https://countrycode.org/laos" xr:uid="{8BB7FB49-75BD-C349-AB43-2684D520682D}"/>
+    <hyperlink ref="B179" r:id="rId172" display="https://countrycode.org/kyrgyzstan" xr:uid="{03020B3E-D000-8C4E-93A8-EEC5437B62BF}"/>
+    <hyperlink ref="B178" r:id="rId173" display="https://countrycode.org/kosovo" xr:uid="{08E89C28-5C03-1340-AB47-FA4782B043C4}"/>
+    <hyperlink ref="B177" r:id="rId174" display="https://countrycode.org/kiribati" xr:uid="{80DE6BAB-6573-A74A-AE71-654CE77D9F5A}"/>
+    <hyperlink ref="B176" r:id="rId175" display="https://countrycode.org/kenya" xr:uid="{629D3D00-E7E9-AF41-A084-013245B49CA2}"/>
+    <hyperlink ref="B175" r:id="rId176" display="https://countrycode.org/kazakhstan" xr:uid="{F4350962-3E1C-4C4F-9F3B-D86443CF1E2F}"/>
+    <hyperlink ref="B174" r:id="rId177" display="https://countrycode.org/jersey" xr:uid="{89283202-D221-5B47-A59A-7F2298A4E4C8}"/>
+    <hyperlink ref="B173" r:id="rId178" display="https://countrycode.org/jamaica" xr:uid="{634FF95C-4DDB-FF4C-8072-0DF85A42312B}"/>
+    <hyperlink ref="B172" r:id="rId179" display="https://countrycode.org/ivorycoast" xr:uid="{5D21594C-F6F9-1C45-BFE4-B16E06B5F12F}"/>
+    <hyperlink ref="B170" r:id="rId180" display="https://countrycode.org/isleofman" xr:uid="{EC57A8D0-3134-1841-A920-38E42E5CFA61}"/>
+    <hyperlink ref="B169" r:id="rId181" display="https://countrycode.org/iran" xr:uid="{EECA986F-30C4-5542-BE10-91586527F4F4}"/>
+    <hyperlink ref="B168" r:id="rId182" display="https://countrycode.org/haiti" xr:uid="{643C3C93-80A6-A447-9C92-1555CB47CB68}"/>
+    <hyperlink ref="B167" r:id="rId183" display="https://countrycode.org/guyana" xr:uid="{52628704-315A-B644-A375-2F7533928241}"/>
+    <hyperlink ref="B166" r:id="rId184" display="https://countrycode.org/guineabissau" xr:uid="{97A02505-A321-214E-B235-32D7521CA1E4}"/>
+    <hyperlink ref="B165" r:id="rId185" display="https://countrycode.org/guinea" xr:uid="{F89DAC08-D290-B145-AFD5-4C522BDC8F9E}"/>
+    <hyperlink ref="B164" r:id="rId186" display="https://countrycode.org/guernsey" xr:uid="{51AD8DC7-137C-3F41-986F-2968E88B14DF}"/>
+    <hyperlink ref="B163" r:id="rId187" display="https://countrycode.org/guam" xr:uid="{A3C39277-7B29-0C45-9B5F-F44365C90258}"/>
+    <hyperlink ref="B162" r:id="rId188" display="https://countrycode.org/grenada" xr:uid="{B9079CF4-782B-8244-959E-15C01093FF2D}"/>
+    <hyperlink ref="B161" r:id="rId189" display="https://countrycode.org/greenland" xr:uid="{F86B6688-44E9-9E46-9A3C-2BE62F5EA570}"/>
+    <hyperlink ref="B160" r:id="rId190" display="https://countrycode.org/gibraltar" xr:uid="{7CF9D34B-58B4-2A4E-BB65-6588C0BE1508}"/>
+    <hyperlink ref="B159" r:id="rId191" display="https://countrycode.org/ghana" xr:uid="{93E64B20-9454-BC48-B01B-93C9DA1A272D}"/>
+    <hyperlink ref="B158" r:id="rId192" display="https://countrycode.org/georgia" xr:uid="{796D6DBD-5B49-0645-9774-B1E8E19A96AD}"/>
+    <hyperlink ref="B157" r:id="rId193" display="https://countrycode.org/gambia" xr:uid="{4A852019-21F1-5345-B210-DAB52B446978}"/>
+    <hyperlink ref="B156" r:id="rId194" display="https://countrycode.org/gabon" xr:uid="{9AE3547E-CEAB-BC42-A46B-D044A74AABF6}"/>
+    <hyperlink ref="B155" r:id="rId195" display="https://countrycode.org/frenchpolynesia" xr:uid="{0B0659AB-8780-A847-8692-C61092A31174}"/>
+    <hyperlink ref="B154" r:id="rId196" display="https://countrycode.org/fiji" xr:uid="{393E05DB-FBB2-E140-888D-B259BBCC0286}"/>
+    <hyperlink ref="B153" r:id="rId197" display="https://countrycode.org/faroeislands" xr:uid="{B445B08A-1A1F-FA48-A8BF-AFE87FB5FF7B}"/>
+    <hyperlink ref="B152" r:id="rId198" display="https://countrycode.org/falklands" xr:uid="{33214453-8EB5-AD4D-A712-86BEF324068E}"/>
+    <hyperlink ref="B151" r:id="rId199" display="https://countrycode.org/ethiopia" xr:uid="{5BE7C518-6D46-124D-8785-DBAF1A3AA015}"/>
+    <hyperlink ref="B150" r:id="rId200" display="https://countrycode.org/eritrea" xr:uid="{DE2CEFFC-28FD-594A-B450-24C4C2774158}"/>
+    <hyperlink ref="B149" r:id="rId201" display="https://countrycode.org/equatorialguinea" xr:uid="{2E253AE9-096F-4243-A16B-D3A55E5726E4}"/>
+    <hyperlink ref="B148" r:id="rId202" display="https://countrycode.org/easttimor" xr:uid="{55BE2B37-5C8C-BD44-9E6E-499685E80FFE}"/>
+    <hyperlink ref="B147" r:id="rId203" display="https://countrycode.org/dominica" xr:uid="{D75A8FC3-07A6-864D-8769-72CFC07D46AD}"/>
+    <hyperlink ref="B146" r:id="rId204" display="https://countrycode.org/djibouti" xr:uid="{7415B62D-C73F-594F-81C0-6B67698D8321}"/>
+    <hyperlink ref="B145" r:id="rId205" display="https://countrycode.org/congodemocraticrepublic" xr:uid="{8F06A8C0-17D6-DE4C-89FA-3656B8D72E85}"/>
+    <hyperlink ref="B144" r:id="rId206" display="https://countrycode.org/curacao" xr:uid="{1A6846B9-271E-DE47-B3DF-714EA5D3D54A}"/>
+    <hyperlink ref="B143" r:id="rId207" display="https://countrycode.org/cuba" xr:uid="{C0BFB8CE-2473-724C-8E14-8A32C7F941D2}"/>
+    <hyperlink ref="B142" r:id="rId208" display="https://countrycode.org/cookislands" xr:uid="{2523BCB3-D2BE-D541-AB76-B3039989FB2F}"/>
+    <hyperlink ref="B141" r:id="rId209" display="https://countrycode.org/comoros" xr:uid="{F85BDD58-7694-6843-B96D-CD61AE1174C3}"/>
+    <hyperlink ref="B140" r:id="rId210" display="https://countrycode.org/cocoskeelingislands" xr:uid="{23051366-5C45-1443-8846-F8EB4D3DCB50}"/>
+    <hyperlink ref="B139" r:id="rId211" display="https://countrycode.org/christmasisland" xr:uid="{00911325-626E-B74F-A2F4-E3F8EE5F0FA7}"/>
+    <hyperlink ref="B138" r:id="rId212" display="https://countrycode.org/chad" xr:uid="{08746853-BDBF-3D48-8D8A-98B11D479FA7}"/>
+    <hyperlink ref="B137" r:id="rId213" display="https://countrycode.org/centralafricanrepublic" xr:uid="{1DD07354-45C4-414C-9DDB-013182C25CAF}"/>
+    <hyperlink ref="B136" r:id="rId214" display="https://countrycode.org/caymanislands" xr:uid="{66989346-1926-D541-802F-F909D383AB4D}"/>
+    <hyperlink ref="B135" r:id="rId215" display="https://countrycode.org/capeverde" xr:uid="{D7ADEBF6-3F37-8D48-A9B7-2A74A4833B4B}"/>
+    <hyperlink ref="B134" r:id="rId216" display="https://countrycode.org/cameroon" xr:uid="{B8F76CD1-CF21-984D-B90E-0EB90CDAA8E5}"/>
+    <hyperlink ref="B133" r:id="rId217" display="https://countrycode.org/cambodia" xr:uid="{5617EC6A-CCE8-E340-9B5C-6A1814EEB7B3}"/>
+    <hyperlink ref="B132" r:id="rId218" display="https://countrycode.org/burundi" xr:uid="{3E1D8332-B822-AC48-99D2-027A2A4A82FF}"/>
+    <hyperlink ref="B131" r:id="rId219" display="https://countrycode.org/burkinafaso" xr:uid="{8C662493-3B81-914E-994C-08C7111C5082}"/>
+    <hyperlink ref="B130" r:id="rId220" display="https://countrycode.org/brunei" xr:uid="{300991BE-6CE1-7248-834D-9486926AEB45}"/>
+    <hyperlink ref="B129" r:id="rId221" display="https://countrycode.org/britishvirginislands" xr:uid="{06481640-CB20-984D-B59D-1F7F23D73F54}"/>
+    <hyperlink ref="B128" r:id="rId222" display="https://countrycode.org/britishindianoceanterritory" xr:uid="{CB6D75D5-4B98-0B48-B197-3E73719543D3}"/>
+    <hyperlink ref="B127" r:id="rId223" display="https://countrycode.org/botswana" xr:uid="{2DB4AB28-0D0A-8148-9FD4-77647FDF145F}"/>
+    <hyperlink ref="B126" r:id="rId224" display="https://countrycode.org/bhutan" xr:uid="{863DE961-D875-BB4A-956C-2248B3795CBC}"/>
+    <hyperlink ref="B125" r:id="rId225" display="https://countrycode.org/bermuda" xr:uid="{8E5ABE97-4F40-9641-95AC-5B924CA458E3}"/>
+    <hyperlink ref="B124" r:id="rId226" display="https://countrycode.org/benin" xr:uid="{8E46D4C5-F0A1-C24E-A15C-9B460DACA4AC}"/>
+    <hyperlink ref="B123" r:id="rId227" display="https://countrycode.org/belize" xr:uid="{A37E341B-F465-A949-9FB9-19EFAD536E57}"/>
+    <hyperlink ref="B122" r:id="rId228" display="https://countrycode.org/barbados" xr:uid="{06B514F8-763E-8244-B0A0-40BF62D619DA}"/>
+    <hyperlink ref="B121" r:id="rId229" display="https://countrycode.org/bangladesh" xr:uid="{DEC4E054-7D25-3041-B141-4B3BAEE70E2E}"/>
+    <hyperlink ref="B120" r:id="rId230" display="https://countrycode.org/bahamas" xr:uid="{2C0067AB-A816-394D-A80E-61024BEA58AF}"/>
+    <hyperlink ref="B119" r:id="rId231" display="https://countrycode.org/azerbaijan" xr:uid="{99C7CF3B-D828-104B-A11A-756BCCDCC70C}"/>
+    <hyperlink ref="B118" r:id="rId232" display="https://countrycode.org/aruba" xr:uid="{C1B01431-45F6-9E49-B355-EB1A8874B1B6}"/>
+    <hyperlink ref="B117" r:id="rId233" display="https://countrycode.org/armenia" xr:uid="{E58E4E9A-F7EC-1342-B686-143530219BA9}"/>
+    <hyperlink ref="B116" r:id="rId234" display="https://countrycode.org/antiguaandbarbuda" xr:uid="{6434E0AC-B422-1D47-8E20-AC42F385A85D}"/>
+    <hyperlink ref="B115" r:id="rId235" display="https://countrycode.org/antarctica" xr:uid="{63C673C1-460A-5948-B73A-4BD675EA1D60}"/>
+    <hyperlink ref="B114" r:id="rId236" display="https://countrycode.org/anguilla" xr:uid="{4009DB37-3629-D141-95BE-BA66E729B2C3}"/>
+    <hyperlink ref="B113" r:id="rId237" display="https://countrycode.org/angola" xr:uid="{580F1E3B-A599-904E-AC6C-D3247283BCF8}"/>
+    <hyperlink ref="B112" r:id="rId238" display="https://countrycode.org/andorra" xr:uid="{3EACF7B3-33CE-F149-A4D6-C2611CF39A62}"/>
+    <hyperlink ref="B111" r:id="rId239" display="https://countrycode.org/americansamoa" xr:uid="{830EB6F3-5D8A-F641-9C93-7BF4CC805E51}"/>
+    <hyperlink ref="B110" r:id="rId240" display="https://countrycode.org/afghanistan" xr:uid="{5E1801C2-C82A-6144-AECE-68F3DE9EEE03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
